--- a/AAII_Financials/Yearly/HLG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HLG_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -718,25 +718,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>215100</v>
+        <v>209800</v>
       </c>
       <c r="E8" s="3">
-        <v>167800</v>
+        <v>163700</v>
       </c>
       <c r="F8" s="3">
-        <v>122400</v>
+        <v>119400</v>
       </c>
       <c r="G8" s="3">
-        <v>93800</v>
+        <v>91500</v>
       </c>
       <c r="H8" s="3">
-        <v>73900</v>
+        <v>72000</v>
       </c>
       <c r="I8" s="3">
-        <v>66400</v>
+        <v>64800</v>
       </c>
       <c r="J8" s="3">
-        <v>62700</v>
+        <v>61200</v>
       </c>
       <c r="K8" s="3">
         <v>51900</v>
@@ -751,25 +751,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>147300</v>
+        <v>143700</v>
       </c>
       <c r="E9" s="3">
-        <v>115500</v>
+        <v>112600</v>
       </c>
       <c r="F9" s="3">
-        <v>93000</v>
+        <v>90800</v>
       </c>
       <c r="G9" s="3">
-        <v>142300</v>
+        <v>138800</v>
       </c>
       <c r="H9" s="3">
-        <v>48000</v>
+        <v>46800</v>
       </c>
       <c r="I9" s="3">
-        <v>43000</v>
+        <v>41900</v>
       </c>
       <c r="J9" s="3">
-        <v>42100</v>
+        <v>41100</v>
       </c>
       <c r="K9" s="3">
         <v>35500</v>
@@ -784,25 +784,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>67700</v>
+        <v>66100</v>
       </c>
       <c r="E10" s="3">
-        <v>52300</v>
+        <v>51000</v>
       </c>
       <c r="F10" s="3">
-        <v>29400</v>
+        <v>28700</v>
       </c>
       <c r="G10" s="3">
-        <v>-48400</v>
+        <v>-47200</v>
       </c>
       <c r="H10" s="3">
-        <v>25900</v>
+        <v>25200</v>
       </c>
       <c r="I10" s="3">
-        <v>23400</v>
+        <v>22800</v>
       </c>
       <c r="J10" s="3">
-        <v>20600</v>
+        <v>20000</v>
       </c>
       <c r="K10" s="3">
         <v>16400</v>
@@ -901,13 +901,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -976,25 +976,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>157800</v>
+        <v>153900</v>
       </c>
       <c r="E17" s="3">
-        <v>126800</v>
+        <v>123700</v>
       </c>
       <c r="F17" s="3">
-        <v>99400</v>
+        <v>96900</v>
       </c>
       <c r="G17" s="3">
-        <v>80400</v>
+        <v>78400</v>
       </c>
       <c r="H17" s="3">
-        <v>54700</v>
+        <v>53300</v>
       </c>
       <c r="I17" s="3">
-        <v>49100</v>
+        <v>47900</v>
       </c>
       <c r="J17" s="3">
-        <v>47400</v>
+        <v>46200</v>
       </c>
       <c r="K17" s="3">
         <v>41000</v>
@@ -1009,25 +1009,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>57300</v>
+        <v>55900</v>
       </c>
       <c r="E18" s="3">
-        <v>41000</v>
+        <v>40000</v>
       </c>
       <c r="F18" s="3">
-        <v>23100</v>
+        <v>22500</v>
       </c>
       <c r="G18" s="3">
-        <v>13400</v>
+        <v>13100</v>
       </c>
       <c r="H18" s="3">
-        <v>19200</v>
+        <v>18700</v>
       </c>
       <c r="I18" s="3">
-        <v>17300</v>
+        <v>16900</v>
       </c>
       <c r="J18" s="3">
-        <v>15300</v>
+        <v>14900</v>
       </c>
       <c r="K18" s="3">
         <v>10900</v>
@@ -1057,7 +1057,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="E20" s="3">
         <v>1600</v>
@@ -1072,10 +1072,10 @@
         <v>1000</v>
       </c>
       <c r="I20" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="J20" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="K20" s="3">
         <v>1700</v>
@@ -1090,25 +1090,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>80100</v>
+        <v>78000</v>
       </c>
       <c r="E21" s="3">
-        <v>58900</v>
+        <v>57400</v>
       </c>
       <c r="F21" s="3">
-        <v>40000</v>
+        <v>39000</v>
       </c>
       <c r="G21" s="3">
-        <v>23700</v>
+        <v>23100</v>
       </c>
       <c r="H21" s="3">
-        <v>24000</v>
+        <v>23400</v>
       </c>
       <c r="I21" s="3">
-        <v>23800</v>
+        <v>23200</v>
       </c>
       <c r="J21" s="3">
-        <v>21200</v>
+        <v>20700</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1156,25 +1156,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>60900</v>
+        <v>59400</v>
       </c>
       <c r="E23" s="3">
-        <v>42600</v>
+        <v>41600</v>
       </c>
       <c r="F23" s="3">
-        <v>24100</v>
+        <v>23500</v>
       </c>
       <c r="G23" s="3">
-        <v>14300</v>
+        <v>13900</v>
       </c>
       <c r="H23" s="3">
-        <v>20200</v>
+        <v>19700</v>
       </c>
       <c r="I23" s="3">
-        <v>20200</v>
+        <v>19700</v>
       </c>
       <c r="J23" s="3">
-        <v>17700</v>
+        <v>17200</v>
       </c>
       <c r="K23" s="3">
         <v>12600</v>
@@ -1189,10 +1189,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>15600</v>
+        <v>15200</v>
       </c>
       <c r="E24" s="3">
-        <v>9500</v>
+        <v>9300</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1255,25 +1255,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>45300</v>
+        <v>44200</v>
       </c>
       <c r="E26" s="3">
-        <v>33100</v>
+        <v>32300</v>
       </c>
       <c r="F26" s="3">
-        <v>24100</v>
+        <v>23500</v>
       </c>
       <c r="G26" s="3">
-        <v>14300</v>
+        <v>13900</v>
       </c>
       <c r="H26" s="3">
-        <v>20200</v>
+        <v>19700</v>
       </c>
       <c r="I26" s="3">
-        <v>20200</v>
+        <v>19700</v>
       </c>
       <c r="J26" s="3">
-        <v>17700</v>
+        <v>17200</v>
       </c>
       <c r="K26" s="3">
         <v>12600</v>
@@ -1288,25 +1288,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>42100</v>
+        <v>41100</v>
       </c>
       <c r="E27" s="3">
-        <v>33100</v>
+        <v>32300</v>
       </c>
       <c r="F27" s="3">
-        <v>24100</v>
+        <v>23500</v>
       </c>
       <c r="G27" s="3">
-        <v>14300</v>
+        <v>13900</v>
       </c>
       <c r="H27" s="3">
-        <v>20200</v>
+        <v>19700</v>
       </c>
       <c r="I27" s="3">
-        <v>20200</v>
+        <v>19700</v>
       </c>
       <c r="J27" s="3">
-        <v>17700</v>
+        <v>17200</v>
       </c>
       <c r="K27" s="3">
         <v>12300</v>
@@ -1453,7 +1453,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3600</v>
+        <v>-3500</v>
       </c>
       <c r="E32" s="3">
         <v>-1600</v>
@@ -1468,10 +1468,10 @@
         <v>-1000</v>
       </c>
       <c r="I32" s="3">
-        <v>-2900</v>
+        <v>-2800</v>
       </c>
       <c r="J32" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="K32" s="3">
         <v>-1700</v>
@@ -1486,25 +1486,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>42100</v>
+        <v>41100</v>
       </c>
       <c r="E33" s="3">
-        <v>33100</v>
+        <v>32300</v>
       </c>
       <c r="F33" s="3">
-        <v>24100</v>
+        <v>23500</v>
       </c>
       <c r="G33" s="3">
-        <v>14300</v>
+        <v>13900</v>
       </c>
       <c r="H33" s="3">
-        <v>20200</v>
+        <v>19700</v>
       </c>
       <c r="I33" s="3">
-        <v>20200</v>
+        <v>19700</v>
       </c>
       <c r="J33" s="3">
-        <v>17700</v>
+        <v>17200</v>
       </c>
       <c r="K33" s="3">
         <v>12300</v>
@@ -1552,25 +1552,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>42100</v>
+        <v>41100</v>
       </c>
       <c r="E35" s="3">
-        <v>33100</v>
+        <v>32300</v>
       </c>
       <c r="F35" s="3">
-        <v>24100</v>
+        <v>23500</v>
       </c>
       <c r="G35" s="3">
-        <v>14300</v>
+        <v>13900</v>
       </c>
       <c r="H35" s="3">
-        <v>20200</v>
+        <v>19700</v>
       </c>
       <c r="I35" s="3">
-        <v>20200</v>
+        <v>19700</v>
       </c>
       <c r="J35" s="3">
-        <v>17700</v>
+        <v>17200</v>
       </c>
       <c r="K35" s="3">
         <v>12300</v>
@@ -1653,25 +1653,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>37400</v>
+        <v>36500</v>
       </c>
       <c r="E41" s="3">
-        <v>116600</v>
+        <v>113900</v>
       </c>
       <c r="F41" s="3">
-        <v>11200</v>
+        <v>10900</v>
       </c>
       <c r="G41" s="3">
-        <v>41800</v>
+        <v>40800</v>
       </c>
       <c r="H41" s="3">
-        <v>33500</v>
+        <v>32700</v>
       </c>
       <c r="I41" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="J41" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1719,13 +1719,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>13600</v>
+        <v>13300</v>
       </c>
       <c r="E43" s="3">
-        <v>13600</v>
+        <v>13300</v>
       </c>
       <c r="F43" s="3">
-        <v>16200</v>
+        <v>15800</v>
       </c>
       <c r="G43" s="3">
         <v>1800</v>
@@ -1737,7 +1737,7 @@
         <v>400</v>
       </c>
       <c r="J43" s="3">
-        <v>39700</v>
+        <v>38800</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1785,22 +1785,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>203300</v>
+        <v>198600</v>
       </c>
       <c r="E45" s="3">
-        <v>31400</v>
+        <v>30700</v>
       </c>
       <c r="F45" s="3">
-        <v>57800</v>
+        <v>56400</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>8800</v>
+        <v>8600</v>
       </c>
       <c r="I45" s="3">
-        <v>60300</v>
+        <v>58900</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -1818,25 +1818,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>254400</v>
+        <v>248500</v>
       </c>
       <c r="E46" s="3">
-        <v>161700</v>
+        <v>158000</v>
       </c>
       <c r="F46" s="3">
-        <v>85100</v>
+        <v>83100</v>
       </c>
       <c r="G46" s="3">
-        <v>43600</v>
+        <v>42500</v>
       </c>
       <c r="H46" s="3">
-        <v>42600</v>
+        <v>41600</v>
       </c>
       <c r="I46" s="3">
-        <v>66700</v>
+        <v>65100</v>
       </c>
       <c r="J46" s="3">
-        <v>43500</v>
+        <v>42500</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -1884,25 +1884,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>89000</v>
+        <v>87000</v>
       </c>
       <c r="E48" s="3">
-        <v>97400</v>
+        <v>95200</v>
       </c>
       <c r="F48" s="3">
-        <v>103400</v>
+        <v>101000</v>
       </c>
       <c r="G48" s="3">
-        <v>106200</v>
+        <v>103800</v>
       </c>
       <c r="H48" s="3">
-        <v>26100</v>
+        <v>25500</v>
       </c>
       <c r="I48" s="3">
-        <v>13100</v>
+        <v>12800</v>
       </c>
       <c r="J48" s="3">
-        <v>15100</v>
+        <v>14700</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -1917,25 +1917,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14300</v>
+        <v>13900</v>
       </c>
       <c r="E49" s="3">
-        <v>11300</v>
+        <v>11000</v>
       </c>
       <c r="F49" s="3">
+        <v>11200</v>
+      </c>
+      <c r="G49" s="3">
+        <v>11200</v>
+      </c>
+      <c r="H49" s="3">
         <v>11400</v>
       </c>
-      <c r="G49" s="3">
-        <v>11500</v>
-      </c>
-      <c r="H49" s="3">
-        <v>11700</v>
-      </c>
       <c r="I49" s="3">
-        <v>11900</v>
+        <v>11600</v>
       </c>
       <c r="J49" s="3">
-        <v>12300</v>
+        <v>12000</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2025,10 +2025,10 @@
         <v>800</v>
       </c>
       <c r="G52" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="H52" s="3">
-        <v>42700</v>
+        <v>41800</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2082,25 +2082,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>359100</v>
+        <v>350800</v>
       </c>
       <c r="E54" s="3">
-        <v>270400</v>
+        <v>264200</v>
       </c>
       <c r="F54" s="3">
-        <v>200700</v>
+        <v>196100</v>
       </c>
       <c r="G54" s="3">
-        <v>162600</v>
+        <v>158800</v>
       </c>
       <c r="H54" s="3">
-        <v>123000</v>
+        <v>120200</v>
       </c>
       <c r="I54" s="3">
-        <v>91700</v>
+        <v>89600</v>
       </c>
       <c r="J54" s="3">
-        <v>70900</v>
+        <v>69200</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2148,22 +2148,22 @@
         <v>2900</v>
       </c>
       <c r="E57" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F57" s="3">
         <v>3200</v>
       </c>
-      <c r="F57" s="3">
-        <v>3300</v>
-      </c>
       <c r="G57" s="3">
-        <v>6400</v>
+        <v>6200</v>
       </c>
       <c r="H57" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="I57" s="3">
         <v>2200</v>
       </c>
       <c r="J57" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2211,25 +2211,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>112800</v>
+        <v>110100</v>
       </c>
       <c r="E59" s="3">
-        <v>75700</v>
+        <v>74000</v>
       </c>
       <c r="F59" s="3">
-        <v>39400</v>
+        <v>38500</v>
       </c>
       <c r="G59" s="3">
-        <v>23900</v>
+        <v>23400</v>
       </c>
       <c r="H59" s="3">
-        <v>17400</v>
+        <v>17000</v>
       </c>
       <c r="I59" s="3">
-        <v>9600</v>
+        <v>9300</v>
       </c>
       <c r="J59" s="3">
-        <v>9200</v>
+        <v>9000</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2244,25 +2244,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>115700</v>
+        <v>113000</v>
       </c>
       <c r="E60" s="3">
-        <v>78900</v>
+        <v>77100</v>
       </c>
       <c r="F60" s="3">
-        <v>42700</v>
+        <v>41700</v>
       </c>
       <c r="G60" s="3">
-        <v>30300</v>
+        <v>29600</v>
       </c>
       <c r="H60" s="3">
-        <v>22900</v>
+        <v>22400</v>
       </c>
       <c r="I60" s="3">
-        <v>11800</v>
+        <v>11500</v>
       </c>
       <c r="J60" s="3">
-        <v>11200</v>
+        <v>10900</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2442,25 +2442,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>122100</v>
+        <v>119300</v>
       </c>
       <c r="E66" s="3">
-        <v>80800</v>
+        <v>78900</v>
       </c>
       <c r="F66" s="3">
-        <v>42700</v>
+        <v>41700</v>
       </c>
       <c r="G66" s="3">
-        <v>30300</v>
+        <v>29600</v>
       </c>
       <c r="H66" s="3">
-        <v>22900</v>
+        <v>22400</v>
       </c>
       <c r="I66" s="3">
-        <v>11800</v>
+        <v>11500</v>
       </c>
       <c r="J66" s="3">
-        <v>11200</v>
+        <v>10900</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2622,25 +2622,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>181600</v>
+        <v>177400</v>
       </c>
       <c r="E72" s="3">
-        <v>136400</v>
+        <v>133300</v>
       </c>
       <c r="F72" s="3">
-        <v>103300</v>
+        <v>100900</v>
       </c>
       <c r="G72" s="3">
-        <v>79300</v>
+        <v>77400</v>
       </c>
       <c r="H72" s="3">
-        <v>65000</v>
+        <v>63500</v>
       </c>
       <c r="I72" s="3">
-        <v>44800</v>
+        <v>43700</v>
       </c>
       <c r="J72" s="3">
-        <v>24600</v>
+        <v>24000</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2754,25 +2754,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>237000</v>
+        <v>231500</v>
       </c>
       <c r="E76" s="3">
-        <v>189600</v>
+        <v>185200</v>
       </c>
       <c r="F76" s="3">
-        <v>158100</v>
+        <v>154400</v>
       </c>
       <c r="G76" s="3">
-        <v>132200</v>
+        <v>129200</v>
       </c>
       <c r="H76" s="3">
-        <v>100100</v>
+        <v>97800</v>
       </c>
       <c r="I76" s="3">
-        <v>79900</v>
+        <v>78000</v>
       </c>
       <c r="J76" s="3">
-        <v>59700</v>
+        <v>58300</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -2858,25 +2858,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>42100</v>
+        <v>41100</v>
       </c>
       <c r="E81" s="3">
-        <v>33100</v>
+        <v>32300</v>
       </c>
       <c r="F81" s="3">
-        <v>24100</v>
+        <v>23500</v>
       </c>
       <c r="G81" s="3">
-        <v>14300</v>
+        <v>13900</v>
       </c>
       <c r="H81" s="3">
-        <v>20200</v>
+        <v>19700</v>
       </c>
       <c r="I81" s="3">
-        <v>20200</v>
+        <v>19700</v>
       </c>
       <c r="J81" s="3">
-        <v>17700</v>
+        <v>17200</v>
       </c>
       <c r="K81" s="3">
         <v>12300</v>
@@ -2906,25 +2906,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>19200</v>
+        <v>18700</v>
       </c>
       <c r="E83" s="3">
-        <v>16300</v>
+        <v>15900</v>
       </c>
       <c r="F83" s="3">
-        <v>15900</v>
+        <v>15600</v>
       </c>
       <c r="G83" s="3">
-        <v>9500</v>
+        <v>9200</v>
       </c>
       <c r="H83" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="I83" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="J83" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3104,25 +3104,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>99000</v>
+        <v>96600</v>
       </c>
       <c r="E89" s="3">
-        <v>84400</v>
+        <v>82300</v>
       </c>
       <c r="F89" s="3">
-        <v>41200</v>
+        <v>40200</v>
       </c>
       <c r="G89" s="3">
-        <v>31000</v>
+        <v>30300</v>
       </c>
       <c r="H89" s="3">
-        <v>33900</v>
+        <v>33000</v>
       </c>
       <c r="I89" s="3">
-        <v>21400</v>
+        <v>20900</v>
       </c>
       <c r="J89" s="3">
-        <v>21600</v>
+        <v>21100</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3152,22 +3152,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-11500</v>
+        <v>-11200</v>
       </c>
       <c r="E91" s="3">
-        <v>-12800</v>
+        <v>-12500</v>
       </c>
       <c r="F91" s="3">
-        <v>-15600</v>
+        <v>-15200</v>
       </c>
       <c r="G91" s="3">
-        <v>-49700</v>
+        <v>-48500</v>
       </c>
       <c r="H91" s="3">
-        <v>-20900</v>
+        <v>-20400</v>
       </c>
       <c r="I91" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="J91" s="3">
         <v>-2200</v>
@@ -3251,25 +3251,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-177100</v>
+        <v>-172700</v>
       </c>
       <c r="E94" s="3">
-        <v>18800</v>
+        <v>18400</v>
       </c>
       <c r="F94" s="3">
-        <v>-86400</v>
+        <v>-84300</v>
       </c>
       <c r="G94" s="3">
-        <v>-40500</v>
+        <v>-39500</v>
       </c>
       <c r="H94" s="3">
-        <v>-6400</v>
+        <v>-6200</v>
       </c>
       <c r="I94" s="3">
-        <v>-19200</v>
+        <v>-18700</v>
       </c>
       <c r="J94" s="3">
-        <v>-21900</v>
+        <v>-21400</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3431,16 +3431,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="E100" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="F100" s="3">
-        <v>14300</v>
+        <v>13900</v>
       </c>
       <c r="G100" s="3">
-        <v>16400</v>
+        <v>16000</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
@@ -3470,10 +3470,10 @@
         <v>-400</v>
       </c>
       <c r="F101" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G101" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -3497,19 +3497,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-79200</v>
+        <v>-77200</v>
       </c>
       <c r="E102" s="3">
-        <v>105400</v>
+        <v>102800</v>
       </c>
       <c r="F102" s="3">
-        <v>-30600</v>
+        <v>-29800</v>
       </c>
       <c r="G102" s="3">
-        <v>8300</v>
+        <v>8100</v>
       </c>
       <c r="H102" s="3">
-        <v>27500</v>
+        <v>26800</v>
       </c>
       <c r="I102" s="3">
         <v>2200</v>

--- a/AAII_Financials/Yearly/HLG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HLG_YR_FIN.xlsx
@@ -718,25 +718,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>209800</v>
+        <v>217700</v>
       </c>
       <c r="E8" s="3">
-        <v>163700</v>
+        <v>169800</v>
       </c>
       <c r="F8" s="3">
-        <v>119400</v>
+        <v>123900</v>
       </c>
       <c r="G8" s="3">
-        <v>91500</v>
+        <v>95000</v>
       </c>
       <c r="H8" s="3">
-        <v>72000</v>
+        <v>74800</v>
       </c>
       <c r="I8" s="3">
-        <v>64800</v>
+        <v>67200</v>
       </c>
       <c r="J8" s="3">
-        <v>61200</v>
+        <v>63500</v>
       </c>
       <c r="K8" s="3">
         <v>51900</v>
@@ -751,25 +751,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>143700</v>
+        <v>149100</v>
       </c>
       <c r="E9" s="3">
-        <v>112600</v>
+        <v>116900</v>
       </c>
       <c r="F9" s="3">
-        <v>90800</v>
+        <v>94200</v>
       </c>
       <c r="G9" s="3">
-        <v>138800</v>
+        <v>144000</v>
       </c>
       <c r="H9" s="3">
-        <v>46800</v>
+        <v>48600</v>
       </c>
       <c r="I9" s="3">
-        <v>41900</v>
+        <v>43500</v>
       </c>
       <c r="J9" s="3">
-        <v>41100</v>
+        <v>42700</v>
       </c>
       <c r="K9" s="3">
         <v>35500</v>
@@ -784,25 +784,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>66100</v>
+        <v>68600</v>
       </c>
       <c r="E10" s="3">
-        <v>51000</v>
+        <v>53000</v>
       </c>
       <c r="F10" s="3">
-        <v>28700</v>
+        <v>29700</v>
       </c>
       <c r="G10" s="3">
-        <v>-47200</v>
+        <v>-49000</v>
       </c>
       <c r="H10" s="3">
-        <v>25200</v>
+        <v>26200</v>
       </c>
       <c r="I10" s="3">
-        <v>22800</v>
+        <v>23700</v>
       </c>
       <c r="J10" s="3">
-        <v>20000</v>
+        <v>20800</v>
       </c>
       <c r="K10" s="3">
         <v>16400</v>
@@ -901,13 +901,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -976,25 +976,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>153900</v>
+        <v>159700</v>
       </c>
       <c r="E17" s="3">
-        <v>123700</v>
+        <v>128300</v>
       </c>
       <c r="F17" s="3">
-        <v>96900</v>
+        <v>100600</v>
       </c>
       <c r="G17" s="3">
-        <v>78400</v>
+        <v>81400</v>
       </c>
       <c r="H17" s="3">
-        <v>53300</v>
+        <v>55300</v>
       </c>
       <c r="I17" s="3">
-        <v>47900</v>
+        <v>49700</v>
       </c>
       <c r="J17" s="3">
-        <v>46200</v>
+        <v>48000</v>
       </c>
       <c r="K17" s="3">
         <v>41000</v>
@@ -1009,25 +1009,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>55900</v>
+        <v>58000</v>
       </c>
       <c r="E18" s="3">
-        <v>40000</v>
+        <v>41500</v>
       </c>
       <c r="F18" s="3">
-        <v>22500</v>
+        <v>23400</v>
       </c>
       <c r="G18" s="3">
-        <v>13100</v>
+        <v>13600</v>
       </c>
       <c r="H18" s="3">
-        <v>18700</v>
+        <v>19400</v>
       </c>
       <c r="I18" s="3">
-        <v>16900</v>
+        <v>17500</v>
       </c>
       <c r="J18" s="3">
-        <v>14900</v>
+        <v>15500</v>
       </c>
       <c r="K18" s="3">
         <v>10900</v>
@@ -1057,10 +1057,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="E20" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="F20" s="3">
         <v>1000</v>
@@ -1072,10 +1072,10 @@
         <v>1000</v>
       </c>
       <c r="I20" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="J20" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="K20" s="3">
         <v>1700</v>
@@ -1090,25 +1090,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>78000</v>
+        <v>81000</v>
       </c>
       <c r="E21" s="3">
-        <v>57400</v>
+        <v>59600</v>
       </c>
       <c r="F21" s="3">
-        <v>39000</v>
+        <v>40400</v>
       </c>
       <c r="G21" s="3">
-        <v>23100</v>
+        <v>24000</v>
       </c>
       <c r="H21" s="3">
-        <v>23400</v>
+        <v>24300</v>
       </c>
       <c r="I21" s="3">
-        <v>23200</v>
+        <v>24100</v>
       </c>
       <c r="J21" s="3">
-        <v>20700</v>
+        <v>21500</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1156,25 +1156,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>59400</v>
+        <v>61600</v>
       </c>
       <c r="E23" s="3">
-        <v>41600</v>
+        <v>43200</v>
       </c>
       <c r="F23" s="3">
-        <v>23500</v>
+        <v>24400</v>
       </c>
       <c r="G23" s="3">
-        <v>13900</v>
+        <v>14400</v>
       </c>
       <c r="H23" s="3">
-        <v>19700</v>
+        <v>20500</v>
       </c>
       <c r="I23" s="3">
-        <v>19700</v>
+        <v>20400</v>
       </c>
       <c r="J23" s="3">
-        <v>17200</v>
+        <v>17900</v>
       </c>
       <c r="K23" s="3">
         <v>12600</v>
@@ -1189,10 +1189,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>15200</v>
+        <v>15800</v>
       </c>
       <c r="E24" s="3">
-        <v>9300</v>
+        <v>9600</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1255,25 +1255,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>44200</v>
+        <v>45900</v>
       </c>
       <c r="E26" s="3">
-        <v>32300</v>
+        <v>33500</v>
       </c>
       <c r="F26" s="3">
-        <v>23500</v>
+        <v>24400</v>
       </c>
       <c r="G26" s="3">
-        <v>13900</v>
+        <v>14400</v>
       </c>
       <c r="H26" s="3">
-        <v>19700</v>
+        <v>20500</v>
       </c>
       <c r="I26" s="3">
-        <v>19700</v>
+        <v>20400</v>
       </c>
       <c r="J26" s="3">
-        <v>17200</v>
+        <v>17900</v>
       </c>
       <c r="K26" s="3">
         <v>12600</v>
@@ -1288,25 +1288,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>41100</v>
+        <v>42600</v>
       </c>
       <c r="E27" s="3">
-        <v>32300</v>
+        <v>33500</v>
       </c>
       <c r="F27" s="3">
-        <v>23500</v>
+        <v>24400</v>
       </c>
       <c r="G27" s="3">
-        <v>13900</v>
+        <v>14400</v>
       </c>
       <c r="H27" s="3">
-        <v>19700</v>
+        <v>20500</v>
       </c>
       <c r="I27" s="3">
-        <v>19700</v>
+        <v>20400</v>
       </c>
       <c r="J27" s="3">
-        <v>17200</v>
+        <v>17900</v>
       </c>
       <c r="K27" s="3">
         <v>12300</v>
@@ -1453,10 +1453,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="E32" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="F32" s="3">
         <v>-1000</v>
@@ -1468,10 +1468,10 @@
         <v>-1000</v>
       </c>
       <c r="I32" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="J32" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="K32" s="3">
         <v>-1700</v>
@@ -1486,25 +1486,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>41100</v>
+        <v>42600</v>
       </c>
       <c r="E33" s="3">
-        <v>32300</v>
+        <v>33500</v>
       </c>
       <c r="F33" s="3">
-        <v>23500</v>
+        <v>24400</v>
       </c>
       <c r="G33" s="3">
-        <v>13900</v>
+        <v>14400</v>
       </c>
       <c r="H33" s="3">
-        <v>19700</v>
+        <v>20500</v>
       </c>
       <c r="I33" s="3">
-        <v>19700</v>
+        <v>20400</v>
       </c>
       <c r="J33" s="3">
-        <v>17200</v>
+        <v>17900</v>
       </c>
       <c r="K33" s="3">
         <v>12300</v>
@@ -1552,25 +1552,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>41100</v>
+        <v>42600</v>
       </c>
       <c r="E35" s="3">
-        <v>32300</v>
+        <v>33500</v>
       </c>
       <c r="F35" s="3">
-        <v>23500</v>
+        <v>24400</v>
       </c>
       <c r="G35" s="3">
-        <v>13900</v>
+        <v>14400</v>
       </c>
       <c r="H35" s="3">
-        <v>19700</v>
+        <v>20500</v>
       </c>
       <c r="I35" s="3">
-        <v>19700</v>
+        <v>20400</v>
       </c>
       <c r="J35" s="3">
-        <v>17200</v>
+        <v>17900</v>
       </c>
       <c r="K35" s="3">
         <v>12300</v>
@@ -1653,25 +1653,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>36500</v>
+        <v>37900</v>
       </c>
       <c r="E41" s="3">
-        <v>113900</v>
+        <v>118000</v>
       </c>
       <c r="F41" s="3">
-        <v>10900</v>
+        <v>11300</v>
       </c>
       <c r="G41" s="3">
-        <v>40800</v>
+        <v>42300</v>
       </c>
       <c r="H41" s="3">
-        <v>32700</v>
+        <v>33900</v>
       </c>
       <c r="I41" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="J41" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1719,13 +1719,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>13300</v>
+        <v>13800</v>
       </c>
       <c r="E43" s="3">
-        <v>13300</v>
+        <v>13800</v>
       </c>
       <c r="F43" s="3">
-        <v>15800</v>
+        <v>16400</v>
       </c>
       <c r="G43" s="3">
         <v>1800</v>
@@ -1737,7 +1737,7 @@
         <v>400</v>
       </c>
       <c r="J43" s="3">
-        <v>38800</v>
+        <v>40200</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1785,22 +1785,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>198600</v>
+        <v>205800</v>
       </c>
       <c r="E45" s="3">
-        <v>30700</v>
+        <v>31800</v>
       </c>
       <c r="F45" s="3">
-        <v>56400</v>
+        <v>58500</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>8600</v>
+        <v>9000</v>
       </c>
       <c r="I45" s="3">
-        <v>58900</v>
+        <v>61000</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -1818,25 +1818,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>248500</v>
+        <v>257500</v>
       </c>
       <c r="E46" s="3">
-        <v>158000</v>
+        <v>163700</v>
       </c>
       <c r="F46" s="3">
-        <v>83100</v>
+        <v>86100</v>
       </c>
       <c r="G46" s="3">
-        <v>42500</v>
+        <v>44100</v>
       </c>
       <c r="H46" s="3">
-        <v>41600</v>
+        <v>43100</v>
       </c>
       <c r="I46" s="3">
-        <v>65100</v>
+        <v>67500</v>
       </c>
       <c r="J46" s="3">
-        <v>42500</v>
+        <v>44000</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -1884,25 +1884,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>87000</v>
+        <v>90100</v>
       </c>
       <c r="E48" s="3">
-        <v>95200</v>
+        <v>98600</v>
       </c>
       <c r="F48" s="3">
-        <v>101000</v>
+        <v>104700</v>
       </c>
       <c r="G48" s="3">
-        <v>103800</v>
+        <v>107500</v>
       </c>
       <c r="H48" s="3">
-        <v>25500</v>
+        <v>26400</v>
       </c>
       <c r="I48" s="3">
-        <v>12800</v>
+        <v>13300</v>
       </c>
       <c r="J48" s="3">
-        <v>14700</v>
+        <v>15300</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -1917,25 +1917,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13900</v>
+        <v>14500</v>
       </c>
       <c r="E49" s="3">
-        <v>11000</v>
+        <v>11400</v>
       </c>
       <c r="F49" s="3">
-        <v>11200</v>
+        <v>11600</v>
       </c>
       <c r="G49" s="3">
-        <v>11200</v>
+        <v>11700</v>
       </c>
       <c r="H49" s="3">
-        <v>11400</v>
+        <v>11800</v>
       </c>
       <c r="I49" s="3">
-        <v>11600</v>
+        <v>12000</v>
       </c>
       <c r="J49" s="3">
-        <v>12000</v>
+        <v>12400</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2016,7 +2016,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -2025,10 +2025,10 @@
         <v>800</v>
       </c>
       <c r="G52" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="H52" s="3">
-        <v>41800</v>
+        <v>43300</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2082,25 +2082,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>350800</v>
+        <v>363500</v>
       </c>
       <c r="E54" s="3">
-        <v>264200</v>
+        <v>273700</v>
       </c>
       <c r="F54" s="3">
-        <v>196100</v>
+        <v>203200</v>
       </c>
       <c r="G54" s="3">
-        <v>158800</v>
+        <v>164500</v>
       </c>
       <c r="H54" s="3">
-        <v>120200</v>
+        <v>124500</v>
       </c>
       <c r="I54" s="3">
-        <v>89600</v>
+        <v>92800</v>
       </c>
       <c r="J54" s="3">
-        <v>69200</v>
+        <v>71700</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2145,25 +2145,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="E57" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="F57" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="G57" s="3">
-        <v>6200</v>
+        <v>6500</v>
       </c>
       <c r="H57" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="I57" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="J57" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2211,25 +2211,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>110100</v>
+        <v>114100</v>
       </c>
       <c r="E59" s="3">
-        <v>74000</v>
+        <v>76600</v>
       </c>
       <c r="F59" s="3">
-        <v>38500</v>
+        <v>39900</v>
       </c>
       <c r="G59" s="3">
-        <v>23400</v>
+        <v>24200</v>
       </c>
       <c r="H59" s="3">
-        <v>17000</v>
+        <v>17600</v>
       </c>
       <c r="I59" s="3">
+        <v>9700</v>
+      </c>
+      <c r="J59" s="3">
         <v>9300</v>
-      </c>
-      <c r="J59" s="3">
-        <v>9000</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2244,25 +2244,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>113000</v>
+        <v>117100</v>
       </c>
       <c r="E60" s="3">
-        <v>77100</v>
+        <v>79900</v>
       </c>
       <c r="F60" s="3">
-        <v>41700</v>
+        <v>43200</v>
       </c>
       <c r="G60" s="3">
-        <v>29600</v>
+        <v>30700</v>
       </c>
       <c r="H60" s="3">
-        <v>22400</v>
+        <v>23200</v>
       </c>
       <c r="I60" s="3">
-        <v>11500</v>
+        <v>11900</v>
       </c>
       <c r="J60" s="3">
-        <v>10900</v>
+        <v>11300</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2310,7 +2310,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>3</v>
@@ -2442,25 +2442,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>119300</v>
+        <v>123600</v>
       </c>
       <c r="E66" s="3">
-        <v>78900</v>
+        <v>81800</v>
       </c>
       <c r="F66" s="3">
-        <v>41700</v>
+        <v>43200</v>
       </c>
       <c r="G66" s="3">
-        <v>29600</v>
+        <v>30700</v>
       </c>
       <c r="H66" s="3">
-        <v>22400</v>
+        <v>23200</v>
       </c>
       <c r="I66" s="3">
-        <v>11500</v>
+        <v>11900</v>
       </c>
       <c r="J66" s="3">
-        <v>10900</v>
+        <v>11300</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2622,25 +2622,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>177400</v>
+        <v>183800</v>
       </c>
       <c r="E72" s="3">
-        <v>133300</v>
+        <v>138100</v>
       </c>
       <c r="F72" s="3">
-        <v>100900</v>
+        <v>104600</v>
       </c>
       <c r="G72" s="3">
-        <v>77400</v>
+        <v>80200</v>
       </c>
       <c r="H72" s="3">
-        <v>63500</v>
+        <v>65800</v>
       </c>
       <c r="I72" s="3">
-        <v>43700</v>
+        <v>45300</v>
       </c>
       <c r="J72" s="3">
-        <v>24000</v>
+        <v>24900</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2754,25 +2754,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>231500</v>
+        <v>239900</v>
       </c>
       <c r="E76" s="3">
-        <v>185200</v>
+        <v>191900</v>
       </c>
       <c r="F76" s="3">
-        <v>154400</v>
+        <v>160000</v>
       </c>
       <c r="G76" s="3">
-        <v>129200</v>
+        <v>133900</v>
       </c>
       <c r="H76" s="3">
-        <v>97800</v>
+        <v>101300</v>
       </c>
       <c r="I76" s="3">
-        <v>78000</v>
+        <v>80900</v>
       </c>
       <c r="J76" s="3">
-        <v>58300</v>
+        <v>60400</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -2858,25 +2858,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>41100</v>
+        <v>42600</v>
       </c>
       <c r="E81" s="3">
-        <v>32300</v>
+        <v>33500</v>
       </c>
       <c r="F81" s="3">
-        <v>23500</v>
+        <v>24400</v>
       </c>
       <c r="G81" s="3">
-        <v>13900</v>
+        <v>14400</v>
       </c>
       <c r="H81" s="3">
-        <v>19700</v>
+        <v>20500</v>
       </c>
       <c r="I81" s="3">
-        <v>19700</v>
+        <v>20400</v>
       </c>
       <c r="J81" s="3">
-        <v>17200</v>
+        <v>17900</v>
       </c>
       <c r="K81" s="3">
         <v>12300</v>
@@ -2906,25 +2906,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>18700</v>
+        <v>19400</v>
       </c>
       <c r="E83" s="3">
-        <v>15900</v>
+        <v>16500</v>
       </c>
       <c r="F83" s="3">
-        <v>15600</v>
+        <v>16100</v>
       </c>
       <c r="G83" s="3">
-        <v>9200</v>
+        <v>9600</v>
       </c>
       <c r="H83" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="I83" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="J83" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3104,25 +3104,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>96600</v>
+        <v>100300</v>
       </c>
       <c r="E89" s="3">
-        <v>82300</v>
+        <v>85400</v>
       </c>
       <c r="F89" s="3">
-        <v>40200</v>
+        <v>41700</v>
       </c>
       <c r="G89" s="3">
-        <v>30300</v>
+        <v>31400</v>
       </c>
       <c r="H89" s="3">
-        <v>33000</v>
+        <v>34300</v>
       </c>
       <c r="I89" s="3">
-        <v>20900</v>
+        <v>21700</v>
       </c>
       <c r="J89" s="3">
-        <v>21100</v>
+        <v>21900</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3152,25 +3152,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-11200</v>
+        <v>-11600</v>
       </c>
       <c r="E91" s="3">
-        <v>-12500</v>
+        <v>-13000</v>
       </c>
       <c r="F91" s="3">
-        <v>-15200</v>
+        <v>-15800</v>
       </c>
       <c r="G91" s="3">
-        <v>-48500</v>
+        <v>-50300</v>
       </c>
       <c r="H91" s="3">
-        <v>-20400</v>
+        <v>-21100</v>
       </c>
       <c r="I91" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="J91" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3251,25 +3251,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-172700</v>
+        <v>-179200</v>
       </c>
       <c r="E94" s="3">
-        <v>18400</v>
+        <v>19000</v>
       </c>
       <c r="F94" s="3">
-        <v>-84300</v>
+        <v>-87500</v>
       </c>
       <c r="G94" s="3">
-        <v>-39500</v>
+        <v>-41000</v>
       </c>
       <c r="H94" s="3">
-        <v>-6200</v>
+        <v>-6500</v>
       </c>
       <c r="I94" s="3">
-        <v>-18700</v>
+        <v>-19400</v>
       </c>
       <c r="J94" s="3">
-        <v>-21400</v>
+        <v>-22200</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3431,16 +3431,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="E100" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="F100" s="3">
-        <v>13900</v>
+        <v>14500</v>
       </c>
       <c r="G100" s="3">
-        <v>16000</v>
+        <v>16600</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
@@ -3470,10 +3470,10 @@
         <v>-400</v>
       </c>
       <c r="F101" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G101" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -3497,22 +3497,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-77200</v>
+        <v>-80200</v>
       </c>
       <c r="E102" s="3">
-        <v>102800</v>
+        <v>106700</v>
       </c>
       <c r="F102" s="3">
-        <v>-29800</v>
+        <v>-31000</v>
       </c>
       <c r="G102" s="3">
-        <v>8100</v>
+        <v>8400</v>
       </c>
       <c r="H102" s="3">
-        <v>26800</v>
+        <v>27800</v>
       </c>
       <c r="I102" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="J102" s="3">
         <v>-400</v>

--- a/AAII_Financials/Yearly/HLG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HLG_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
   <si>
     <t>HLG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,154 +665,166 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43281</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42916</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42551</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42185</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41820</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41455</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41090</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>217700</v>
+        <v>225500</v>
       </c>
       <c r="E8" s="3">
-        <v>169800</v>
+        <v>228000</v>
       </c>
       <c r="F8" s="3">
-        <v>123900</v>
+        <v>177900</v>
       </c>
       <c r="G8" s="3">
-        <v>95000</v>
+        <v>129800</v>
       </c>
       <c r="H8" s="3">
-        <v>74800</v>
+        <v>99500</v>
       </c>
       <c r="I8" s="3">
-        <v>67200</v>
+        <v>78300</v>
       </c>
       <c r="J8" s="3">
+        <v>70400</v>
+      </c>
+      <c r="K8" s="3">
         <v>63500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>51900</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>149100</v>
+        <v>149600</v>
       </c>
       <c r="E9" s="3">
-        <v>116900</v>
+        <v>156200</v>
       </c>
       <c r="F9" s="3">
-        <v>94200</v>
+        <v>122400</v>
       </c>
       <c r="G9" s="3">
-        <v>144000</v>
+        <v>98600</v>
       </c>
       <c r="H9" s="3">
-        <v>48600</v>
+        <v>150800</v>
       </c>
       <c r="I9" s="3">
-        <v>43500</v>
+        <v>50900</v>
       </c>
       <c r="J9" s="3">
+        <v>45600</v>
+      </c>
+      <c r="K9" s="3">
         <v>42700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>35500</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>68600</v>
+        <v>76000</v>
       </c>
       <c r="E10" s="3">
-        <v>53000</v>
+        <v>71800</v>
       </c>
       <c r="F10" s="3">
-        <v>29700</v>
+        <v>55500</v>
       </c>
       <c r="G10" s="3">
-        <v>-49000</v>
+        <v>31200</v>
       </c>
       <c r="H10" s="3">
-        <v>26200</v>
+        <v>-51400</v>
       </c>
       <c r="I10" s="3">
-        <v>23700</v>
+        <v>27400</v>
       </c>
       <c r="J10" s="3">
+        <v>24800</v>
+      </c>
+      <c r="K10" s="3">
         <v>20800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>16400</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +838,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,9 +871,12 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,9 +907,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -901,16 +920,16 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-800</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1600</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -924,23 +943,26 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E15" s="3">
         <v>100</v>
-      </c>
-      <c r="E15" s="3">
-        <v>200</v>
       </c>
       <c r="F15" s="3">
         <v>200</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
+      <c r="G15" s="3">
+        <v>200</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -951,15 +973,18 @@
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,74 +995,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>159700</v>
+        <v>154400</v>
       </c>
       <c r="E17" s="3">
-        <v>128300</v>
+        <v>167300</v>
       </c>
       <c r="F17" s="3">
-        <v>100600</v>
+        <v>134400</v>
       </c>
       <c r="G17" s="3">
-        <v>81400</v>
+        <v>105300</v>
       </c>
       <c r="H17" s="3">
-        <v>55300</v>
+        <v>85200</v>
       </c>
       <c r="I17" s="3">
-        <v>49700</v>
+        <v>57900</v>
       </c>
       <c r="J17" s="3">
+        <v>52000</v>
+      </c>
+      <c r="K17" s="3">
         <v>48000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>41000</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>58000</v>
+        <v>71200</v>
       </c>
       <c r="E18" s="3">
-        <v>41500</v>
+        <v>60800</v>
       </c>
       <c r="F18" s="3">
-        <v>23400</v>
+        <v>43500</v>
       </c>
       <c r="G18" s="3">
-        <v>13600</v>
+        <v>24500</v>
       </c>
       <c r="H18" s="3">
-        <v>19400</v>
+        <v>14300</v>
       </c>
       <c r="I18" s="3">
-        <v>17500</v>
+        <v>20400</v>
       </c>
       <c r="J18" s="3">
+        <v>18300</v>
+      </c>
+      <c r="K18" s="3">
         <v>15500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>10900</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,97 +1083,104 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="E20" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F20" s="3">
         <v>1700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
-        <v>800</v>
-      </c>
       <c r="H20" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I20" s="3">
-        <v>2900</v>
+        <v>1100</v>
       </c>
       <c r="J20" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K20" s="3">
         <v>2400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1700</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>81000</v>
+        <v>100200</v>
       </c>
       <c r="E21" s="3">
-        <v>59600</v>
+        <v>84900</v>
       </c>
       <c r="F21" s="3">
-        <v>40400</v>
+        <v>62500</v>
       </c>
       <c r="G21" s="3">
-        <v>24000</v>
+        <v>42400</v>
       </c>
       <c r="H21" s="3">
-        <v>24300</v>
+        <v>25200</v>
       </c>
       <c r="I21" s="3">
-        <v>24100</v>
+        <v>25400</v>
       </c>
       <c r="J21" s="3">
+        <v>25200</v>
+      </c>
+      <c r="K21" s="3">
         <v>21500</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>700</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1149,53 +1188,59 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>61600</v>
+        <v>74300</v>
       </c>
       <c r="E23" s="3">
-        <v>43200</v>
+        <v>64600</v>
       </c>
       <c r="F23" s="3">
-        <v>24400</v>
+        <v>45200</v>
       </c>
       <c r="G23" s="3">
-        <v>14400</v>
+        <v>25500</v>
       </c>
       <c r="H23" s="3">
-        <v>20500</v>
+        <v>15100</v>
       </c>
       <c r="I23" s="3">
-        <v>20400</v>
+        <v>21400</v>
       </c>
       <c r="J23" s="3">
+        <v>21400</v>
+      </c>
+      <c r="K23" s="3">
         <v>17900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>12600</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>15800</v>
+        <v>18500</v>
       </c>
       <c r="E24" s="3">
-        <v>9600</v>
+        <v>16500</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>10100</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1215,9 +1260,12 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,75 +1296,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>45900</v>
+        <v>55800</v>
       </c>
       <c r="E26" s="3">
-        <v>33500</v>
+        <v>48000</v>
       </c>
       <c r="F26" s="3">
-        <v>24400</v>
+        <v>35100</v>
       </c>
       <c r="G26" s="3">
-        <v>14400</v>
+        <v>25500</v>
       </c>
       <c r="H26" s="3">
-        <v>20500</v>
+        <v>15100</v>
       </c>
       <c r="I26" s="3">
-        <v>20400</v>
+        <v>21400</v>
       </c>
       <c r="J26" s="3">
+        <v>21400</v>
+      </c>
+      <c r="K26" s="3">
         <v>17900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>12600</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>42600</v>
+        <v>56400</v>
       </c>
       <c r="E27" s="3">
-        <v>33500</v>
+        <v>44600</v>
       </c>
       <c r="F27" s="3">
-        <v>24400</v>
+        <v>35100</v>
       </c>
       <c r="G27" s="3">
-        <v>14400</v>
+        <v>25500</v>
       </c>
       <c r="H27" s="3">
-        <v>20500</v>
+        <v>15100</v>
       </c>
       <c r="I27" s="3">
-        <v>20400</v>
+        <v>21400</v>
       </c>
       <c r="J27" s="3">
+        <v>21400</v>
+      </c>
+      <c r="K27" s="3">
         <v>17900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>12300</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,9 +1404,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1380,9 +1440,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,75 +1512,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3600</v>
+        <v>-3800</v>
       </c>
       <c r="E32" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
-        <v>-800</v>
-      </c>
       <c r="H32" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="I32" s="3">
-        <v>-2900</v>
+        <v>-1100</v>
       </c>
       <c r="J32" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1700</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>42600</v>
+        <v>56400</v>
       </c>
       <c r="E33" s="3">
-        <v>33500</v>
+        <v>44600</v>
       </c>
       <c r="F33" s="3">
-        <v>24400</v>
+        <v>35100</v>
       </c>
       <c r="G33" s="3">
-        <v>14400</v>
+        <v>25500</v>
       </c>
       <c r="H33" s="3">
-        <v>20500</v>
+        <v>15100</v>
       </c>
       <c r="I33" s="3">
-        <v>20400</v>
+        <v>21400</v>
       </c>
       <c r="J33" s="3">
+        <v>21400</v>
+      </c>
+      <c r="K33" s="3">
         <v>17900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>12300</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,80 +1620,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>42600</v>
+        <v>56400</v>
       </c>
       <c r="E35" s="3">
-        <v>33500</v>
+        <v>44600</v>
       </c>
       <c r="F35" s="3">
-        <v>24400</v>
+        <v>35100</v>
       </c>
       <c r="G35" s="3">
-        <v>14400</v>
+        <v>25500</v>
       </c>
       <c r="H35" s="3">
-        <v>20500</v>
+        <v>15100</v>
       </c>
       <c r="I35" s="3">
-        <v>20400</v>
+        <v>21400</v>
       </c>
       <c r="J35" s="3">
+        <v>21400</v>
+      </c>
+      <c r="K35" s="3">
         <v>17900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>12300</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43281</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42916</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42551</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42185</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41820</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41455</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41090</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,41 +1732,45 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>37900</v>
+        <v>76500</v>
       </c>
       <c r="E41" s="3">
-        <v>118000</v>
+        <v>39700</v>
       </c>
       <c r="F41" s="3">
-        <v>11300</v>
+        <v>123600</v>
       </c>
       <c r="G41" s="3">
-        <v>42300</v>
+        <v>11800</v>
       </c>
       <c r="H41" s="3">
-        <v>33900</v>
+        <v>44300</v>
       </c>
       <c r="I41" s="3">
-        <v>6100</v>
+        <v>35500</v>
       </c>
       <c r="J41" s="3">
+        <v>6400</v>
+      </c>
+      <c r="K41" s="3">
         <v>3800</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1712,42 +1801,48 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>13800</v>
+        <v>15100</v>
       </c>
       <c r="E43" s="3">
-        <v>13800</v>
+        <v>14400</v>
       </c>
       <c r="F43" s="3">
-        <v>16400</v>
+        <v>14500</v>
       </c>
       <c r="G43" s="3">
-        <v>1800</v>
+        <v>17200</v>
       </c>
       <c r="H43" s="3">
-        <v>200</v>
+        <v>1900</v>
       </c>
       <c r="I43" s="3">
+        <v>300</v>
+      </c>
+      <c r="J43" s="3">
         <v>400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>40200</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1778,75 +1873,84 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>205800</v>
+        <v>141700</v>
       </c>
       <c r="E45" s="3">
-        <v>31800</v>
+        <v>215600</v>
       </c>
       <c r="F45" s="3">
-        <v>58500</v>
+        <v>33300</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>61200</v>
       </c>
       <c r="H45" s="3">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>61000</v>
+        <v>9400</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
+        <v>63900</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>257500</v>
+        <v>233200</v>
       </c>
       <c r="E46" s="3">
-        <v>163700</v>
+        <v>269700</v>
       </c>
       <c r="F46" s="3">
-        <v>86100</v>
+        <v>171400</v>
       </c>
       <c r="G46" s="3">
-        <v>44100</v>
+        <v>90200</v>
       </c>
       <c r="H46" s="3">
-        <v>43100</v>
+        <v>46200</v>
       </c>
       <c r="I46" s="3">
-        <v>67500</v>
+        <v>45100</v>
       </c>
       <c r="J46" s="3">
+        <v>70700</v>
+      </c>
+      <c r="K46" s="3">
         <v>44000</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1877,75 +1981,84 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>90100</v>
+        <v>174400</v>
       </c>
       <c r="E48" s="3">
-        <v>98600</v>
+        <v>94400</v>
       </c>
       <c r="F48" s="3">
-        <v>104700</v>
+        <v>103300</v>
       </c>
       <c r="G48" s="3">
-        <v>107500</v>
+        <v>109600</v>
       </c>
       <c r="H48" s="3">
-        <v>26400</v>
+        <v>112600</v>
       </c>
       <c r="I48" s="3">
-        <v>13300</v>
+        <v>27600</v>
       </c>
       <c r="J48" s="3">
+        <v>13900</v>
+      </c>
+      <c r="K48" s="3">
         <v>15300</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14500</v>
+        <v>14900</v>
       </c>
       <c r="E49" s="3">
-        <v>11400</v>
+        <v>15100</v>
       </c>
       <c r="F49" s="3">
-        <v>11600</v>
+        <v>12000</v>
       </c>
       <c r="G49" s="3">
-        <v>11700</v>
+        <v>12100</v>
       </c>
       <c r="H49" s="3">
-        <v>11800</v>
+        <v>12200</v>
       </c>
       <c r="I49" s="3">
-        <v>12000</v>
+        <v>12400</v>
       </c>
       <c r="J49" s="3">
+        <v>12600</v>
+      </c>
+      <c r="K49" s="3">
         <v>12400</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,29 +2125,32 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E52" s="3">
         <v>1500</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
       <c r="F52" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G52" s="3">
+        <v>900</v>
+      </c>
+      <c r="H52" s="3">
         <v>1300</v>
       </c>
-      <c r="H52" s="3">
-        <v>43300</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+      <c r="I52" s="3">
+        <v>45300</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2042,9 +2161,12 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,42 +2197,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>363500</v>
+        <v>424200</v>
       </c>
       <c r="E54" s="3">
-        <v>273700</v>
+        <v>380700</v>
       </c>
       <c r="F54" s="3">
-        <v>203200</v>
+        <v>286700</v>
       </c>
       <c r="G54" s="3">
-        <v>164500</v>
+        <v>212800</v>
       </c>
       <c r="H54" s="3">
-        <v>124500</v>
+        <v>172300</v>
       </c>
       <c r="I54" s="3">
-        <v>92800</v>
+        <v>130400</v>
       </c>
       <c r="J54" s="3">
+        <v>97200</v>
+      </c>
+      <c r="K54" s="3">
         <v>71700</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,64 +2268,68 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="E57" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="F57" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="G57" s="3">
-        <v>6500</v>
+        <v>3400</v>
       </c>
       <c r="H57" s="3">
-        <v>5600</v>
+        <v>6800</v>
       </c>
       <c r="I57" s="3">
-        <v>2300</v>
+        <v>5800</v>
       </c>
       <c r="J57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K57" s="3">
         <v>2000</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2204,80 +2337,89 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>114100</v>
+        <v>107400</v>
       </c>
       <c r="E59" s="3">
-        <v>76600</v>
+        <v>119500</v>
       </c>
       <c r="F59" s="3">
-        <v>39900</v>
+        <v>80300</v>
       </c>
       <c r="G59" s="3">
-        <v>24200</v>
+        <v>41800</v>
       </c>
       <c r="H59" s="3">
-        <v>17600</v>
+        <v>25400</v>
       </c>
       <c r="I59" s="3">
-        <v>9700</v>
+        <v>18400</v>
       </c>
       <c r="J59" s="3">
+        <v>10100</v>
+      </c>
+      <c r="K59" s="3">
         <v>9300</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>117100</v>
+        <v>110500</v>
       </c>
       <c r="E60" s="3">
-        <v>79900</v>
+        <v>122700</v>
       </c>
       <c r="F60" s="3">
-        <v>43200</v>
+        <v>83700</v>
       </c>
       <c r="G60" s="3">
-        <v>30700</v>
+        <v>45200</v>
       </c>
       <c r="H60" s="3">
-        <v>23200</v>
+        <v>32100</v>
       </c>
       <c r="I60" s="3">
-        <v>11900</v>
+        <v>24300</v>
       </c>
       <c r="J60" s="3">
+        <v>12500</v>
+      </c>
+      <c r="K60" s="3">
         <v>11300</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2303,18 +2445,21 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E62" s="3">
         <v>1100</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2330,15 +2475,18 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,42 +2589,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>123600</v>
+        <v>116200</v>
       </c>
       <c r="E66" s="3">
-        <v>81800</v>
+        <v>129500</v>
       </c>
       <c r="F66" s="3">
-        <v>43200</v>
+        <v>85700</v>
       </c>
       <c r="G66" s="3">
-        <v>30700</v>
+        <v>45200</v>
       </c>
       <c r="H66" s="3">
-        <v>23200</v>
+        <v>32100</v>
       </c>
       <c r="I66" s="3">
-        <v>11900</v>
+        <v>24300</v>
       </c>
       <c r="J66" s="3">
+        <v>12500</v>
+      </c>
+      <c r="K66" s="3">
         <v>11300</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2582,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,42 +2785,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>183800</v>
+        <v>249300</v>
       </c>
       <c r="E72" s="3">
-        <v>138100</v>
+        <v>192600</v>
       </c>
       <c r="F72" s="3">
-        <v>104600</v>
+        <v>144700</v>
       </c>
       <c r="G72" s="3">
-        <v>80200</v>
+        <v>109600</v>
       </c>
       <c r="H72" s="3">
-        <v>65800</v>
+        <v>84000</v>
       </c>
       <c r="I72" s="3">
-        <v>45300</v>
+        <v>68900</v>
       </c>
       <c r="J72" s="3">
+        <v>47500</v>
+      </c>
+      <c r="K72" s="3">
         <v>24900</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,42 +2929,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>239900</v>
+        <v>308000</v>
       </c>
       <c r="E76" s="3">
-        <v>191900</v>
+        <v>251300</v>
       </c>
       <c r="F76" s="3">
-        <v>160000</v>
+        <v>201100</v>
       </c>
       <c r="G76" s="3">
-        <v>133900</v>
+        <v>167600</v>
       </c>
       <c r="H76" s="3">
-        <v>101300</v>
+        <v>140200</v>
       </c>
       <c r="I76" s="3">
-        <v>80900</v>
+        <v>106200</v>
       </c>
       <c r="J76" s="3">
+        <v>84700</v>
+      </c>
+      <c r="K76" s="3">
         <v>60400</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,80 +3001,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43281</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42916</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42551</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42185</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41820</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41455</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41090</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>42600</v>
+        <v>56400</v>
       </c>
       <c r="E81" s="3">
-        <v>33500</v>
+        <v>44600</v>
       </c>
       <c r="F81" s="3">
-        <v>24400</v>
+        <v>35100</v>
       </c>
       <c r="G81" s="3">
-        <v>14400</v>
+        <v>25500</v>
       </c>
       <c r="H81" s="3">
-        <v>20500</v>
+        <v>15100</v>
       </c>
       <c r="I81" s="3">
-        <v>20400</v>
+        <v>21400</v>
       </c>
       <c r="J81" s="3">
+        <v>21400</v>
+      </c>
+      <c r="K81" s="3">
         <v>17900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>12300</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,41 +3097,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>19400</v>
+        <v>25200</v>
       </c>
       <c r="E83" s="3">
-        <v>16500</v>
+        <v>20300</v>
       </c>
       <c r="F83" s="3">
-        <v>16100</v>
+        <v>17300</v>
       </c>
       <c r="G83" s="3">
-        <v>9600</v>
+        <v>16900</v>
       </c>
       <c r="H83" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I83" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J83" s="3">
         <v>3800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>3600</v>
       </c>
-      <c r="J83" s="3">
-        <v>3600</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,42 +3310,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100300</v>
+        <v>65600</v>
       </c>
       <c r="E89" s="3">
-        <v>85400</v>
+        <v>105000</v>
       </c>
       <c r="F89" s="3">
-        <v>41700</v>
+        <v>89400</v>
       </c>
       <c r="G89" s="3">
-        <v>31400</v>
+        <v>43700</v>
       </c>
       <c r="H89" s="3">
-        <v>34300</v>
+        <v>32900</v>
       </c>
       <c r="I89" s="3">
-        <v>21700</v>
+        <v>35900</v>
       </c>
       <c r="J89" s="3">
+        <v>22700</v>
+      </c>
+      <c r="K89" s="3">
         <v>21900</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,41 +3365,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-11600</v>
+        <v>-96800</v>
       </c>
       <c r="E91" s="3">
-        <v>-13000</v>
+        <v>-12200</v>
       </c>
       <c r="F91" s="3">
-        <v>-15800</v>
+        <v>-13600</v>
       </c>
       <c r="G91" s="3">
-        <v>-50300</v>
+        <v>-16600</v>
       </c>
       <c r="H91" s="3">
-        <v>-21100</v>
+        <v>-52700</v>
       </c>
       <c r="I91" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="J91" s="3">
         <v>-1300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2300</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,42 +3470,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-179200</v>
+        <v>-19400</v>
       </c>
       <c r="E94" s="3">
-        <v>19000</v>
+        <v>-187700</v>
       </c>
       <c r="F94" s="3">
-        <v>-87500</v>
+        <v>19900</v>
       </c>
       <c r="G94" s="3">
-        <v>-41000</v>
+        <v>-91600</v>
       </c>
       <c r="H94" s="3">
-        <v>-6500</v>
+        <v>-43000</v>
       </c>
       <c r="I94" s="3">
-        <v>-19400</v>
+        <v>-6800</v>
       </c>
       <c r="J94" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-22200</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,8 +3525,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3325,9 +3558,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,26 +3666,29 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1100</v>
       </c>
-      <c r="E100" s="3">
-        <v>2700</v>
-      </c>
       <c r="F100" s="3">
-        <v>14500</v>
+        <v>2800</v>
       </c>
       <c r="G100" s="3">
-        <v>16600</v>
+        <v>15200</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>17400</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
@@ -3451,79 +3696,88 @@
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1400</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-80200</v>
+        <v>36900</v>
       </c>
       <c r="E102" s="3">
-        <v>106700</v>
+        <v>-84000</v>
       </c>
       <c r="F102" s="3">
-        <v>-31000</v>
+        <v>111800</v>
       </c>
       <c r="G102" s="3">
-        <v>8400</v>
+        <v>-32400</v>
       </c>
       <c r="H102" s="3">
-        <v>27800</v>
+        <v>8800</v>
       </c>
       <c r="I102" s="3">
-        <v>2300</v>
+        <v>29100</v>
       </c>
       <c r="J102" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/HLG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HLG_YR_FIN.xlsx
@@ -721,25 +721,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>225500</v>
+        <v>226500</v>
       </c>
       <c r="E8" s="3">
-        <v>228000</v>
+        <v>229000</v>
       </c>
       <c r="F8" s="3">
-        <v>177900</v>
+        <v>178700</v>
       </c>
       <c r="G8" s="3">
-        <v>129800</v>
+        <v>130400</v>
       </c>
       <c r="H8" s="3">
-        <v>99500</v>
+        <v>99900</v>
       </c>
       <c r="I8" s="3">
-        <v>78300</v>
+        <v>78600</v>
       </c>
       <c r="J8" s="3">
-        <v>70400</v>
+        <v>70700</v>
       </c>
       <c r="K8" s="3">
         <v>63500</v>
@@ -757,25 +757,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>149600</v>
+        <v>150200</v>
       </c>
       <c r="E9" s="3">
-        <v>156200</v>
+        <v>156900</v>
       </c>
       <c r="F9" s="3">
-        <v>122400</v>
+        <v>122900</v>
       </c>
       <c r="G9" s="3">
-        <v>98600</v>
+        <v>99100</v>
       </c>
       <c r="H9" s="3">
-        <v>150800</v>
+        <v>151500</v>
       </c>
       <c r="I9" s="3">
-        <v>50900</v>
+        <v>51100</v>
       </c>
       <c r="J9" s="3">
-        <v>45600</v>
+        <v>45800</v>
       </c>
       <c r="K9" s="3">
         <v>42700</v>
@@ -793,25 +793,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>76000</v>
+        <v>76300</v>
       </c>
       <c r="E10" s="3">
-        <v>71800</v>
+        <v>72100</v>
       </c>
       <c r="F10" s="3">
-        <v>55500</v>
+        <v>55700</v>
       </c>
       <c r="G10" s="3">
-        <v>31200</v>
+        <v>31300</v>
       </c>
       <c r="H10" s="3">
-        <v>-51400</v>
+        <v>-51600</v>
       </c>
       <c r="I10" s="3">
-        <v>27400</v>
+        <v>27500</v>
       </c>
       <c r="J10" s="3">
-        <v>24800</v>
+        <v>24900</v>
       </c>
       <c r="K10" s="3">
         <v>20800</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>154400</v>
+        <v>155000</v>
       </c>
       <c r="E17" s="3">
-        <v>167300</v>
+        <v>168000</v>
       </c>
       <c r="F17" s="3">
-        <v>134400</v>
+        <v>135000</v>
       </c>
       <c r="G17" s="3">
-        <v>105300</v>
+        <v>105800</v>
       </c>
       <c r="H17" s="3">
-        <v>85200</v>
+        <v>85600</v>
       </c>
       <c r="I17" s="3">
-        <v>57900</v>
+        <v>58200</v>
       </c>
       <c r="J17" s="3">
-        <v>52000</v>
+        <v>52300</v>
       </c>
       <c r="K17" s="3">
         <v>48000</v>
@@ -1038,16 +1038,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>71200</v>
+        <v>71500</v>
       </c>
       <c r="E18" s="3">
-        <v>60800</v>
+        <v>61000</v>
       </c>
       <c r="F18" s="3">
-        <v>43500</v>
+        <v>43700</v>
       </c>
       <c r="G18" s="3">
-        <v>24500</v>
+        <v>24600</v>
       </c>
       <c r="H18" s="3">
         <v>14300</v>
@@ -1056,7 +1056,7 @@
         <v>20400</v>
       </c>
       <c r="J18" s="3">
-        <v>18300</v>
+        <v>18400</v>
       </c>
       <c r="K18" s="3">
         <v>15500</v>
@@ -1099,7 +1099,7 @@
         <v>1700</v>
       </c>
       <c r="G20" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="H20" s="3">
         <v>900</v>
@@ -1126,25 +1126,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>100200</v>
+        <v>100700</v>
       </c>
       <c r="E21" s="3">
-        <v>84900</v>
+        <v>85300</v>
       </c>
       <c r="F21" s="3">
-        <v>62500</v>
+        <v>62800</v>
       </c>
       <c r="G21" s="3">
-        <v>42400</v>
+        <v>42700</v>
       </c>
       <c r="H21" s="3">
-        <v>25200</v>
+        <v>25300</v>
       </c>
       <c r="I21" s="3">
-        <v>25400</v>
+        <v>25600</v>
       </c>
       <c r="J21" s="3">
-        <v>25200</v>
+        <v>25300</v>
       </c>
       <c r="K21" s="3">
         <v>21500</v>
@@ -1198,25 +1198,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>74300</v>
+        <v>74600</v>
       </c>
       <c r="E23" s="3">
-        <v>64600</v>
+        <v>64900</v>
       </c>
       <c r="F23" s="3">
-        <v>45200</v>
+        <v>45400</v>
       </c>
       <c r="G23" s="3">
-        <v>25500</v>
+        <v>25600</v>
       </c>
       <c r="H23" s="3">
-        <v>15100</v>
+        <v>15200</v>
       </c>
       <c r="I23" s="3">
-        <v>21400</v>
+        <v>21500</v>
       </c>
       <c r="J23" s="3">
-        <v>21400</v>
+        <v>21500</v>
       </c>
       <c r="K23" s="3">
         <v>17900</v>
@@ -1234,10 +1234,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>18500</v>
+        <v>18600</v>
       </c>
       <c r="E24" s="3">
-        <v>16500</v>
+        <v>16600</v>
       </c>
       <c r="F24" s="3">
         <v>10100</v>
@@ -1306,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>55800</v>
+        <v>56000</v>
       </c>
       <c r="E26" s="3">
-        <v>48000</v>
+        <v>48200</v>
       </c>
       <c r="F26" s="3">
-        <v>35100</v>
+        <v>35300</v>
       </c>
       <c r="G26" s="3">
-        <v>25500</v>
+        <v>25600</v>
       </c>
       <c r="H26" s="3">
-        <v>15100</v>
+        <v>15200</v>
       </c>
       <c r="I26" s="3">
-        <v>21400</v>
+        <v>21500</v>
       </c>
       <c r="J26" s="3">
-        <v>21400</v>
+        <v>21500</v>
       </c>
       <c r="K26" s="3">
         <v>17900</v>
@@ -1342,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>56400</v>
+        <v>56700</v>
       </c>
       <c r="E27" s="3">
-        <v>44600</v>
+        <v>44800</v>
       </c>
       <c r="F27" s="3">
-        <v>35100</v>
+        <v>35300</v>
       </c>
       <c r="G27" s="3">
-        <v>25500</v>
+        <v>25600</v>
       </c>
       <c r="H27" s="3">
-        <v>15100</v>
+        <v>15200</v>
       </c>
       <c r="I27" s="3">
-        <v>21400</v>
+        <v>21500</v>
       </c>
       <c r="J27" s="3">
-        <v>21400</v>
+        <v>21500</v>
       </c>
       <c r="K27" s="3">
         <v>17900</v>
@@ -1531,7 +1531,7 @@
         <v>-1700</v>
       </c>
       <c r="G32" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="H32" s="3">
         <v>-900</v>
@@ -1558,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>56400</v>
+        <v>56700</v>
       </c>
       <c r="E33" s="3">
-        <v>44600</v>
+        <v>44800</v>
       </c>
       <c r="F33" s="3">
-        <v>35100</v>
+        <v>35300</v>
       </c>
       <c r="G33" s="3">
-        <v>25500</v>
+        <v>25600</v>
       </c>
       <c r="H33" s="3">
-        <v>15100</v>
+        <v>15200</v>
       </c>
       <c r="I33" s="3">
-        <v>21400</v>
+        <v>21500</v>
       </c>
       <c r="J33" s="3">
-        <v>21400</v>
+        <v>21500</v>
       </c>
       <c r="K33" s="3">
         <v>17900</v>
@@ -1630,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>56400</v>
+        <v>56700</v>
       </c>
       <c r="E35" s="3">
-        <v>44600</v>
+        <v>44800</v>
       </c>
       <c r="F35" s="3">
-        <v>35100</v>
+        <v>35300</v>
       </c>
       <c r="G35" s="3">
-        <v>25500</v>
+        <v>25600</v>
       </c>
       <c r="H35" s="3">
-        <v>15100</v>
+        <v>15200</v>
       </c>
       <c r="I35" s="3">
-        <v>21400</v>
+        <v>21500</v>
       </c>
       <c r="J35" s="3">
-        <v>21400</v>
+        <v>21500</v>
       </c>
       <c r="K35" s="3">
         <v>17900</v>
@@ -1739,22 +1739,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>76500</v>
+        <v>155600</v>
       </c>
       <c r="E41" s="3">
-        <v>39700</v>
+        <v>39800</v>
       </c>
       <c r="F41" s="3">
-        <v>123600</v>
+        <v>124200</v>
       </c>
       <c r="G41" s="3">
-        <v>11800</v>
+        <v>11900</v>
       </c>
       <c r="H41" s="3">
-        <v>44300</v>
+        <v>44500</v>
       </c>
       <c r="I41" s="3">
-        <v>35500</v>
+        <v>35700</v>
       </c>
       <c r="J41" s="3">
         <v>6400</v>
@@ -1814,7 +1814,7 @@
         <v>15100</v>
       </c>
       <c r="E43" s="3">
-        <v>14400</v>
+        <v>14500</v>
       </c>
       <c r="F43" s="3">
         <v>14500</v>
@@ -1883,16 +1883,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>141700</v>
+        <v>148700</v>
       </c>
       <c r="E45" s="3">
-        <v>215600</v>
+        <v>216500</v>
       </c>
       <c r="F45" s="3">
-        <v>33300</v>
+        <v>33500</v>
       </c>
       <c r="G45" s="3">
-        <v>61200</v>
+        <v>61500</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>9400</v>
       </c>
       <c r="J45" s="3">
-        <v>63900</v>
+        <v>64200</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -1919,25 +1919,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>233200</v>
+        <v>237000</v>
       </c>
       <c r="E46" s="3">
-        <v>269700</v>
+        <v>270800</v>
       </c>
       <c r="F46" s="3">
-        <v>171400</v>
+        <v>172200</v>
       </c>
       <c r="G46" s="3">
-        <v>90200</v>
+        <v>90600</v>
       </c>
       <c r="H46" s="3">
-        <v>46200</v>
+        <v>46400</v>
       </c>
       <c r="I46" s="3">
-        <v>45100</v>
+        <v>45300</v>
       </c>
       <c r="J46" s="3">
-        <v>70700</v>
+        <v>71000</v>
       </c>
       <c r="K46" s="3">
         <v>44000</v>
@@ -1991,25 +1991,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>174400</v>
+        <v>353900</v>
       </c>
       <c r="E48" s="3">
-        <v>94400</v>
+        <v>94800</v>
       </c>
       <c r="F48" s="3">
-        <v>103300</v>
+        <v>103700</v>
       </c>
       <c r="G48" s="3">
-        <v>109600</v>
+        <v>110100</v>
       </c>
       <c r="H48" s="3">
-        <v>112600</v>
+        <v>113100</v>
       </c>
       <c r="I48" s="3">
-        <v>27600</v>
+        <v>27800</v>
       </c>
       <c r="J48" s="3">
-        <v>13900</v>
+        <v>14000</v>
       </c>
       <c r="K48" s="3">
         <v>15300</v>
@@ -2027,25 +2027,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14900</v>
+        <v>29900</v>
       </c>
       <c r="E49" s="3">
-        <v>15100</v>
+        <v>15200</v>
       </c>
       <c r="F49" s="3">
         <v>12000</v>
       </c>
       <c r="G49" s="3">
-        <v>12100</v>
+        <v>12200</v>
       </c>
       <c r="H49" s="3">
-        <v>12200</v>
+        <v>12300</v>
       </c>
       <c r="I49" s="3">
         <v>12400</v>
       </c>
       <c r="J49" s="3">
-        <v>12600</v>
+        <v>12700</v>
       </c>
       <c r="K49" s="3">
         <v>12400</v>
@@ -2135,7 +2135,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="E52" s="3">
         <v>1500</v>
@@ -2150,7 +2150,7 @@
         <v>1300</v>
       </c>
       <c r="I52" s="3">
-        <v>45300</v>
+        <v>45500</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>424200</v>
+        <v>432500</v>
       </c>
       <c r="E54" s="3">
-        <v>380700</v>
+        <v>382400</v>
       </c>
       <c r="F54" s="3">
-        <v>286700</v>
+        <v>288000</v>
       </c>
       <c r="G54" s="3">
-        <v>212800</v>
+        <v>213700</v>
       </c>
       <c r="H54" s="3">
-        <v>172300</v>
+        <v>173100</v>
       </c>
       <c r="I54" s="3">
-        <v>130400</v>
+        <v>131000</v>
       </c>
       <c r="J54" s="3">
-        <v>97200</v>
+        <v>97600</v>
       </c>
       <c r="K54" s="3">
         <v>71700</v>
@@ -2275,7 +2275,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2800</v>
+        <v>44100</v>
       </c>
       <c r="E57" s="3">
         <v>3100</v>
@@ -2284,13 +2284,13 @@
         <v>3400</v>
       </c>
       <c r="G57" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="H57" s="3">
         <v>6800</v>
       </c>
       <c r="I57" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="J57" s="3">
         <v>2400</v>
@@ -2347,25 +2347,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>107400</v>
+        <v>112700</v>
       </c>
       <c r="E59" s="3">
-        <v>119500</v>
+        <v>120100</v>
       </c>
       <c r="F59" s="3">
-        <v>80300</v>
+        <v>80600</v>
       </c>
       <c r="G59" s="3">
-        <v>41800</v>
+        <v>42000</v>
       </c>
       <c r="H59" s="3">
-        <v>25400</v>
+        <v>25500</v>
       </c>
       <c r="I59" s="3">
-        <v>18400</v>
+        <v>18500</v>
       </c>
       <c r="J59" s="3">
-        <v>10100</v>
+        <v>10200</v>
       </c>
       <c r="K59" s="3">
         <v>9300</v>
@@ -2383,22 +2383,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>110500</v>
+        <v>116500</v>
       </c>
       <c r="E60" s="3">
-        <v>122700</v>
+        <v>123200</v>
       </c>
       <c r="F60" s="3">
-        <v>83700</v>
+        <v>84000</v>
       </c>
       <c r="G60" s="3">
-        <v>45200</v>
+        <v>45400</v>
       </c>
       <c r="H60" s="3">
-        <v>32100</v>
+        <v>32300</v>
       </c>
       <c r="I60" s="3">
-        <v>24300</v>
+        <v>24400</v>
       </c>
       <c r="J60" s="3">
         <v>12500</v>
@@ -2599,22 +2599,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>116200</v>
+        <v>122200</v>
       </c>
       <c r="E66" s="3">
-        <v>129500</v>
+        <v>130000</v>
       </c>
       <c r="F66" s="3">
-        <v>85700</v>
+        <v>86000</v>
       </c>
       <c r="G66" s="3">
-        <v>45200</v>
+        <v>45400</v>
       </c>
       <c r="H66" s="3">
-        <v>32100</v>
+        <v>32300</v>
       </c>
       <c r="I66" s="3">
-        <v>24300</v>
+        <v>24400</v>
       </c>
       <c r="J66" s="3">
         <v>12500</v>
@@ -2795,25 +2795,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>249300</v>
+        <v>251100</v>
       </c>
       <c r="E72" s="3">
-        <v>192600</v>
+        <v>193400</v>
       </c>
       <c r="F72" s="3">
-        <v>144700</v>
+        <v>145300</v>
       </c>
       <c r="G72" s="3">
-        <v>109600</v>
+        <v>110000</v>
       </c>
       <c r="H72" s="3">
-        <v>84000</v>
+        <v>84400</v>
       </c>
       <c r="I72" s="3">
-        <v>68900</v>
+        <v>69200</v>
       </c>
       <c r="J72" s="3">
-        <v>47500</v>
+        <v>47700</v>
       </c>
       <c r="K72" s="3">
         <v>24900</v>
@@ -2939,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>308000</v>
+        <v>310300</v>
       </c>
       <c r="E76" s="3">
-        <v>251300</v>
+        <v>252400</v>
       </c>
       <c r="F76" s="3">
-        <v>201100</v>
+        <v>201900</v>
       </c>
       <c r="G76" s="3">
-        <v>167600</v>
+        <v>168300</v>
       </c>
       <c r="H76" s="3">
-        <v>140200</v>
+        <v>140800</v>
       </c>
       <c r="I76" s="3">
-        <v>106200</v>
+        <v>106600</v>
       </c>
       <c r="J76" s="3">
-        <v>84700</v>
+        <v>85100</v>
       </c>
       <c r="K76" s="3">
         <v>60400</v>
@@ -3052,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>56400</v>
+        <v>56700</v>
       </c>
       <c r="E81" s="3">
-        <v>44600</v>
+        <v>44800</v>
       </c>
       <c r="F81" s="3">
-        <v>35100</v>
+        <v>35300</v>
       </c>
       <c r="G81" s="3">
-        <v>25500</v>
+        <v>25600</v>
       </c>
       <c r="H81" s="3">
-        <v>15100</v>
+        <v>15200</v>
       </c>
       <c r="I81" s="3">
-        <v>21400</v>
+        <v>21500</v>
       </c>
       <c r="J81" s="3">
-        <v>21400</v>
+        <v>21500</v>
       </c>
       <c r="K81" s="3">
         <v>17900</v>
@@ -3104,19 +3104,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>25200</v>
+        <v>25300</v>
       </c>
       <c r="E83" s="3">
-        <v>20300</v>
+        <v>20400</v>
       </c>
       <c r="F83" s="3">
-        <v>17300</v>
+        <v>17400</v>
       </c>
       <c r="G83" s="3">
-        <v>16900</v>
+        <v>17000</v>
       </c>
       <c r="H83" s="3">
-        <v>10000</v>
+        <v>10100</v>
       </c>
       <c r="I83" s="3">
         <v>4000</v>
@@ -3320,25 +3320,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>65600</v>
+        <v>65900</v>
       </c>
       <c r="E89" s="3">
-        <v>105000</v>
+        <v>105500</v>
       </c>
       <c r="F89" s="3">
-        <v>89400</v>
+        <v>89800</v>
       </c>
       <c r="G89" s="3">
-        <v>43700</v>
+        <v>43800</v>
       </c>
       <c r="H89" s="3">
-        <v>32900</v>
+        <v>33000</v>
       </c>
       <c r="I89" s="3">
-        <v>35900</v>
+        <v>36100</v>
       </c>
       <c r="J89" s="3">
-        <v>22700</v>
+        <v>22800</v>
       </c>
       <c r="K89" s="3">
         <v>21900</v>
@@ -3372,22 +3372,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-96800</v>
+        <v>-97200</v>
       </c>
       <c r="E91" s="3">
         <v>-12200</v>
       </c>
       <c r="F91" s="3">
-        <v>-13600</v>
+        <v>-13700</v>
       </c>
       <c r="G91" s="3">
         <v>-16600</v>
       </c>
       <c r="H91" s="3">
-        <v>-52700</v>
+        <v>-53000</v>
       </c>
       <c r="I91" s="3">
-        <v>-22100</v>
+        <v>-22200</v>
       </c>
       <c r="J91" s="3">
         <v>-1300</v>
@@ -3480,25 +3480,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-19400</v>
+        <v>-19500</v>
       </c>
       <c r="E94" s="3">
-        <v>-187700</v>
+        <v>-188600</v>
       </c>
       <c r="F94" s="3">
-        <v>19900</v>
+        <v>20000</v>
       </c>
       <c r="G94" s="3">
-        <v>-91600</v>
+        <v>-92000</v>
       </c>
       <c r="H94" s="3">
-        <v>-43000</v>
+        <v>-43200</v>
       </c>
       <c r="I94" s="3">
         <v>-6800</v>
       </c>
       <c r="J94" s="3">
-        <v>-20300</v>
+        <v>-20400</v>
       </c>
       <c r="K94" s="3">
         <v>-22200</v>
@@ -3676,7 +3676,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-9300</v>
+        <v>-9400</v>
       </c>
       <c r="E100" s="3">
         <v>-1100</v>
@@ -3688,7 +3688,7 @@
         <v>15200</v>
       </c>
       <c r="H100" s="3">
-        <v>17400</v>
+        <v>17500</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
@@ -3748,22 +3748,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>36900</v>
+        <v>37000</v>
       </c>
       <c r="E102" s="3">
-        <v>-84000</v>
+        <v>-84300</v>
       </c>
       <c r="F102" s="3">
-        <v>111800</v>
+        <v>112300</v>
       </c>
       <c r="G102" s="3">
-        <v>-32400</v>
+        <v>-32600</v>
       </c>
       <c r="H102" s="3">
         <v>8800</v>
       </c>
       <c r="I102" s="3">
-        <v>29100</v>
+        <v>29200</v>
       </c>
       <c r="J102" s="3">
         <v>2400</v>

--- a/AAII_Financials/Yearly/HLG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HLG_YR_FIN.xlsx
@@ -721,25 +721,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>226500</v>
+        <v>231300</v>
       </c>
       <c r="E8" s="3">
-        <v>229000</v>
+        <v>233900</v>
       </c>
       <c r="F8" s="3">
-        <v>178700</v>
+        <v>182400</v>
       </c>
       <c r="G8" s="3">
-        <v>130400</v>
+        <v>133100</v>
       </c>
       <c r="H8" s="3">
-        <v>99900</v>
+        <v>102000</v>
       </c>
       <c r="I8" s="3">
-        <v>78600</v>
+        <v>80300</v>
       </c>
       <c r="J8" s="3">
-        <v>70700</v>
+        <v>72200</v>
       </c>
       <c r="K8" s="3">
         <v>63500</v>
@@ -757,25 +757,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>150200</v>
+        <v>153400</v>
       </c>
       <c r="E9" s="3">
-        <v>156900</v>
+        <v>160200</v>
       </c>
       <c r="F9" s="3">
-        <v>122900</v>
+        <v>125500</v>
       </c>
       <c r="G9" s="3">
-        <v>99100</v>
+        <v>101200</v>
       </c>
       <c r="H9" s="3">
-        <v>151500</v>
+        <v>154700</v>
       </c>
       <c r="I9" s="3">
-        <v>51100</v>
+        <v>52200</v>
       </c>
       <c r="J9" s="3">
-        <v>45800</v>
+        <v>46800</v>
       </c>
       <c r="K9" s="3">
         <v>42700</v>
@@ -793,25 +793,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>76300</v>
+        <v>77900</v>
       </c>
       <c r="E10" s="3">
-        <v>72100</v>
+        <v>73700</v>
       </c>
       <c r="F10" s="3">
-        <v>55700</v>
+        <v>56900</v>
       </c>
       <c r="G10" s="3">
-        <v>31300</v>
+        <v>32000</v>
       </c>
       <c r="H10" s="3">
-        <v>-51600</v>
+        <v>-52700</v>
       </c>
       <c r="I10" s="3">
-        <v>27500</v>
+        <v>28100</v>
       </c>
       <c r="J10" s="3">
-        <v>24900</v>
+        <v>25400</v>
       </c>
       <c r="K10" s="3">
         <v>20800</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>155000</v>
+        <v>158300</v>
       </c>
       <c r="E17" s="3">
-        <v>168000</v>
+        <v>171500</v>
       </c>
       <c r="F17" s="3">
-        <v>135000</v>
+        <v>137800</v>
       </c>
       <c r="G17" s="3">
-        <v>105800</v>
+        <v>108000</v>
       </c>
       <c r="H17" s="3">
-        <v>85600</v>
+        <v>87400</v>
       </c>
       <c r="I17" s="3">
-        <v>58200</v>
+        <v>59400</v>
       </c>
       <c r="J17" s="3">
-        <v>52300</v>
+        <v>53400</v>
       </c>
       <c r="K17" s="3">
         <v>48000</v>
@@ -1038,25 +1038,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>71500</v>
+        <v>73000</v>
       </c>
       <c r="E18" s="3">
-        <v>61000</v>
+        <v>62300</v>
       </c>
       <c r="F18" s="3">
-        <v>43700</v>
+        <v>44600</v>
       </c>
       <c r="G18" s="3">
-        <v>24600</v>
+        <v>25100</v>
       </c>
       <c r="H18" s="3">
-        <v>14300</v>
+        <v>14600</v>
       </c>
       <c r="I18" s="3">
-        <v>20400</v>
+        <v>20900</v>
       </c>
       <c r="J18" s="3">
-        <v>18400</v>
+        <v>18800</v>
       </c>
       <c r="K18" s="3">
         <v>15500</v>
@@ -1090,13 +1090,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="E20" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F20" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="G20" s="3">
         <v>1100</v>
@@ -1126,25 +1126,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>100700</v>
+        <v>102700</v>
       </c>
       <c r="E21" s="3">
-        <v>85300</v>
+        <v>87000</v>
       </c>
       <c r="F21" s="3">
-        <v>62800</v>
+        <v>64100</v>
       </c>
       <c r="G21" s="3">
-        <v>42700</v>
+        <v>43500</v>
       </c>
       <c r="H21" s="3">
-        <v>25300</v>
+        <v>25800</v>
       </c>
       <c r="I21" s="3">
-        <v>25600</v>
+        <v>26100</v>
       </c>
       <c r="J21" s="3">
-        <v>25300</v>
+        <v>25800</v>
       </c>
       <c r="K21" s="3">
         <v>21500</v>
@@ -1198,25 +1198,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>74600</v>
+        <v>76200</v>
       </c>
       <c r="E23" s="3">
-        <v>64900</v>
+        <v>66200</v>
       </c>
       <c r="F23" s="3">
-        <v>45400</v>
+        <v>46400</v>
       </c>
       <c r="G23" s="3">
-        <v>25600</v>
+        <v>26200</v>
       </c>
       <c r="H23" s="3">
-        <v>15200</v>
+        <v>15500</v>
       </c>
       <c r="I23" s="3">
-        <v>21500</v>
+        <v>22000</v>
       </c>
       <c r="J23" s="3">
-        <v>21500</v>
+        <v>21900</v>
       </c>
       <c r="K23" s="3">
         <v>17900</v>
@@ -1234,13 +1234,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>18600</v>
+        <v>19000</v>
       </c>
       <c r="E24" s="3">
-        <v>16600</v>
+        <v>17000</v>
       </c>
       <c r="F24" s="3">
-        <v>10100</v>
+        <v>10300</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1306,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>56000</v>
+        <v>57200</v>
       </c>
       <c r="E26" s="3">
-        <v>48200</v>
+        <v>49300</v>
       </c>
       <c r="F26" s="3">
-        <v>35300</v>
+        <v>36000</v>
       </c>
       <c r="G26" s="3">
-        <v>25600</v>
+        <v>26200</v>
       </c>
       <c r="H26" s="3">
-        <v>15200</v>
+        <v>15500</v>
       </c>
       <c r="I26" s="3">
-        <v>21500</v>
+        <v>22000</v>
       </c>
       <c r="J26" s="3">
-        <v>21500</v>
+        <v>21900</v>
       </c>
       <c r="K26" s="3">
         <v>17900</v>
@@ -1342,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>56700</v>
+        <v>57900</v>
       </c>
       <c r="E27" s="3">
-        <v>44800</v>
+        <v>45800</v>
       </c>
       <c r="F27" s="3">
-        <v>35300</v>
+        <v>36000</v>
       </c>
       <c r="G27" s="3">
-        <v>25600</v>
+        <v>26200</v>
       </c>
       <c r="H27" s="3">
-        <v>15200</v>
+        <v>15500</v>
       </c>
       <c r="I27" s="3">
-        <v>21500</v>
+        <v>22000</v>
       </c>
       <c r="J27" s="3">
-        <v>21500</v>
+        <v>21900</v>
       </c>
       <c r="K27" s="3">
         <v>17900</v>
@@ -1522,13 +1522,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="E32" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="F32" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="G32" s="3">
         <v>-1100</v>
@@ -1558,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>56700</v>
+        <v>57900</v>
       </c>
       <c r="E33" s="3">
-        <v>44800</v>
+        <v>45800</v>
       </c>
       <c r="F33" s="3">
-        <v>35300</v>
+        <v>36000</v>
       </c>
       <c r="G33" s="3">
-        <v>25600</v>
+        <v>26200</v>
       </c>
       <c r="H33" s="3">
-        <v>15200</v>
+        <v>15500</v>
       </c>
       <c r="I33" s="3">
-        <v>21500</v>
+        <v>22000</v>
       </c>
       <c r="J33" s="3">
-        <v>21500</v>
+        <v>21900</v>
       </c>
       <c r="K33" s="3">
         <v>17900</v>
@@ -1630,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>56700</v>
+        <v>57900</v>
       </c>
       <c r="E35" s="3">
-        <v>44800</v>
+        <v>45800</v>
       </c>
       <c r="F35" s="3">
-        <v>35300</v>
+        <v>36000</v>
       </c>
       <c r="G35" s="3">
-        <v>25600</v>
+        <v>26200</v>
       </c>
       <c r="H35" s="3">
-        <v>15200</v>
+        <v>15500</v>
       </c>
       <c r="I35" s="3">
-        <v>21500</v>
+        <v>22000</v>
       </c>
       <c r="J35" s="3">
-        <v>21500</v>
+        <v>21900</v>
       </c>
       <c r="K35" s="3">
         <v>17900</v>
@@ -1739,25 +1739,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>155600</v>
+        <v>158900</v>
       </c>
       <c r="E41" s="3">
-        <v>39800</v>
+        <v>40700</v>
       </c>
       <c r="F41" s="3">
-        <v>124200</v>
+        <v>126800</v>
       </c>
       <c r="G41" s="3">
-        <v>11900</v>
+        <v>12100</v>
       </c>
       <c r="H41" s="3">
-        <v>44500</v>
+        <v>45400</v>
       </c>
       <c r="I41" s="3">
-        <v>35700</v>
+        <v>36400</v>
       </c>
       <c r="J41" s="3">
-        <v>6400</v>
+        <v>6600</v>
       </c>
       <c r="K41" s="3">
         <v>3800</v>
@@ -1811,19 +1811,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>15100</v>
+        <v>15500</v>
       </c>
       <c r="E43" s="3">
-        <v>14500</v>
+        <v>14800</v>
       </c>
       <c r="F43" s="3">
-        <v>14500</v>
+        <v>14800</v>
       </c>
       <c r="G43" s="3">
-        <v>17200</v>
+        <v>17600</v>
       </c>
       <c r="H43" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="I43" s="3">
         <v>300</v>
@@ -1883,25 +1883,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>148700</v>
+        <v>151900</v>
       </c>
       <c r="E45" s="3">
-        <v>216500</v>
+        <v>221100</v>
       </c>
       <c r="F45" s="3">
-        <v>33500</v>
+        <v>34200</v>
       </c>
       <c r="G45" s="3">
-        <v>61500</v>
+        <v>62800</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>9400</v>
+        <v>9600</v>
       </c>
       <c r="J45" s="3">
-        <v>64200</v>
+        <v>65500</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -1919,25 +1919,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>237000</v>
+        <v>242000</v>
       </c>
       <c r="E46" s="3">
-        <v>270800</v>
+        <v>276600</v>
       </c>
       <c r="F46" s="3">
-        <v>172200</v>
+        <v>175800</v>
       </c>
       <c r="G46" s="3">
-        <v>90600</v>
+        <v>92500</v>
       </c>
       <c r="H46" s="3">
-        <v>46400</v>
+        <v>47400</v>
       </c>
       <c r="I46" s="3">
-        <v>45300</v>
+        <v>46300</v>
       </c>
       <c r="J46" s="3">
-        <v>71000</v>
+        <v>72500</v>
       </c>
       <c r="K46" s="3">
         <v>44000</v>
@@ -1991,25 +1991,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>353900</v>
+        <v>361400</v>
       </c>
       <c r="E48" s="3">
-        <v>94800</v>
+        <v>96800</v>
       </c>
       <c r="F48" s="3">
-        <v>103700</v>
+        <v>105900</v>
       </c>
       <c r="G48" s="3">
-        <v>110100</v>
+        <v>112400</v>
       </c>
       <c r="H48" s="3">
-        <v>113100</v>
+        <v>115500</v>
       </c>
       <c r="I48" s="3">
-        <v>27800</v>
+        <v>28300</v>
       </c>
       <c r="J48" s="3">
-        <v>14000</v>
+        <v>14300</v>
       </c>
       <c r="K48" s="3">
         <v>15300</v>
@@ -2027,25 +2027,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>29900</v>
+        <v>30500</v>
       </c>
       <c r="E49" s="3">
-        <v>15200</v>
+        <v>15500</v>
       </c>
       <c r="F49" s="3">
-        <v>12000</v>
+        <v>12300</v>
       </c>
       <c r="G49" s="3">
-        <v>12200</v>
+        <v>12400</v>
       </c>
       <c r="H49" s="3">
-        <v>12300</v>
+        <v>12500</v>
       </c>
       <c r="I49" s="3">
-        <v>12400</v>
+        <v>12700</v>
       </c>
       <c r="J49" s="3">
-        <v>12700</v>
+        <v>12900</v>
       </c>
       <c r="K49" s="3">
         <v>12400</v>
@@ -2138,7 +2138,7 @@
         <v>1800</v>
       </c>
       <c r="E52" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -2147,10 +2147,10 @@
         <v>900</v>
       </c>
       <c r="H52" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="I52" s="3">
-        <v>45500</v>
+        <v>46500</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>432500</v>
+        <v>441600</v>
       </c>
       <c r="E54" s="3">
-        <v>382400</v>
+        <v>390500</v>
       </c>
       <c r="F54" s="3">
-        <v>288000</v>
+        <v>294100</v>
       </c>
       <c r="G54" s="3">
-        <v>213700</v>
+        <v>218300</v>
       </c>
       <c r="H54" s="3">
-        <v>173100</v>
+        <v>176800</v>
       </c>
       <c r="I54" s="3">
-        <v>131000</v>
+        <v>133800</v>
       </c>
       <c r="J54" s="3">
-        <v>97600</v>
+        <v>99700</v>
       </c>
       <c r="K54" s="3">
         <v>71700</v>
@@ -2275,22 +2275,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>44100</v>
+        <v>45000</v>
       </c>
       <c r="E57" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="F57" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="G57" s="3">
         <v>3500</v>
       </c>
       <c r="H57" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="I57" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="J57" s="3">
         <v>2400</v>
@@ -2347,25 +2347,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>112700</v>
+        <v>115000</v>
       </c>
       <c r="E59" s="3">
-        <v>120100</v>
+        <v>122600</v>
       </c>
       <c r="F59" s="3">
-        <v>80600</v>
+        <v>82300</v>
       </c>
       <c r="G59" s="3">
-        <v>42000</v>
+        <v>42900</v>
       </c>
       <c r="H59" s="3">
-        <v>25500</v>
+        <v>26000</v>
       </c>
       <c r="I59" s="3">
-        <v>18500</v>
+        <v>18900</v>
       </c>
       <c r="J59" s="3">
-        <v>10200</v>
+        <v>10400</v>
       </c>
       <c r="K59" s="3">
         <v>9300</v>
@@ -2383,25 +2383,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>116500</v>
+        <v>119000</v>
       </c>
       <c r="E60" s="3">
-        <v>123200</v>
+        <v>125800</v>
       </c>
       <c r="F60" s="3">
-        <v>84000</v>
+        <v>85800</v>
       </c>
       <c r="G60" s="3">
-        <v>45400</v>
+        <v>46400</v>
       </c>
       <c r="H60" s="3">
-        <v>32300</v>
+        <v>33000</v>
       </c>
       <c r="I60" s="3">
-        <v>24400</v>
+        <v>24900</v>
       </c>
       <c r="J60" s="3">
-        <v>12500</v>
+        <v>12800</v>
       </c>
       <c r="K60" s="3">
         <v>11300</v>
@@ -2599,25 +2599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>122200</v>
+        <v>124800</v>
       </c>
       <c r="E66" s="3">
-        <v>130000</v>
+        <v>132800</v>
       </c>
       <c r="F66" s="3">
-        <v>86000</v>
+        <v>87900</v>
       </c>
       <c r="G66" s="3">
-        <v>45400</v>
+        <v>46400</v>
       </c>
       <c r="H66" s="3">
-        <v>32300</v>
+        <v>33000</v>
       </c>
       <c r="I66" s="3">
-        <v>24400</v>
+        <v>24900</v>
       </c>
       <c r="J66" s="3">
-        <v>12500</v>
+        <v>12800</v>
       </c>
       <c r="K66" s="3">
         <v>11300</v>
@@ -2795,25 +2795,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>251100</v>
+        <v>256500</v>
       </c>
       <c r="E72" s="3">
-        <v>193400</v>
+        <v>197500</v>
       </c>
       <c r="F72" s="3">
-        <v>145300</v>
+        <v>148400</v>
       </c>
       <c r="G72" s="3">
-        <v>110000</v>
+        <v>112400</v>
       </c>
       <c r="H72" s="3">
-        <v>84400</v>
+        <v>86200</v>
       </c>
       <c r="I72" s="3">
-        <v>69200</v>
+        <v>70700</v>
       </c>
       <c r="J72" s="3">
-        <v>47700</v>
+        <v>48700</v>
       </c>
       <c r="K72" s="3">
         <v>24900</v>
@@ -2939,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>310300</v>
+        <v>316800</v>
       </c>
       <c r="E76" s="3">
-        <v>252400</v>
+        <v>257700</v>
       </c>
       <c r="F76" s="3">
-        <v>201900</v>
+        <v>206200</v>
       </c>
       <c r="G76" s="3">
-        <v>168300</v>
+        <v>171900</v>
       </c>
       <c r="H76" s="3">
-        <v>140800</v>
+        <v>143800</v>
       </c>
       <c r="I76" s="3">
-        <v>106600</v>
+        <v>108900</v>
       </c>
       <c r="J76" s="3">
-        <v>85100</v>
+        <v>86900</v>
       </c>
       <c r="K76" s="3">
         <v>60400</v>
@@ -3052,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>56700</v>
+        <v>57900</v>
       </c>
       <c r="E81" s="3">
-        <v>44800</v>
+        <v>45800</v>
       </c>
       <c r="F81" s="3">
-        <v>35300</v>
+        <v>36000</v>
       </c>
       <c r="G81" s="3">
-        <v>25600</v>
+        <v>26200</v>
       </c>
       <c r="H81" s="3">
-        <v>15200</v>
+        <v>15500</v>
       </c>
       <c r="I81" s="3">
-        <v>21500</v>
+        <v>22000</v>
       </c>
       <c r="J81" s="3">
-        <v>21500</v>
+        <v>21900</v>
       </c>
       <c r="K81" s="3">
         <v>17900</v>
@@ -3104,25 +3104,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>25300</v>
+        <v>25900</v>
       </c>
       <c r="E83" s="3">
-        <v>20400</v>
+        <v>20800</v>
       </c>
       <c r="F83" s="3">
-        <v>17400</v>
+        <v>17700</v>
       </c>
       <c r="G83" s="3">
-        <v>17000</v>
+        <v>17300</v>
       </c>
       <c r="H83" s="3">
-        <v>10100</v>
+        <v>10300</v>
       </c>
       <c r="I83" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="J83" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="K83" s="3">
         <v>3600</v>
@@ -3320,25 +3320,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>65900</v>
+        <v>67200</v>
       </c>
       <c r="E89" s="3">
-        <v>105500</v>
+        <v>107700</v>
       </c>
       <c r="F89" s="3">
-        <v>89800</v>
+        <v>91700</v>
       </c>
       <c r="G89" s="3">
-        <v>43800</v>
+        <v>44800</v>
       </c>
       <c r="H89" s="3">
-        <v>33000</v>
+        <v>33700</v>
       </c>
       <c r="I89" s="3">
-        <v>36100</v>
+        <v>36800</v>
       </c>
       <c r="J89" s="3">
-        <v>22800</v>
+        <v>23300</v>
       </c>
       <c r="K89" s="3">
         <v>21900</v>
@@ -3372,25 +3372,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-97200</v>
+        <v>-99300</v>
       </c>
       <c r="E91" s="3">
-        <v>-12200</v>
+        <v>-12500</v>
       </c>
       <c r="F91" s="3">
-        <v>-13700</v>
+        <v>-13900</v>
       </c>
       <c r="G91" s="3">
-        <v>-16600</v>
+        <v>-17000</v>
       </c>
       <c r="H91" s="3">
-        <v>-53000</v>
+        <v>-54100</v>
       </c>
       <c r="I91" s="3">
-        <v>-22200</v>
+        <v>-22700</v>
       </c>
       <c r="J91" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="K91" s="3">
         <v>-2300</v>
@@ -3480,25 +3480,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-19500</v>
+        <v>-19900</v>
       </c>
       <c r="E94" s="3">
-        <v>-188600</v>
+        <v>-192500</v>
       </c>
       <c r="F94" s="3">
-        <v>20000</v>
+        <v>20500</v>
       </c>
       <c r="G94" s="3">
-        <v>-92000</v>
+        <v>-94000</v>
       </c>
       <c r="H94" s="3">
-        <v>-43200</v>
+        <v>-44100</v>
       </c>
       <c r="I94" s="3">
-        <v>-6800</v>
+        <v>-7000</v>
       </c>
       <c r="J94" s="3">
-        <v>-20400</v>
+        <v>-20900</v>
       </c>
       <c r="K94" s="3">
         <v>-22200</v>
@@ -3676,19 +3676,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-9400</v>
+        <v>-9600</v>
       </c>
       <c r="E100" s="3">
         <v>-1100</v>
       </c>
       <c r="F100" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="G100" s="3">
-        <v>15200</v>
+        <v>15500</v>
       </c>
       <c r="H100" s="3">
-        <v>17500</v>
+        <v>17900</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>400</v>
       </c>
       <c r="H101" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
@@ -3748,22 +3748,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>37000</v>
+        <v>37800</v>
       </c>
       <c r="E102" s="3">
-        <v>-84300</v>
+        <v>-86100</v>
       </c>
       <c r="F102" s="3">
-        <v>112300</v>
+        <v>114600</v>
       </c>
       <c r="G102" s="3">
-        <v>-32600</v>
+        <v>-33300</v>
       </c>
       <c r="H102" s="3">
-        <v>8800</v>
+        <v>9000</v>
       </c>
       <c r="I102" s="3">
-        <v>29200</v>
+        <v>29900</v>
       </c>
       <c r="J102" s="3">
         <v>2400</v>

--- a/AAII_Financials/Yearly/HLG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HLG_YR_FIN.xlsx
@@ -721,25 +721,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>231300</v>
+        <v>228300</v>
       </c>
       <c r="E8" s="3">
-        <v>233900</v>
+        <v>230800</v>
       </c>
       <c r="F8" s="3">
-        <v>182400</v>
+        <v>180100</v>
       </c>
       <c r="G8" s="3">
-        <v>133100</v>
+        <v>131400</v>
       </c>
       <c r="H8" s="3">
-        <v>102000</v>
+        <v>100700</v>
       </c>
       <c r="I8" s="3">
-        <v>80300</v>
+        <v>79300</v>
       </c>
       <c r="J8" s="3">
-        <v>72200</v>
+        <v>71300</v>
       </c>
       <c r="K8" s="3">
         <v>63500</v>
@@ -757,25 +757,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>153400</v>
+        <v>151400</v>
       </c>
       <c r="E9" s="3">
-        <v>160200</v>
+        <v>158100</v>
       </c>
       <c r="F9" s="3">
-        <v>125500</v>
+        <v>123900</v>
       </c>
       <c r="G9" s="3">
-        <v>101200</v>
+        <v>99900</v>
       </c>
       <c r="H9" s="3">
-        <v>154700</v>
+        <v>152700</v>
       </c>
       <c r="I9" s="3">
-        <v>52200</v>
+        <v>51500</v>
       </c>
       <c r="J9" s="3">
-        <v>46800</v>
+        <v>46100</v>
       </c>
       <c r="K9" s="3">
         <v>42700</v>
@@ -793,25 +793,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>77900</v>
+        <v>76900</v>
       </c>
       <c r="E10" s="3">
-        <v>73700</v>
+        <v>72700</v>
       </c>
       <c r="F10" s="3">
-        <v>56900</v>
+        <v>56200</v>
       </c>
       <c r="G10" s="3">
-        <v>32000</v>
+        <v>31500</v>
       </c>
       <c r="H10" s="3">
-        <v>-52700</v>
+        <v>-52000</v>
       </c>
       <c r="I10" s="3">
-        <v>28100</v>
+        <v>27800</v>
       </c>
       <c r="J10" s="3">
-        <v>25400</v>
+        <v>25100</v>
       </c>
       <c r="K10" s="3">
         <v>20800</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>158300</v>
+        <v>156300</v>
       </c>
       <c r="E17" s="3">
-        <v>171500</v>
+        <v>169300</v>
       </c>
       <c r="F17" s="3">
-        <v>137800</v>
+        <v>136000</v>
       </c>
       <c r="G17" s="3">
-        <v>108000</v>
+        <v>106600</v>
       </c>
       <c r="H17" s="3">
-        <v>87400</v>
+        <v>86300</v>
       </c>
       <c r="I17" s="3">
-        <v>59400</v>
+        <v>58700</v>
       </c>
       <c r="J17" s="3">
-        <v>53400</v>
+        <v>52700</v>
       </c>
       <c r="K17" s="3">
         <v>48000</v>
@@ -1038,25 +1038,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>73000</v>
+        <v>72000</v>
       </c>
       <c r="E18" s="3">
-        <v>62300</v>
+        <v>61500</v>
       </c>
       <c r="F18" s="3">
-        <v>44600</v>
+        <v>44000</v>
       </c>
       <c r="G18" s="3">
-        <v>25100</v>
+        <v>24800</v>
       </c>
       <c r="H18" s="3">
-        <v>14600</v>
+        <v>14400</v>
       </c>
       <c r="I18" s="3">
-        <v>20900</v>
+        <v>20600</v>
       </c>
       <c r="J18" s="3">
-        <v>18800</v>
+        <v>18600</v>
       </c>
       <c r="K18" s="3">
         <v>15500</v>
@@ -1093,7 +1093,7 @@
         <v>3900</v>
       </c>
       <c r="E20" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="F20" s="3">
         <v>1800</v>
@@ -1126,25 +1126,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>102700</v>
+        <v>101500</v>
       </c>
       <c r="E21" s="3">
-        <v>87000</v>
+        <v>86000</v>
       </c>
       <c r="F21" s="3">
-        <v>64100</v>
+        <v>63300</v>
       </c>
       <c r="G21" s="3">
-        <v>43500</v>
+        <v>43000</v>
       </c>
       <c r="H21" s="3">
-        <v>25800</v>
+        <v>25500</v>
       </c>
       <c r="I21" s="3">
-        <v>26100</v>
+        <v>25700</v>
       </c>
       <c r="J21" s="3">
-        <v>25800</v>
+        <v>25500</v>
       </c>
       <c r="K21" s="3">
         <v>21500</v>
@@ -1198,25 +1198,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>76200</v>
+        <v>75200</v>
       </c>
       <c r="E23" s="3">
-        <v>66200</v>
+        <v>65400</v>
       </c>
       <c r="F23" s="3">
-        <v>46400</v>
+        <v>45800</v>
       </c>
       <c r="G23" s="3">
-        <v>26200</v>
+        <v>25800</v>
       </c>
       <c r="H23" s="3">
-        <v>15500</v>
+        <v>15300</v>
       </c>
       <c r="I23" s="3">
-        <v>22000</v>
+        <v>21700</v>
       </c>
       <c r="J23" s="3">
-        <v>21900</v>
+        <v>21700</v>
       </c>
       <c r="K23" s="3">
         <v>17900</v>
@@ -1234,13 +1234,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>19000</v>
+        <v>18800</v>
       </c>
       <c r="E24" s="3">
-        <v>17000</v>
+        <v>16700</v>
       </c>
       <c r="F24" s="3">
-        <v>10300</v>
+        <v>10200</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1306,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>57200</v>
+        <v>56400</v>
       </c>
       <c r="E26" s="3">
-        <v>49300</v>
+        <v>48600</v>
       </c>
       <c r="F26" s="3">
-        <v>36000</v>
+        <v>35600</v>
       </c>
       <c r="G26" s="3">
-        <v>26200</v>
+        <v>25800</v>
       </c>
       <c r="H26" s="3">
-        <v>15500</v>
+        <v>15300</v>
       </c>
       <c r="I26" s="3">
-        <v>22000</v>
+        <v>21700</v>
       </c>
       <c r="J26" s="3">
-        <v>21900</v>
+        <v>21700</v>
       </c>
       <c r="K26" s="3">
         <v>17900</v>
@@ -1342,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>57900</v>
+        <v>57100</v>
       </c>
       <c r="E27" s="3">
-        <v>45800</v>
+        <v>45200</v>
       </c>
       <c r="F27" s="3">
-        <v>36000</v>
+        <v>35600</v>
       </c>
       <c r="G27" s="3">
-        <v>26200</v>
+        <v>25800</v>
       </c>
       <c r="H27" s="3">
-        <v>15500</v>
+        <v>15300</v>
       </c>
       <c r="I27" s="3">
-        <v>22000</v>
+        <v>21700</v>
       </c>
       <c r="J27" s="3">
-        <v>21900</v>
+        <v>21700</v>
       </c>
       <c r="K27" s="3">
         <v>17900</v>
@@ -1525,7 +1525,7 @@
         <v>-3900</v>
       </c>
       <c r="E32" s="3">
-        <v>-3900</v>
+        <v>-3800</v>
       </c>
       <c r="F32" s="3">
         <v>-1800</v>
@@ -1558,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>57900</v>
+        <v>57100</v>
       </c>
       <c r="E33" s="3">
-        <v>45800</v>
+        <v>45200</v>
       </c>
       <c r="F33" s="3">
-        <v>36000</v>
+        <v>35600</v>
       </c>
       <c r="G33" s="3">
-        <v>26200</v>
+        <v>25800</v>
       </c>
       <c r="H33" s="3">
-        <v>15500</v>
+        <v>15300</v>
       </c>
       <c r="I33" s="3">
-        <v>22000</v>
+        <v>21700</v>
       </c>
       <c r="J33" s="3">
-        <v>21900</v>
+        <v>21700</v>
       </c>
       <c r="K33" s="3">
         <v>17900</v>
@@ -1630,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>57900</v>
+        <v>57100</v>
       </c>
       <c r="E35" s="3">
-        <v>45800</v>
+        <v>45200</v>
       </c>
       <c r="F35" s="3">
-        <v>36000</v>
+        <v>35600</v>
       </c>
       <c r="G35" s="3">
-        <v>26200</v>
+        <v>25800</v>
       </c>
       <c r="H35" s="3">
-        <v>15500</v>
+        <v>15300</v>
       </c>
       <c r="I35" s="3">
-        <v>22000</v>
+        <v>21700</v>
       </c>
       <c r="J35" s="3">
-        <v>21900</v>
+        <v>21700</v>
       </c>
       <c r="K35" s="3">
         <v>17900</v>
@@ -1739,25 +1739,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>158900</v>
+        <v>156800</v>
       </c>
       <c r="E41" s="3">
-        <v>40700</v>
+        <v>40100</v>
       </c>
       <c r="F41" s="3">
-        <v>126800</v>
+        <v>125100</v>
       </c>
       <c r="G41" s="3">
-        <v>12100</v>
+        <v>12000</v>
       </c>
       <c r="H41" s="3">
-        <v>45400</v>
+        <v>44800</v>
       </c>
       <c r="I41" s="3">
-        <v>36400</v>
+        <v>35900</v>
       </c>
       <c r="J41" s="3">
-        <v>6600</v>
+        <v>6500</v>
       </c>
       <c r="K41" s="3">
         <v>3800</v>
@@ -1811,19 +1811,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>15500</v>
+        <v>15300</v>
       </c>
       <c r="E43" s="3">
-        <v>14800</v>
+        <v>14600</v>
       </c>
       <c r="F43" s="3">
-        <v>14800</v>
+        <v>14600</v>
       </c>
       <c r="G43" s="3">
-        <v>17600</v>
+        <v>17400</v>
       </c>
       <c r="H43" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="I43" s="3">
         <v>300</v>
@@ -1883,25 +1883,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>151900</v>
+        <v>149900</v>
       </c>
       <c r="E45" s="3">
-        <v>221100</v>
+        <v>218200</v>
       </c>
       <c r="F45" s="3">
-        <v>34200</v>
+        <v>33700</v>
       </c>
       <c r="G45" s="3">
-        <v>62800</v>
+        <v>62000</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>9600</v>
+        <v>9500</v>
       </c>
       <c r="J45" s="3">
-        <v>65500</v>
+        <v>64700</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -1919,25 +1919,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>242000</v>
+        <v>238800</v>
       </c>
       <c r="E46" s="3">
-        <v>276600</v>
+        <v>273000</v>
       </c>
       <c r="F46" s="3">
-        <v>175800</v>
+        <v>173500</v>
       </c>
       <c r="G46" s="3">
-        <v>92500</v>
+        <v>91300</v>
       </c>
       <c r="H46" s="3">
-        <v>47400</v>
+        <v>46700</v>
       </c>
       <c r="I46" s="3">
-        <v>46300</v>
+        <v>45700</v>
       </c>
       <c r="J46" s="3">
-        <v>72500</v>
+        <v>71500</v>
       </c>
       <c r="K46" s="3">
         <v>44000</v>
@@ -1991,25 +1991,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>361400</v>
+        <v>356700</v>
       </c>
       <c r="E48" s="3">
-        <v>96800</v>
+        <v>95600</v>
       </c>
       <c r="F48" s="3">
-        <v>105900</v>
+        <v>104600</v>
       </c>
       <c r="G48" s="3">
-        <v>112400</v>
+        <v>111000</v>
       </c>
       <c r="H48" s="3">
-        <v>115500</v>
+        <v>114000</v>
       </c>
       <c r="I48" s="3">
-        <v>28300</v>
+        <v>28000</v>
       </c>
       <c r="J48" s="3">
-        <v>14300</v>
+        <v>14100</v>
       </c>
       <c r="K48" s="3">
         <v>15300</v>
@@ -2027,25 +2027,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>30500</v>
+        <v>30100</v>
       </c>
       <c r="E49" s="3">
-        <v>15500</v>
+        <v>15300</v>
       </c>
       <c r="F49" s="3">
+        <v>12100</v>
+      </c>
+      <c r="G49" s="3">
         <v>12300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>12400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>12500</v>
       </c>
-      <c r="I49" s="3">
-        <v>12700</v>
-      </c>
       <c r="J49" s="3">
-        <v>12900</v>
+        <v>12800</v>
       </c>
       <c r="K49" s="3">
         <v>12400</v>
@@ -2138,7 +2138,7 @@
         <v>1800</v>
       </c>
       <c r="E52" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -2147,10 +2147,10 @@
         <v>900</v>
       </c>
       <c r="H52" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="I52" s="3">
-        <v>46500</v>
+        <v>45900</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>441600</v>
+        <v>435900</v>
       </c>
       <c r="E54" s="3">
-        <v>390500</v>
+        <v>385400</v>
       </c>
       <c r="F54" s="3">
-        <v>294100</v>
+        <v>290200</v>
       </c>
       <c r="G54" s="3">
-        <v>218300</v>
+        <v>215400</v>
       </c>
       <c r="H54" s="3">
-        <v>176800</v>
+        <v>174500</v>
       </c>
       <c r="I54" s="3">
-        <v>133800</v>
+        <v>132000</v>
       </c>
       <c r="J54" s="3">
-        <v>99700</v>
+        <v>98400</v>
       </c>
       <c r="K54" s="3">
         <v>71700</v>
@@ -2275,22 +2275,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>45000</v>
+        <v>44400</v>
       </c>
       <c r="E57" s="3">
         <v>3200</v>
       </c>
       <c r="F57" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="G57" s="3">
         <v>3500</v>
       </c>
       <c r="H57" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="I57" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="J57" s="3">
         <v>2400</v>
@@ -2347,25 +2347,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>115000</v>
+        <v>113500</v>
       </c>
       <c r="E59" s="3">
-        <v>122600</v>
+        <v>121000</v>
       </c>
       <c r="F59" s="3">
-        <v>82300</v>
+        <v>81300</v>
       </c>
       <c r="G59" s="3">
-        <v>42900</v>
+        <v>42300</v>
       </c>
       <c r="H59" s="3">
-        <v>26000</v>
+        <v>25700</v>
       </c>
       <c r="I59" s="3">
-        <v>18900</v>
+        <v>18700</v>
       </c>
       <c r="J59" s="3">
-        <v>10400</v>
+        <v>10300</v>
       </c>
       <c r="K59" s="3">
         <v>9300</v>
@@ -2383,25 +2383,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>119000</v>
+        <v>117500</v>
       </c>
       <c r="E60" s="3">
-        <v>125800</v>
+        <v>124200</v>
       </c>
       <c r="F60" s="3">
-        <v>85800</v>
+        <v>84700</v>
       </c>
       <c r="G60" s="3">
-        <v>46400</v>
+        <v>45800</v>
       </c>
       <c r="H60" s="3">
-        <v>33000</v>
+        <v>32500</v>
       </c>
       <c r="I60" s="3">
-        <v>24900</v>
+        <v>24600</v>
       </c>
       <c r="J60" s="3">
-        <v>12800</v>
+        <v>12600</v>
       </c>
       <c r="K60" s="3">
         <v>11300</v>
@@ -2599,25 +2599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>124800</v>
+        <v>123200</v>
       </c>
       <c r="E66" s="3">
-        <v>132800</v>
+        <v>131100</v>
       </c>
       <c r="F66" s="3">
-        <v>87900</v>
+        <v>86700</v>
       </c>
       <c r="G66" s="3">
-        <v>46400</v>
+        <v>45800</v>
       </c>
       <c r="H66" s="3">
-        <v>33000</v>
+        <v>32500</v>
       </c>
       <c r="I66" s="3">
-        <v>24900</v>
+        <v>24600</v>
       </c>
       <c r="J66" s="3">
-        <v>12800</v>
+        <v>12600</v>
       </c>
       <c r="K66" s="3">
         <v>11300</v>
@@ -2795,25 +2795,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>256500</v>
+        <v>253100</v>
       </c>
       <c r="E72" s="3">
-        <v>197500</v>
+        <v>194900</v>
       </c>
       <c r="F72" s="3">
-        <v>148400</v>
+        <v>146400</v>
       </c>
       <c r="G72" s="3">
-        <v>112400</v>
+        <v>110900</v>
       </c>
       <c r="H72" s="3">
-        <v>86200</v>
+        <v>85100</v>
       </c>
       <c r="I72" s="3">
-        <v>70700</v>
+        <v>69800</v>
       </c>
       <c r="J72" s="3">
-        <v>48700</v>
+        <v>48000</v>
       </c>
       <c r="K72" s="3">
         <v>24900</v>
@@ -2939,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>316800</v>
+        <v>312700</v>
       </c>
       <c r="E76" s="3">
-        <v>257700</v>
+        <v>254300</v>
       </c>
       <c r="F76" s="3">
-        <v>206200</v>
+        <v>203500</v>
       </c>
       <c r="G76" s="3">
-        <v>171900</v>
+        <v>169600</v>
       </c>
       <c r="H76" s="3">
-        <v>143800</v>
+        <v>141900</v>
       </c>
       <c r="I76" s="3">
-        <v>108900</v>
+        <v>107400</v>
       </c>
       <c r="J76" s="3">
-        <v>86900</v>
+        <v>85700</v>
       </c>
       <c r="K76" s="3">
         <v>60400</v>
@@ -3052,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>57900</v>
+        <v>57100</v>
       </c>
       <c r="E81" s="3">
-        <v>45800</v>
+        <v>45200</v>
       </c>
       <c r="F81" s="3">
-        <v>36000</v>
+        <v>35600</v>
       </c>
       <c r="G81" s="3">
-        <v>26200</v>
+        <v>25800</v>
       </c>
       <c r="H81" s="3">
-        <v>15500</v>
+        <v>15300</v>
       </c>
       <c r="I81" s="3">
-        <v>22000</v>
+        <v>21700</v>
       </c>
       <c r="J81" s="3">
-        <v>21900</v>
+        <v>21700</v>
       </c>
       <c r="K81" s="3">
         <v>17900</v>
@@ -3104,22 +3104,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>25900</v>
+        <v>25500</v>
       </c>
       <c r="E83" s="3">
-        <v>20800</v>
+        <v>20600</v>
       </c>
       <c r="F83" s="3">
-        <v>17700</v>
+        <v>17500</v>
       </c>
       <c r="G83" s="3">
-        <v>17300</v>
+        <v>17100</v>
       </c>
       <c r="H83" s="3">
-        <v>10300</v>
+        <v>10200</v>
       </c>
       <c r="I83" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="J83" s="3">
         <v>3900</v>
@@ -3320,25 +3320,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>67200</v>
+        <v>66400</v>
       </c>
       <c r="E89" s="3">
-        <v>107700</v>
+        <v>106300</v>
       </c>
       <c r="F89" s="3">
-        <v>91700</v>
+        <v>90500</v>
       </c>
       <c r="G89" s="3">
-        <v>44800</v>
+        <v>44200</v>
       </c>
       <c r="H89" s="3">
-        <v>33700</v>
+        <v>33300</v>
       </c>
       <c r="I89" s="3">
-        <v>36800</v>
+        <v>36400</v>
       </c>
       <c r="J89" s="3">
-        <v>23300</v>
+        <v>23000</v>
       </c>
       <c r="K89" s="3">
         <v>21900</v>
@@ -3372,22 +3372,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-99300</v>
+        <v>-98000</v>
       </c>
       <c r="E91" s="3">
-        <v>-12500</v>
+        <v>-12300</v>
       </c>
       <c r="F91" s="3">
-        <v>-13900</v>
+        <v>-13800</v>
       </c>
       <c r="G91" s="3">
-        <v>-17000</v>
+        <v>-16800</v>
       </c>
       <c r="H91" s="3">
-        <v>-54100</v>
+        <v>-53400</v>
       </c>
       <c r="I91" s="3">
-        <v>-22700</v>
+        <v>-22400</v>
       </c>
       <c r="J91" s="3">
         <v>-1400</v>
@@ -3480,25 +3480,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-19900</v>
+        <v>-19700</v>
       </c>
       <c r="E94" s="3">
-        <v>-192500</v>
+        <v>-190000</v>
       </c>
       <c r="F94" s="3">
-        <v>20500</v>
+        <v>20200</v>
       </c>
       <c r="G94" s="3">
-        <v>-94000</v>
+        <v>-92700</v>
       </c>
       <c r="H94" s="3">
-        <v>-44100</v>
+        <v>-43500</v>
       </c>
       <c r="I94" s="3">
-        <v>-7000</v>
+        <v>-6900</v>
       </c>
       <c r="J94" s="3">
-        <v>-20900</v>
+        <v>-20600</v>
       </c>
       <c r="K94" s="3">
         <v>-22200</v>
@@ -3676,7 +3676,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-9600</v>
+        <v>-9500</v>
       </c>
       <c r="E100" s="3">
         <v>-1100</v>
@@ -3685,10 +3685,10 @@
         <v>2900</v>
       </c>
       <c r="G100" s="3">
-        <v>15500</v>
+        <v>15300</v>
       </c>
       <c r="H100" s="3">
-        <v>17900</v>
+        <v>17600</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
@@ -3748,22 +3748,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>37800</v>
+        <v>37300</v>
       </c>
       <c r="E102" s="3">
-        <v>-86100</v>
+        <v>-85000</v>
       </c>
       <c r="F102" s="3">
-        <v>114600</v>
+        <v>113100</v>
       </c>
       <c r="G102" s="3">
-        <v>-33300</v>
+        <v>-32800</v>
       </c>
       <c r="H102" s="3">
-        <v>9000</v>
+        <v>8900</v>
       </c>
       <c r="I102" s="3">
-        <v>29900</v>
+        <v>29500</v>
       </c>
       <c r="J102" s="3">
         <v>2400</v>

--- a/AAII_Financials/Yearly/HLG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HLG_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
   <si>
     <t>HLG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,166 +665,178 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42916</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42551</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42185</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41820</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41455</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41090</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>228300</v>
+        <v>215400</v>
       </c>
       <c r="E8" s="3">
-        <v>230800</v>
+        <v>160800</v>
       </c>
       <c r="F8" s="3">
-        <v>180100</v>
+        <v>160100</v>
       </c>
       <c r="G8" s="3">
-        <v>131400</v>
+        <v>183100</v>
       </c>
       <c r="H8" s="3">
-        <v>100700</v>
+        <v>133600</v>
       </c>
       <c r="I8" s="3">
-        <v>79300</v>
+        <v>102400</v>
       </c>
       <c r="J8" s="3">
+        <v>80600</v>
+      </c>
+      <c r="K8" s="3">
         <v>71300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>63500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>51900</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>151400</v>
+        <v>114100</v>
       </c>
       <c r="E9" s="3">
-        <v>158100</v>
+        <v>90800</v>
       </c>
       <c r="F9" s="3">
-        <v>123900</v>
+        <v>96200</v>
       </c>
       <c r="G9" s="3">
-        <v>99900</v>
+        <v>126000</v>
       </c>
       <c r="H9" s="3">
-        <v>152700</v>
+        <v>101500</v>
       </c>
       <c r="I9" s="3">
-        <v>51500</v>
+        <v>155300</v>
       </c>
       <c r="J9" s="3">
+        <v>52400</v>
+      </c>
+      <c r="K9" s="3">
         <v>46100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>42700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>35500</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>76900</v>
+        <v>101300</v>
       </c>
       <c r="E10" s="3">
-        <v>72700</v>
+        <v>70000</v>
       </c>
       <c r="F10" s="3">
-        <v>56200</v>
+        <v>63900</v>
       </c>
       <c r="G10" s="3">
-        <v>31500</v>
+        <v>57100</v>
       </c>
       <c r="H10" s="3">
-        <v>-52000</v>
+        <v>32100</v>
       </c>
       <c r="I10" s="3">
-        <v>27800</v>
+        <v>-52900</v>
       </c>
       <c r="J10" s="3">
+        <v>28200</v>
+      </c>
+      <c r="K10" s="3">
         <v>25100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>20800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>16400</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,8 +851,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -874,9 +887,12 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,30 +926,33 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-800</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>1600</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
@@ -946,26 +965,29 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
         <v>1100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>100</v>
-      </c>
-      <c r="F15" s="3">
-        <v>200</v>
       </c>
       <c r="G15" s="3">
         <v>200</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
+      <c r="H15" s="3">
+        <v>200</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -976,15 +998,18 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,80 +1021,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>156300</v>
+        <v>119500</v>
       </c>
       <c r="E17" s="3">
-        <v>169300</v>
+        <v>89600</v>
       </c>
       <c r="F17" s="3">
-        <v>136000</v>
+        <v>100400</v>
       </c>
       <c r="G17" s="3">
-        <v>106600</v>
+        <v>138300</v>
       </c>
       <c r="H17" s="3">
-        <v>86300</v>
+        <v>108400</v>
       </c>
       <c r="I17" s="3">
-        <v>58700</v>
+        <v>87700</v>
       </c>
       <c r="J17" s="3">
+        <v>59600</v>
+      </c>
+      <c r="K17" s="3">
         <v>52700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>48000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>41000</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>72000</v>
+        <v>95900</v>
       </c>
       <c r="E18" s="3">
-        <v>61500</v>
+        <v>71300</v>
       </c>
       <c r="F18" s="3">
-        <v>44000</v>
+        <v>59800</v>
       </c>
       <c r="G18" s="3">
-        <v>24800</v>
+        <v>44700</v>
       </c>
       <c r="H18" s="3">
-        <v>14400</v>
+        <v>25200</v>
       </c>
       <c r="I18" s="3">
-        <v>20600</v>
+        <v>14700</v>
       </c>
       <c r="J18" s="3">
+        <v>21000</v>
+      </c>
+      <c r="K18" s="3">
         <v>18600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>15500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>10900</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,88 +1116,95 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3900</v>
+        <v>5600</v>
       </c>
       <c r="E20" s="3">
-        <v>3800</v>
+        <v>2500</v>
       </c>
       <c r="F20" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G20" s="3">
         <v>1800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1700</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>101500</v>
+        <v>128100</v>
       </c>
       <c r="E21" s="3">
-        <v>86000</v>
+        <v>100300</v>
       </c>
       <c r="F21" s="3">
-        <v>63300</v>
+        <v>83400</v>
       </c>
       <c r="G21" s="3">
-        <v>43000</v>
+        <v>64300</v>
       </c>
       <c r="H21" s="3">
+        <v>43600</v>
+      </c>
+      <c r="I21" s="3">
+        <v>25900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>26200</v>
+      </c>
+      <c r="K21" s="3">
         <v>25500</v>
       </c>
-      <c r="I21" s="3">
-        <v>25700</v>
-      </c>
-      <c r="J21" s="3">
-        <v>25500</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>21500</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>700</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
+        <v>500</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
@@ -1182,8 +1221,8 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1191,59 +1230,65 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>75200</v>
+        <v>101400</v>
       </c>
       <c r="E23" s="3">
-        <v>65400</v>
+        <v>73200</v>
       </c>
       <c r="F23" s="3">
-        <v>45800</v>
+        <v>62300</v>
       </c>
       <c r="G23" s="3">
-        <v>25800</v>
+        <v>46500</v>
       </c>
       <c r="H23" s="3">
-        <v>15300</v>
+        <v>26300</v>
       </c>
       <c r="I23" s="3">
+        <v>15600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>22100</v>
+      </c>
+      <c r="K23" s="3">
         <v>21700</v>
       </c>
-      <c r="J23" s="3">
-        <v>21700</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>17900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>12600</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>18800</v>
+        <v>25900</v>
       </c>
       <c r="E24" s="3">
-        <v>16700</v>
+        <v>19100</v>
       </c>
       <c r="F24" s="3">
-        <v>10200</v>
+        <v>17000</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>10400</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1263,9 +1308,12 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,81 +1347,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>56400</v>
+        <v>75500</v>
       </c>
       <c r="E26" s="3">
-        <v>48600</v>
+        <v>54100</v>
       </c>
       <c r="F26" s="3">
-        <v>35600</v>
+        <v>45300</v>
       </c>
       <c r="G26" s="3">
-        <v>25800</v>
+        <v>36200</v>
       </c>
       <c r="H26" s="3">
-        <v>15300</v>
+        <v>26300</v>
       </c>
       <c r="I26" s="3">
+        <v>15600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>22100</v>
+      </c>
+      <c r="K26" s="3">
         <v>21700</v>
       </c>
-      <c r="J26" s="3">
-        <v>21700</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>17900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>12600</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>57100</v>
+        <v>75600</v>
       </c>
       <c r="E27" s="3">
-        <v>45200</v>
+        <v>54800</v>
       </c>
       <c r="F27" s="3">
-        <v>35600</v>
+        <v>41800</v>
       </c>
       <c r="G27" s="3">
-        <v>25800</v>
+        <v>36200</v>
       </c>
       <c r="H27" s="3">
-        <v>15300</v>
+        <v>26300</v>
       </c>
       <c r="I27" s="3">
+        <v>15600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>22100</v>
+      </c>
+      <c r="K27" s="3">
         <v>21700</v>
       </c>
-      <c r="J27" s="3">
-        <v>21700</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>17900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>12300</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,32 +1464,35 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-38800</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>3800</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>3600</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1443,9 +1503,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1542,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,81 +1581,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3900</v>
+        <v>-5600</v>
       </c>
       <c r="E32" s="3">
-        <v>-3800</v>
+        <v>-2500</v>
       </c>
       <c r="F32" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1700</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>57100</v>
+        <v>36800</v>
       </c>
       <c r="E33" s="3">
-        <v>45200</v>
+        <v>58600</v>
       </c>
       <c r="F33" s="3">
-        <v>35600</v>
+        <v>45400</v>
       </c>
       <c r="G33" s="3">
-        <v>25800</v>
+        <v>36200</v>
       </c>
       <c r="H33" s="3">
-        <v>15300</v>
+        <v>26300</v>
       </c>
       <c r="I33" s="3">
+        <v>15600</v>
+      </c>
+      <c r="J33" s="3">
+        <v>22100</v>
+      </c>
+      <c r="K33" s="3">
         <v>21700</v>
       </c>
-      <c r="J33" s="3">
-        <v>21700</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>17900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>12300</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,86 +1698,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>57100</v>
+        <v>36800</v>
       </c>
       <c r="E35" s="3">
-        <v>45200</v>
+        <v>58600</v>
       </c>
       <c r="F35" s="3">
-        <v>35600</v>
+        <v>45400</v>
       </c>
       <c r="G35" s="3">
-        <v>25800</v>
+        <v>36200</v>
       </c>
       <c r="H35" s="3">
-        <v>15300</v>
+        <v>26300</v>
       </c>
       <c r="I35" s="3">
+        <v>15600</v>
+      </c>
+      <c r="J35" s="3">
+        <v>22100</v>
+      </c>
+      <c r="K35" s="3">
         <v>21700</v>
       </c>
-      <c r="J35" s="3">
-        <v>21700</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>17900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>12300</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42916</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42551</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42185</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41820</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41455</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41090</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1801,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,44 +1818,48 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>156800</v>
+        <v>43700</v>
       </c>
       <c r="E41" s="3">
-        <v>40100</v>
+        <v>161500</v>
       </c>
       <c r="F41" s="3">
-        <v>125100</v>
+        <v>40800</v>
       </c>
       <c r="G41" s="3">
-        <v>12000</v>
+        <v>127200</v>
       </c>
       <c r="H41" s="3">
-        <v>44800</v>
+        <v>12200</v>
       </c>
       <c r="I41" s="3">
-        <v>35900</v>
+        <v>45600</v>
       </c>
       <c r="J41" s="3">
+        <v>36500</v>
+      </c>
+      <c r="K41" s="3">
         <v>6500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3800</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1804,45 +1893,51 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>15300</v>
+        <v>11100</v>
       </c>
       <c r="E43" s="3">
-        <v>14600</v>
+        <v>15500</v>
       </c>
       <c r="F43" s="3">
-        <v>14600</v>
+        <v>14900</v>
       </c>
       <c r="G43" s="3">
-        <v>17400</v>
+        <v>14900</v>
       </c>
       <c r="H43" s="3">
-        <v>1900</v>
+        <v>17700</v>
       </c>
       <c r="I43" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J43" s="3">
         <v>300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>40200</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1876,81 +1971,90 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>149900</v>
+        <v>78100</v>
       </c>
       <c r="E45" s="3">
-        <v>218200</v>
+        <v>152500</v>
       </c>
       <c r="F45" s="3">
-        <v>33700</v>
+        <v>221900</v>
       </c>
       <c r="G45" s="3">
-        <v>62000</v>
+        <v>34300</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>63000</v>
       </c>
       <c r="I45" s="3">
-        <v>9500</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K45" s="3">
         <v>64700</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>238800</v>
+        <v>133000</v>
       </c>
       <c r="E46" s="3">
-        <v>273000</v>
+        <v>243000</v>
       </c>
       <c r="F46" s="3">
-        <v>173500</v>
+        <v>277500</v>
       </c>
       <c r="G46" s="3">
-        <v>91300</v>
+        <v>176400</v>
       </c>
       <c r="H46" s="3">
-        <v>46700</v>
+        <v>92900</v>
       </c>
       <c r="I46" s="3">
-        <v>45700</v>
+        <v>47500</v>
       </c>
       <c r="J46" s="3">
+        <v>46500</v>
+      </c>
+      <c r="K46" s="3">
         <v>71500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>44000</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1984,81 +2088,90 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>356700</v>
+        <v>151600</v>
       </c>
       <c r="E48" s="3">
-        <v>95600</v>
+        <v>367600</v>
       </c>
       <c r="F48" s="3">
-        <v>104600</v>
+        <v>97200</v>
       </c>
       <c r="G48" s="3">
-        <v>111000</v>
+        <v>106300</v>
       </c>
       <c r="H48" s="3">
-        <v>114000</v>
+        <v>112800</v>
       </c>
       <c r="I48" s="3">
-        <v>28000</v>
+        <v>115900</v>
       </c>
       <c r="J48" s="3">
+        <v>28400</v>
+      </c>
+      <c r="K48" s="3">
         <v>14100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15300</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>30100</v>
+        <v>2900</v>
       </c>
       <c r="E49" s="3">
-        <v>15300</v>
+        <v>30600</v>
       </c>
       <c r="F49" s="3">
-        <v>12100</v>
+        <v>15600</v>
       </c>
       <c r="G49" s="3">
         <v>12300</v>
       </c>
       <c r="H49" s="3">
+        <v>12500</v>
+      </c>
+      <c r="I49" s="3">
+        <v>12600</v>
+      </c>
+      <c r="J49" s="3">
+        <v>12700</v>
+      </c>
+      <c r="K49" s="3">
+        <v>12800</v>
+      </c>
+      <c r="L49" s="3">
         <v>12400</v>
       </c>
-      <c r="I49" s="3">
-        <v>12500</v>
-      </c>
-      <c r="J49" s="3">
-        <v>12800</v>
-      </c>
-      <c r="K49" s="3">
-        <v>12400</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2205,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,32 +2244,35 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1800</v>
+        <v>224500</v>
       </c>
       <c r="E52" s="3">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
         <v>900</v>
       </c>
-      <c r="H52" s="3">
-        <v>1300</v>
-      </c>
       <c r="I52" s="3">
-        <v>45900</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+        <v>1400</v>
+      </c>
+      <c r="J52" s="3">
+        <v>46600</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2164,9 +2283,12 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,45 +2322,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>435900</v>
+        <v>512100</v>
       </c>
       <c r="E54" s="3">
-        <v>385400</v>
+        <v>444500</v>
       </c>
       <c r="F54" s="3">
-        <v>290200</v>
+        <v>391900</v>
       </c>
       <c r="G54" s="3">
-        <v>215400</v>
+        <v>295100</v>
       </c>
       <c r="H54" s="3">
-        <v>174500</v>
+        <v>219000</v>
       </c>
       <c r="I54" s="3">
-        <v>132000</v>
+        <v>177400</v>
       </c>
       <c r="J54" s="3">
+        <v>134300</v>
+      </c>
+      <c r="K54" s="3">
         <v>98400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>71700</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2381,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,53 +2398,57 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>44400</v>
+        <v>3600</v>
       </c>
       <c r="E57" s="3">
+        <v>45200</v>
+      </c>
+      <c r="F57" s="3">
         <v>3200</v>
-      </c>
-      <c r="F57" s="3">
-        <v>3400</v>
       </c>
       <c r="G57" s="3">
         <v>3500</v>
       </c>
       <c r="H57" s="3">
-        <v>6800</v>
+        <v>3500</v>
       </c>
       <c r="I57" s="3">
-        <v>5900</v>
+        <v>7000</v>
       </c>
       <c r="J57" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K57" s="3">
         <v>2400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2000</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>800</v>
+      </c>
+      <c r="E58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2331,8 +2464,8 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -2340,90 +2473,99 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>113500</v>
+        <v>155100</v>
       </c>
       <c r="E59" s="3">
-        <v>121000</v>
+        <v>118200</v>
       </c>
       <c r="F59" s="3">
-        <v>81300</v>
+        <v>123000</v>
       </c>
       <c r="G59" s="3">
-        <v>42300</v>
+        <v>82600</v>
       </c>
       <c r="H59" s="3">
-        <v>25700</v>
+        <v>43000</v>
       </c>
       <c r="I59" s="3">
-        <v>18700</v>
+        <v>26100</v>
       </c>
       <c r="J59" s="3">
+        <v>19000</v>
+      </c>
+      <c r="K59" s="3">
         <v>10300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9300</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>117500</v>
+        <v>159500</v>
       </c>
       <c r="E60" s="3">
-        <v>124200</v>
+        <v>121400</v>
       </c>
       <c r="F60" s="3">
-        <v>84700</v>
+        <v>126200</v>
       </c>
       <c r="G60" s="3">
-        <v>45800</v>
+        <v>86100</v>
       </c>
       <c r="H60" s="3">
-        <v>32500</v>
+        <v>46600</v>
       </c>
       <c r="I60" s="3">
-        <v>24600</v>
+        <v>33100</v>
       </c>
       <c r="J60" s="3">
+        <v>25000</v>
+      </c>
+      <c r="K60" s="3">
         <v>12600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11300</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E61" s="3">
         <v>2900</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2448,21 +2590,24 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>800</v>
+      </c>
+      <c r="E62" s="3">
         <v>1200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1100</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2478,15 +2623,18 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2668,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2707,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,45 +2746,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>123200</v>
+        <v>167500</v>
       </c>
       <c r="E66" s="3">
-        <v>131100</v>
+        <v>127200</v>
       </c>
       <c r="F66" s="3">
-        <v>86700</v>
+        <v>133200</v>
       </c>
       <c r="G66" s="3">
-        <v>45800</v>
+        <v>88200</v>
       </c>
       <c r="H66" s="3">
-        <v>32500</v>
+        <v>46600</v>
       </c>
       <c r="I66" s="3">
-        <v>24600</v>
+        <v>33100</v>
       </c>
       <c r="J66" s="3">
+        <v>25000</v>
+      </c>
+      <c r="K66" s="3">
         <v>12600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11300</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2805,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2841,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2880,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2752,9 +2919,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,45 +2958,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>253100</v>
+        <v>292400</v>
       </c>
       <c r="E72" s="3">
-        <v>194900</v>
+        <v>256600</v>
       </c>
       <c r="F72" s="3">
-        <v>146400</v>
+        <v>198200</v>
       </c>
       <c r="G72" s="3">
-        <v>110900</v>
+        <v>148900</v>
       </c>
       <c r="H72" s="3">
-        <v>85100</v>
+        <v>112800</v>
       </c>
       <c r="I72" s="3">
-        <v>69800</v>
+        <v>86500</v>
       </c>
       <c r="J72" s="3">
+        <v>70900</v>
+      </c>
+      <c r="K72" s="3">
         <v>48000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>24900</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3036,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3075,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,45 +3114,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>312700</v>
+        <v>344500</v>
       </c>
       <c r="E76" s="3">
-        <v>254300</v>
+        <v>317300</v>
       </c>
       <c r="F76" s="3">
-        <v>203500</v>
+        <v>258600</v>
       </c>
       <c r="G76" s="3">
-        <v>169600</v>
+        <v>206900</v>
       </c>
       <c r="H76" s="3">
-        <v>141900</v>
+        <v>172500</v>
       </c>
       <c r="I76" s="3">
-        <v>107400</v>
+        <v>144300</v>
       </c>
       <c r="J76" s="3">
+        <v>109200</v>
+      </c>
+      <c r="K76" s="3">
         <v>85700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>60400</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,86 +3192,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42916</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42551</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42185</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41820</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41455</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41090</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>57100</v>
+        <v>36800</v>
       </c>
       <c r="E81" s="3">
-        <v>45200</v>
+        <v>58600</v>
       </c>
       <c r="F81" s="3">
-        <v>35600</v>
+        <v>45400</v>
       </c>
       <c r="G81" s="3">
-        <v>25800</v>
+        <v>36200</v>
       </c>
       <c r="H81" s="3">
-        <v>15300</v>
+        <v>26300</v>
       </c>
       <c r="I81" s="3">
+        <v>15600</v>
+      </c>
+      <c r="J81" s="3">
+        <v>22100</v>
+      </c>
+      <c r="K81" s="3">
         <v>21700</v>
       </c>
-      <c r="J81" s="3">
-        <v>21700</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>17900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>12300</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,44 +3295,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>25500</v>
+        <v>26600</v>
       </c>
       <c r="E83" s="3">
-        <v>20600</v>
+        <v>26600</v>
       </c>
       <c r="F83" s="3">
-        <v>17500</v>
+        <v>21100</v>
       </c>
       <c r="G83" s="3">
-        <v>17100</v>
+        <v>17800</v>
       </c>
       <c r="H83" s="3">
-        <v>10200</v>
+        <v>17400</v>
       </c>
       <c r="I83" s="3">
-        <v>4000</v>
+        <v>10300</v>
       </c>
       <c r="J83" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K83" s="3">
         <v>3900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3600</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3370,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3409,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3448,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3487,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,45 +3526,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>66400</v>
+        <v>139900</v>
       </c>
       <c r="E89" s="3">
-        <v>106300</v>
+        <v>69600</v>
       </c>
       <c r="F89" s="3">
-        <v>90500</v>
+        <v>111500</v>
       </c>
       <c r="G89" s="3">
-        <v>44200</v>
+        <v>92000</v>
       </c>
       <c r="H89" s="3">
-        <v>33300</v>
+        <v>44900</v>
       </c>
       <c r="I89" s="3">
-        <v>36400</v>
+        <v>33800</v>
       </c>
       <c r="J89" s="3">
+        <v>37000</v>
+      </c>
+      <c r="K89" s="3">
         <v>23000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>21900</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,44 +3585,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-98000</v>
+        <v>-18800</v>
       </c>
       <c r="E91" s="3">
-        <v>-12300</v>
+        <v>-102300</v>
       </c>
       <c r="F91" s="3">
-        <v>-13800</v>
+        <v>-15600</v>
       </c>
       <c r="G91" s="3">
-        <v>-16800</v>
+        <v>-14000</v>
       </c>
       <c r="H91" s="3">
-        <v>-53400</v>
+        <v>-17100</v>
       </c>
       <c r="I91" s="3">
-        <v>-22400</v>
+        <v>-54300</v>
       </c>
       <c r="J91" s="3">
+        <v>-22800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2300</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3660,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,45 +3699,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-19700</v>
+        <v>-161100</v>
       </c>
       <c r="E94" s="3">
-        <v>-190000</v>
+        <v>-23400</v>
       </c>
       <c r="F94" s="3">
-        <v>20200</v>
+        <v>-196300</v>
       </c>
       <c r="G94" s="3">
-        <v>-92700</v>
+        <v>20500</v>
       </c>
       <c r="H94" s="3">
-        <v>-43500</v>
+        <v>-94300</v>
       </c>
       <c r="I94" s="3">
-        <v>-6900</v>
+        <v>-44200</v>
       </c>
       <c r="J94" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-20600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-22200</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,8 +3758,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3561,9 +3794,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3833,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3872,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,29 +3911,32 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-9500</v>
+        <v>-15700</v>
       </c>
       <c r="E100" s="3">
-        <v>-1100</v>
+        <v>-7900</v>
       </c>
       <c r="F100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G100" s="3">
         <v>2900</v>
       </c>
-      <c r="G100" s="3">
-        <v>15300</v>
-      </c>
       <c r="H100" s="3">
-        <v>17600</v>
+        <v>15600</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>17900</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -3699,85 +3944,94 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1500</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>37300</v>
+        <v>-37100</v>
       </c>
       <c r="E102" s="3">
-        <v>-85000</v>
+        <v>38300</v>
       </c>
       <c r="F102" s="3">
-        <v>113100</v>
+        <v>-85100</v>
       </c>
       <c r="G102" s="3">
-        <v>-32800</v>
+        <v>115000</v>
       </c>
       <c r="H102" s="3">
-        <v>8900</v>
+        <v>-33400</v>
       </c>
       <c r="I102" s="3">
-        <v>29500</v>
+        <v>9000</v>
       </c>
       <c r="J102" s="3">
+        <v>30000</v>
+      </c>
+      <c r="K102" s="3">
         <v>2400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/HLG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HLG_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>215400</v>
+        <v>217000</v>
       </c>
       <c r="E8" s="3">
-        <v>160800</v>
+        <v>162100</v>
       </c>
       <c r="F8" s="3">
-        <v>160100</v>
+        <v>161400</v>
       </c>
       <c r="G8" s="3">
-        <v>183100</v>
+        <v>184500</v>
       </c>
       <c r="H8" s="3">
-        <v>133600</v>
+        <v>134600</v>
       </c>
       <c r="I8" s="3">
-        <v>102400</v>
+        <v>103200</v>
       </c>
       <c r="J8" s="3">
-        <v>80600</v>
+        <v>81200</v>
       </c>
       <c r="K8" s="3">
         <v>71300</v>
@@ -763,25 +763,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>114100</v>
+        <v>114900</v>
       </c>
       <c r="E9" s="3">
-        <v>90800</v>
+        <v>91500</v>
       </c>
       <c r="F9" s="3">
-        <v>96200</v>
+        <v>96900</v>
       </c>
       <c r="G9" s="3">
-        <v>126000</v>
+        <v>126900</v>
       </c>
       <c r="H9" s="3">
-        <v>101500</v>
+        <v>102300</v>
       </c>
       <c r="I9" s="3">
-        <v>155300</v>
+        <v>156400</v>
       </c>
       <c r="J9" s="3">
-        <v>52400</v>
+        <v>52800</v>
       </c>
       <c r="K9" s="3">
         <v>46100</v>
@@ -802,25 +802,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>101300</v>
+        <v>102100</v>
       </c>
       <c r="E10" s="3">
-        <v>70000</v>
+        <v>70500</v>
       </c>
       <c r="F10" s="3">
-        <v>63900</v>
+        <v>64400</v>
       </c>
       <c r="G10" s="3">
-        <v>57100</v>
+        <v>57500</v>
       </c>
       <c r="H10" s="3">
-        <v>32100</v>
+        <v>32300</v>
       </c>
       <c r="I10" s="3">
-        <v>-52900</v>
+        <v>-53300</v>
       </c>
       <c r="J10" s="3">
-        <v>28200</v>
+        <v>28400</v>
       </c>
       <c r="K10" s="3">
         <v>25100</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>119500</v>
+        <v>120400</v>
       </c>
       <c r="E17" s="3">
-        <v>89600</v>
+        <v>90300</v>
       </c>
       <c r="F17" s="3">
-        <v>100400</v>
+        <v>101100</v>
       </c>
       <c r="G17" s="3">
-        <v>138300</v>
+        <v>139400</v>
       </c>
       <c r="H17" s="3">
-        <v>108400</v>
+        <v>109200</v>
       </c>
       <c r="I17" s="3">
-        <v>87700</v>
+        <v>88400</v>
       </c>
       <c r="J17" s="3">
-        <v>59600</v>
+        <v>60100</v>
       </c>
       <c r="K17" s="3">
         <v>52700</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>95900</v>
+        <v>96700</v>
       </c>
       <c r="E18" s="3">
-        <v>71300</v>
+        <v>71800</v>
       </c>
       <c r="F18" s="3">
-        <v>59800</v>
+        <v>60200</v>
       </c>
       <c r="G18" s="3">
-        <v>44700</v>
+        <v>45100</v>
       </c>
       <c r="H18" s="3">
-        <v>25200</v>
+        <v>25400</v>
       </c>
       <c r="I18" s="3">
-        <v>14700</v>
+        <v>14800</v>
       </c>
       <c r="J18" s="3">
-        <v>21000</v>
+        <v>21100</v>
       </c>
       <c r="K18" s="3">
         <v>18600</v>
@@ -1123,7 +1123,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="E20" s="3">
         <v>2500</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>128100</v>
+        <v>129200</v>
       </c>
       <c r="E21" s="3">
-        <v>100300</v>
+        <v>101200</v>
       </c>
       <c r="F21" s="3">
-        <v>83400</v>
+        <v>84200</v>
       </c>
       <c r="G21" s="3">
-        <v>64300</v>
+        <v>64900</v>
       </c>
       <c r="H21" s="3">
-        <v>43600</v>
+        <v>44100</v>
       </c>
       <c r="I21" s="3">
-        <v>25900</v>
+        <v>26100</v>
       </c>
       <c r="J21" s="3">
-        <v>26200</v>
+        <v>26400</v>
       </c>
       <c r="K21" s="3">
         <v>25500</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>101400</v>
+        <v>102100</v>
       </c>
       <c r="E23" s="3">
-        <v>73200</v>
+        <v>73800</v>
       </c>
       <c r="F23" s="3">
-        <v>62300</v>
+        <v>62800</v>
       </c>
       <c r="G23" s="3">
-        <v>46500</v>
+        <v>46900</v>
       </c>
       <c r="H23" s="3">
-        <v>26300</v>
+        <v>26500</v>
       </c>
       <c r="I23" s="3">
-        <v>15600</v>
+        <v>15700</v>
       </c>
       <c r="J23" s="3">
-        <v>22100</v>
+        <v>22200</v>
       </c>
       <c r="K23" s="3">
         <v>21700</v>
@@ -1279,16 +1279,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>25900</v>
+        <v>26100</v>
       </c>
       <c r="E24" s="3">
-        <v>19100</v>
+        <v>19200</v>
       </c>
       <c r="F24" s="3">
-        <v>17000</v>
+        <v>17200</v>
       </c>
       <c r="G24" s="3">
-        <v>10400</v>
+        <v>10500</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>75500</v>
+        <v>76100</v>
       </c>
       <c r="E26" s="3">
-        <v>54100</v>
+        <v>54600</v>
       </c>
       <c r="F26" s="3">
-        <v>45300</v>
+        <v>45700</v>
       </c>
       <c r="G26" s="3">
-        <v>36200</v>
+        <v>36400</v>
       </c>
       <c r="H26" s="3">
-        <v>26300</v>
+        <v>26500</v>
       </c>
       <c r="I26" s="3">
-        <v>15600</v>
+        <v>15700</v>
       </c>
       <c r="J26" s="3">
-        <v>22100</v>
+        <v>22200</v>
       </c>
       <c r="K26" s="3">
         <v>21700</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>75600</v>
+        <v>76200</v>
       </c>
       <c r="E27" s="3">
-        <v>54800</v>
+        <v>55200</v>
       </c>
       <c r="F27" s="3">
-        <v>41800</v>
+        <v>42100</v>
       </c>
       <c r="G27" s="3">
-        <v>36200</v>
+        <v>36400</v>
       </c>
       <c r="H27" s="3">
-        <v>26300</v>
+        <v>26500</v>
       </c>
       <c r="I27" s="3">
-        <v>15600</v>
+        <v>15700</v>
       </c>
       <c r="J27" s="3">
-        <v>22100</v>
+        <v>22200</v>
       </c>
       <c r="K27" s="3">
         <v>21700</v>
@@ -1474,7 +1474,7 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-38800</v>
+        <v>-39100</v>
       </c>
       <c r="E29" s="3">
         <v>3800</v>
@@ -1591,7 +1591,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5600</v>
+        <v>-5700</v>
       </c>
       <c r="E32" s="3">
         <v>-2500</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>36800</v>
+        <v>37100</v>
       </c>
       <c r="E33" s="3">
-        <v>58600</v>
+        <v>59000</v>
       </c>
       <c r="F33" s="3">
-        <v>45400</v>
+        <v>45800</v>
       </c>
       <c r="G33" s="3">
-        <v>36200</v>
+        <v>36400</v>
       </c>
       <c r="H33" s="3">
-        <v>26300</v>
+        <v>26500</v>
       </c>
       <c r="I33" s="3">
-        <v>15600</v>
+        <v>15700</v>
       </c>
       <c r="J33" s="3">
-        <v>22100</v>
+        <v>22200</v>
       </c>
       <c r="K33" s="3">
         <v>21700</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>36800</v>
+        <v>37100</v>
       </c>
       <c r="E35" s="3">
-        <v>58600</v>
+        <v>59000</v>
       </c>
       <c r="F35" s="3">
-        <v>45400</v>
+        <v>45800</v>
       </c>
       <c r="G35" s="3">
-        <v>36200</v>
+        <v>36400</v>
       </c>
       <c r="H35" s="3">
-        <v>26300</v>
+        <v>26500</v>
       </c>
       <c r="I35" s="3">
-        <v>15600</v>
+        <v>15700</v>
       </c>
       <c r="J35" s="3">
-        <v>22100</v>
+        <v>22200</v>
       </c>
       <c r="K35" s="3">
         <v>21700</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>43700</v>
+        <v>44100</v>
       </c>
       <c r="E41" s="3">
-        <v>161500</v>
+        <v>162800</v>
       </c>
       <c r="F41" s="3">
-        <v>40800</v>
+        <v>41100</v>
       </c>
       <c r="G41" s="3">
-        <v>127200</v>
+        <v>128200</v>
       </c>
       <c r="H41" s="3">
-        <v>12200</v>
+        <v>12300</v>
       </c>
       <c r="I41" s="3">
-        <v>45600</v>
+        <v>45900</v>
       </c>
       <c r="J41" s="3">
-        <v>36500</v>
+        <v>36800</v>
       </c>
       <c r="K41" s="3">
         <v>6500</v>
@@ -1903,19 +1903,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11100</v>
+        <v>11200</v>
       </c>
       <c r="E43" s="3">
-        <v>15500</v>
+        <v>15600</v>
       </c>
       <c r="F43" s="3">
-        <v>14900</v>
+        <v>15000</v>
       </c>
       <c r="G43" s="3">
-        <v>14900</v>
+        <v>15000</v>
       </c>
       <c r="H43" s="3">
-        <v>17700</v>
+        <v>17800</v>
       </c>
       <c r="I43" s="3">
         <v>2000</v>
@@ -1981,19 +1981,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>78100</v>
+        <v>78700</v>
       </c>
       <c r="E45" s="3">
-        <v>152500</v>
+        <v>153700</v>
       </c>
       <c r="F45" s="3">
-        <v>221900</v>
+        <v>223600</v>
       </c>
       <c r="G45" s="3">
-        <v>34300</v>
+        <v>34600</v>
       </c>
       <c r="H45" s="3">
-        <v>63000</v>
+        <v>63500</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>133000</v>
+        <v>134000</v>
       </c>
       <c r="E46" s="3">
-        <v>243000</v>
+        <v>244900</v>
       </c>
       <c r="F46" s="3">
-        <v>277500</v>
+        <v>279700</v>
       </c>
       <c r="G46" s="3">
-        <v>176400</v>
+        <v>177800</v>
       </c>
       <c r="H46" s="3">
-        <v>92900</v>
+        <v>93600</v>
       </c>
       <c r="I46" s="3">
-        <v>47500</v>
+        <v>47900</v>
       </c>
       <c r="J46" s="3">
-        <v>46500</v>
+        <v>46800</v>
       </c>
       <c r="K46" s="3">
         <v>71500</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>151600</v>
+        <v>152800</v>
       </c>
       <c r="E48" s="3">
-        <v>367600</v>
+        <v>370400</v>
       </c>
       <c r="F48" s="3">
-        <v>97200</v>
+        <v>97900</v>
       </c>
       <c r="G48" s="3">
-        <v>106300</v>
+        <v>107100</v>
       </c>
       <c r="H48" s="3">
-        <v>112800</v>
+        <v>113700</v>
       </c>
       <c r="I48" s="3">
-        <v>115900</v>
+        <v>116800</v>
       </c>
       <c r="J48" s="3">
-        <v>28400</v>
+        <v>28700</v>
       </c>
       <c r="K48" s="3">
         <v>14100</v>
@@ -2140,22 +2140,22 @@
         <v>2900</v>
       </c>
       <c r="E49" s="3">
-        <v>30600</v>
+        <v>30900</v>
       </c>
       <c r="F49" s="3">
-        <v>15600</v>
+        <v>15700</v>
       </c>
       <c r="G49" s="3">
-        <v>12300</v>
+        <v>12400</v>
       </c>
       <c r="H49" s="3">
-        <v>12500</v>
+        <v>12600</v>
       </c>
       <c r="I49" s="3">
-        <v>12600</v>
+        <v>12700</v>
       </c>
       <c r="J49" s="3">
-        <v>12700</v>
+        <v>12800</v>
       </c>
       <c r="K49" s="3">
         <v>12800</v>
@@ -2254,7 +2254,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>224500</v>
+        <v>226300</v>
       </c>
       <c r="E52" s="3">
         <v>1900</v>
@@ -2272,7 +2272,7 @@
         <v>1400</v>
       </c>
       <c r="J52" s="3">
-        <v>46600</v>
+        <v>47000</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>512100</v>
+        <v>516000</v>
       </c>
       <c r="E54" s="3">
-        <v>444500</v>
+        <v>448000</v>
       </c>
       <c r="F54" s="3">
-        <v>391900</v>
+        <v>394900</v>
       </c>
       <c r="G54" s="3">
-        <v>295100</v>
+        <v>297400</v>
       </c>
       <c r="H54" s="3">
-        <v>219000</v>
+        <v>220700</v>
       </c>
       <c r="I54" s="3">
-        <v>177400</v>
+        <v>178700</v>
       </c>
       <c r="J54" s="3">
-        <v>134300</v>
+        <v>135300</v>
       </c>
       <c r="K54" s="3">
         <v>98400</v>
@@ -2408,7 +2408,7 @@
         <v>3600</v>
       </c>
       <c r="E57" s="3">
-        <v>45200</v>
+        <v>45600</v>
       </c>
       <c r="F57" s="3">
         <v>3200</v>
@@ -2417,13 +2417,13 @@
         <v>3500</v>
       </c>
       <c r="H57" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="I57" s="3">
         <v>7000</v>
       </c>
       <c r="J57" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="K57" s="3">
         <v>2400</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>155100</v>
+        <v>156300</v>
       </c>
       <c r="E59" s="3">
-        <v>118200</v>
+        <v>119100</v>
       </c>
       <c r="F59" s="3">
-        <v>123000</v>
+        <v>124000</v>
       </c>
       <c r="G59" s="3">
-        <v>82600</v>
+        <v>83300</v>
       </c>
       <c r="H59" s="3">
-        <v>43000</v>
+        <v>43300</v>
       </c>
       <c r="I59" s="3">
-        <v>26100</v>
+        <v>26300</v>
       </c>
       <c r="J59" s="3">
-        <v>19000</v>
+        <v>19100</v>
       </c>
       <c r="K59" s="3">
         <v>10300</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>159500</v>
+        <v>160700</v>
       </c>
       <c r="E60" s="3">
-        <v>121400</v>
+        <v>122300</v>
       </c>
       <c r="F60" s="3">
-        <v>126200</v>
+        <v>127200</v>
       </c>
       <c r="G60" s="3">
-        <v>86100</v>
+        <v>86800</v>
       </c>
       <c r="H60" s="3">
-        <v>46600</v>
+        <v>46900</v>
       </c>
       <c r="I60" s="3">
-        <v>33100</v>
+        <v>33300</v>
       </c>
       <c r="J60" s="3">
-        <v>25000</v>
+        <v>25200</v>
       </c>
       <c r="K60" s="3">
         <v>12600</v>
@@ -2564,7 +2564,7 @@
         <v>4800</v>
       </c>
       <c r="E61" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>167500</v>
+        <v>168800</v>
       </c>
       <c r="E66" s="3">
-        <v>127200</v>
+        <v>128200</v>
       </c>
       <c r="F66" s="3">
-        <v>133200</v>
+        <v>134300</v>
       </c>
       <c r="G66" s="3">
-        <v>88200</v>
+        <v>88800</v>
       </c>
       <c r="H66" s="3">
-        <v>46600</v>
+        <v>46900</v>
       </c>
       <c r="I66" s="3">
-        <v>33100</v>
+        <v>33300</v>
       </c>
       <c r="J66" s="3">
-        <v>25000</v>
+        <v>25200</v>
       </c>
       <c r="K66" s="3">
         <v>12600</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>292400</v>
+        <v>294700</v>
       </c>
       <c r="E72" s="3">
-        <v>256600</v>
+        <v>258600</v>
       </c>
       <c r="F72" s="3">
-        <v>198200</v>
+        <v>199700</v>
       </c>
       <c r="G72" s="3">
-        <v>148900</v>
+        <v>150000</v>
       </c>
       <c r="H72" s="3">
-        <v>112800</v>
+        <v>113600</v>
       </c>
       <c r="I72" s="3">
-        <v>86500</v>
+        <v>87200</v>
       </c>
       <c r="J72" s="3">
-        <v>70900</v>
+        <v>71500</v>
       </c>
       <c r="K72" s="3">
         <v>48000</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>344500</v>
+        <v>347200</v>
       </c>
       <c r="E76" s="3">
-        <v>317300</v>
+        <v>319800</v>
       </c>
       <c r="F76" s="3">
-        <v>258600</v>
+        <v>260600</v>
       </c>
       <c r="G76" s="3">
-        <v>206900</v>
+        <v>208500</v>
       </c>
       <c r="H76" s="3">
-        <v>172500</v>
+        <v>173800</v>
       </c>
       <c r="I76" s="3">
-        <v>144300</v>
+        <v>145400</v>
       </c>
       <c r="J76" s="3">
-        <v>109200</v>
+        <v>110100</v>
       </c>
       <c r="K76" s="3">
         <v>85700</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>36800</v>
+        <v>37100</v>
       </c>
       <c r="E81" s="3">
-        <v>58600</v>
+        <v>59000</v>
       </c>
       <c r="F81" s="3">
-        <v>45400</v>
+        <v>45800</v>
       </c>
       <c r="G81" s="3">
-        <v>36200</v>
+        <v>36400</v>
       </c>
       <c r="H81" s="3">
-        <v>26300</v>
+        <v>26500</v>
       </c>
       <c r="I81" s="3">
-        <v>15600</v>
+        <v>15700</v>
       </c>
       <c r="J81" s="3">
-        <v>22100</v>
+        <v>22200</v>
       </c>
       <c r="K81" s="3">
         <v>21700</v>
@@ -3302,22 +3302,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>26600</v>
+        <v>26800</v>
       </c>
       <c r="E83" s="3">
-        <v>26600</v>
+        <v>26800</v>
       </c>
       <c r="F83" s="3">
-        <v>21100</v>
+        <v>21300</v>
       </c>
       <c r="G83" s="3">
-        <v>17800</v>
+        <v>17900</v>
       </c>
       <c r="H83" s="3">
-        <v>17400</v>
+        <v>17500</v>
       </c>
       <c r="I83" s="3">
-        <v>10300</v>
+        <v>10400</v>
       </c>
       <c r="J83" s="3">
         <v>4100</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>139900</v>
+        <v>140900</v>
       </c>
       <c r="E89" s="3">
-        <v>69600</v>
+        <v>70100</v>
       </c>
       <c r="F89" s="3">
-        <v>111500</v>
+        <v>112400</v>
       </c>
       <c r="G89" s="3">
-        <v>92000</v>
+        <v>92800</v>
       </c>
       <c r="H89" s="3">
-        <v>44900</v>
+        <v>45300</v>
       </c>
       <c r="I89" s="3">
-        <v>33800</v>
+        <v>34100</v>
       </c>
       <c r="J89" s="3">
-        <v>37000</v>
+        <v>37300</v>
       </c>
       <c r="K89" s="3">
         <v>23000</v>
@@ -3592,25 +3592,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-18800</v>
+        <v>-19000</v>
       </c>
       <c r="E91" s="3">
-        <v>-102300</v>
+        <v>-103100</v>
       </c>
       <c r="F91" s="3">
-        <v>-15600</v>
+        <v>-15700</v>
       </c>
       <c r="G91" s="3">
-        <v>-14000</v>
+        <v>-14100</v>
       </c>
       <c r="H91" s="3">
-        <v>-17100</v>
+        <v>-17200</v>
       </c>
       <c r="I91" s="3">
-        <v>-54300</v>
+        <v>-54700</v>
       </c>
       <c r="J91" s="3">
-        <v>-22800</v>
+        <v>-23000</v>
       </c>
       <c r="K91" s="3">
         <v>-1400</v>
@@ -3709,22 +3709,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-161100</v>
+        <v>-162400</v>
       </c>
       <c r="E94" s="3">
-        <v>-23400</v>
+        <v>-23600</v>
       </c>
       <c r="F94" s="3">
-        <v>-196300</v>
+        <v>-197800</v>
       </c>
       <c r="G94" s="3">
-        <v>20500</v>
+        <v>20700</v>
       </c>
       <c r="H94" s="3">
-        <v>-94300</v>
+        <v>-95000</v>
       </c>
       <c r="I94" s="3">
-        <v>-44200</v>
+        <v>-44600</v>
       </c>
       <c r="J94" s="3">
         <v>-7000</v>
@@ -3921,7 +3921,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-15700</v>
+        <v>-15900</v>
       </c>
       <c r="E100" s="3">
         <v>-7900</v>
@@ -3933,10 +3933,10 @@
         <v>2900</v>
       </c>
       <c r="H100" s="3">
-        <v>15600</v>
+        <v>15700</v>
       </c>
       <c r="I100" s="3">
-        <v>17900</v>
+        <v>18100</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -3969,7 +3969,7 @@
         <v>-100</v>
       </c>
       <c r="G101" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="H101" s="3">
         <v>400</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-37100</v>
+        <v>-37400</v>
       </c>
       <c r="E102" s="3">
-        <v>38300</v>
+        <v>38600</v>
       </c>
       <c r="F102" s="3">
-        <v>-85100</v>
+        <v>-85800</v>
       </c>
       <c r="G102" s="3">
-        <v>115000</v>
+        <v>115900</v>
       </c>
       <c r="H102" s="3">
-        <v>-33400</v>
+        <v>-33600</v>
       </c>
       <c r="I102" s="3">
-        <v>9000</v>
+        <v>9100</v>
       </c>
       <c r="J102" s="3">
-        <v>30000</v>
+        <v>30200</v>
       </c>
       <c r="K102" s="3">
         <v>2400</v>

--- a/AAII_Financials/Yearly/HLG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HLG_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>217000</v>
+        <v>202700</v>
       </c>
       <c r="E8" s="3">
-        <v>162100</v>
+        <v>151400</v>
       </c>
       <c r="F8" s="3">
-        <v>161400</v>
+        <v>150700</v>
       </c>
       <c r="G8" s="3">
-        <v>184500</v>
+        <v>172300</v>
       </c>
       <c r="H8" s="3">
-        <v>134600</v>
+        <v>125700</v>
       </c>
       <c r="I8" s="3">
-        <v>103200</v>
+        <v>96400</v>
       </c>
       <c r="J8" s="3">
-        <v>81200</v>
+        <v>75900</v>
       </c>
       <c r="K8" s="3">
         <v>71300</v>
@@ -763,25 +763,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>114900</v>
+        <v>107400</v>
       </c>
       <c r="E9" s="3">
-        <v>91500</v>
+        <v>85500</v>
       </c>
       <c r="F9" s="3">
-        <v>96900</v>
+        <v>90500</v>
       </c>
       <c r="G9" s="3">
-        <v>126900</v>
+        <v>118600</v>
       </c>
       <c r="H9" s="3">
-        <v>102300</v>
+        <v>95600</v>
       </c>
       <c r="I9" s="3">
-        <v>156400</v>
+        <v>146100</v>
       </c>
       <c r="J9" s="3">
-        <v>52800</v>
+        <v>49300</v>
       </c>
       <c r="K9" s="3">
         <v>46100</v>
@@ -802,25 +802,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>102100</v>
+        <v>95400</v>
       </c>
       <c r="E10" s="3">
-        <v>70500</v>
+        <v>65900</v>
       </c>
       <c r="F10" s="3">
-        <v>64400</v>
+        <v>60200</v>
       </c>
       <c r="G10" s="3">
-        <v>57500</v>
+        <v>53700</v>
       </c>
       <c r="H10" s="3">
-        <v>32300</v>
+        <v>30200</v>
       </c>
       <c r="I10" s="3">
-        <v>-53300</v>
+        <v>-49700</v>
       </c>
       <c r="J10" s="3">
-        <v>28400</v>
+        <v>26600</v>
       </c>
       <c r="K10" s="3">
         <v>25100</v>
@@ -951,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F15" s="3">
         <v>100</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>120400</v>
+        <v>112400</v>
       </c>
       <c r="E17" s="3">
-        <v>90300</v>
+        <v>84300</v>
       </c>
       <c r="F17" s="3">
-        <v>101100</v>
+        <v>94500</v>
       </c>
       <c r="G17" s="3">
-        <v>139400</v>
+        <v>130200</v>
       </c>
       <c r="H17" s="3">
-        <v>109200</v>
+        <v>102000</v>
       </c>
       <c r="I17" s="3">
-        <v>88400</v>
+        <v>82600</v>
       </c>
       <c r="J17" s="3">
-        <v>60100</v>
+        <v>56100</v>
       </c>
       <c r="K17" s="3">
         <v>52700</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>96700</v>
+        <v>90300</v>
       </c>
       <c r="E18" s="3">
-        <v>71800</v>
+        <v>67100</v>
       </c>
       <c r="F18" s="3">
-        <v>60200</v>
+        <v>56200</v>
       </c>
       <c r="G18" s="3">
-        <v>45100</v>
+        <v>42100</v>
       </c>
       <c r="H18" s="3">
-        <v>25400</v>
+        <v>23700</v>
       </c>
       <c r="I18" s="3">
-        <v>14800</v>
+        <v>13800</v>
       </c>
       <c r="J18" s="3">
-        <v>21100</v>
+        <v>19700</v>
       </c>
       <c r="K18" s="3">
         <v>18600</v>
@@ -1123,22 +1123,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5700</v>
+        <v>5300</v>
       </c>
       <c r="E20" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="F20" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="G20" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="H20" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="I20" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="J20" s="3">
         <v>1100</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>129200</v>
+        <v>120800</v>
       </c>
       <c r="E21" s="3">
-        <v>101200</v>
+        <v>94700</v>
       </c>
       <c r="F21" s="3">
-        <v>84200</v>
+        <v>78800</v>
       </c>
       <c r="G21" s="3">
-        <v>64900</v>
+        <v>60700</v>
       </c>
       <c r="H21" s="3">
-        <v>44100</v>
+        <v>41300</v>
       </c>
       <c r="I21" s="3">
-        <v>26100</v>
+        <v>24500</v>
       </c>
       <c r="J21" s="3">
-        <v>26400</v>
+        <v>24700</v>
       </c>
       <c r="K21" s="3">
         <v>25500</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>102100</v>
+        <v>95400</v>
       </c>
       <c r="E23" s="3">
-        <v>73800</v>
+        <v>68900</v>
       </c>
       <c r="F23" s="3">
-        <v>62800</v>
+        <v>58700</v>
       </c>
       <c r="G23" s="3">
-        <v>46900</v>
+        <v>43800</v>
       </c>
       <c r="H23" s="3">
-        <v>26500</v>
+        <v>24700</v>
       </c>
       <c r="I23" s="3">
-        <v>15700</v>
+        <v>14700</v>
       </c>
       <c r="J23" s="3">
-        <v>22200</v>
+        <v>20800</v>
       </c>
       <c r="K23" s="3">
         <v>21700</v>
@@ -1279,16 +1279,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>26100</v>
+        <v>24400</v>
       </c>
       <c r="E24" s="3">
-        <v>19200</v>
+        <v>18000</v>
       </c>
       <c r="F24" s="3">
-        <v>17200</v>
+        <v>16000</v>
       </c>
       <c r="G24" s="3">
-        <v>10500</v>
+        <v>9800</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>76100</v>
+        <v>71000</v>
       </c>
       <c r="E26" s="3">
-        <v>54600</v>
+        <v>51000</v>
       </c>
       <c r="F26" s="3">
-        <v>45700</v>
+        <v>42700</v>
       </c>
       <c r="G26" s="3">
-        <v>36400</v>
+        <v>34000</v>
       </c>
       <c r="H26" s="3">
-        <v>26500</v>
+        <v>24700</v>
       </c>
       <c r="I26" s="3">
-        <v>15700</v>
+        <v>14700</v>
       </c>
       <c r="J26" s="3">
-        <v>22200</v>
+        <v>20800</v>
       </c>
       <c r="K26" s="3">
         <v>21700</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>76200</v>
+        <v>71200</v>
       </c>
       <c r="E27" s="3">
-        <v>55200</v>
+        <v>51600</v>
       </c>
       <c r="F27" s="3">
-        <v>42100</v>
+        <v>39400</v>
       </c>
       <c r="G27" s="3">
-        <v>36400</v>
+        <v>34000</v>
       </c>
       <c r="H27" s="3">
-        <v>26500</v>
+        <v>24700</v>
       </c>
       <c r="I27" s="3">
-        <v>15700</v>
+        <v>14700</v>
       </c>
       <c r="J27" s="3">
-        <v>22200</v>
+        <v>20800</v>
       </c>
       <c r="K27" s="3">
         <v>21700</v>
@@ -1474,13 +1474,13 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-39100</v>
+        <v>-36500</v>
       </c>
       <c r="E29" s="3">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="F29" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
@@ -1591,22 +1591,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5700</v>
+        <v>-5300</v>
       </c>
       <c r="E32" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="F32" s="3">
-        <v>-2600</v>
+        <v>-2400</v>
       </c>
       <c r="G32" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="H32" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="I32" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="J32" s="3">
         <v>-1100</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>37100</v>
+        <v>34600</v>
       </c>
       <c r="E33" s="3">
-        <v>59000</v>
+        <v>55100</v>
       </c>
       <c r="F33" s="3">
-        <v>45800</v>
+        <v>42800</v>
       </c>
       <c r="G33" s="3">
-        <v>36400</v>
+        <v>34000</v>
       </c>
       <c r="H33" s="3">
-        <v>26500</v>
+        <v>24700</v>
       </c>
       <c r="I33" s="3">
-        <v>15700</v>
+        <v>14700</v>
       </c>
       <c r="J33" s="3">
-        <v>22200</v>
+        <v>20800</v>
       </c>
       <c r="K33" s="3">
         <v>21700</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>37100</v>
+        <v>34600</v>
       </c>
       <c r="E35" s="3">
-        <v>59000</v>
+        <v>55100</v>
       </c>
       <c r="F35" s="3">
-        <v>45800</v>
+        <v>42800</v>
       </c>
       <c r="G35" s="3">
-        <v>36400</v>
+        <v>34000</v>
       </c>
       <c r="H35" s="3">
-        <v>26500</v>
+        <v>24700</v>
       </c>
       <c r="I35" s="3">
-        <v>15700</v>
+        <v>14700</v>
       </c>
       <c r="J35" s="3">
-        <v>22200</v>
+        <v>20800</v>
       </c>
       <c r="K35" s="3">
         <v>21700</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>44100</v>
+        <v>41200</v>
       </c>
       <c r="E41" s="3">
-        <v>162800</v>
+        <v>152000</v>
       </c>
       <c r="F41" s="3">
-        <v>41100</v>
+        <v>38400</v>
       </c>
       <c r="G41" s="3">
-        <v>128200</v>
+        <v>119700</v>
       </c>
       <c r="H41" s="3">
-        <v>12300</v>
+        <v>11500</v>
       </c>
       <c r="I41" s="3">
-        <v>45900</v>
+        <v>42900</v>
       </c>
       <c r="J41" s="3">
-        <v>36800</v>
+        <v>34400</v>
       </c>
       <c r="K41" s="3">
         <v>6500</v>
@@ -1903,25 +1903,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11200</v>
+        <v>10500</v>
       </c>
       <c r="E43" s="3">
-        <v>15600</v>
+        <v>14600</v>
       </c>
       <c r="F43" s="3">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="G43" s="3">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="H43" s="3">
-        <v>17800</v>
+        <v>16600</v>
       </c>
       <c r="I43" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="J43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K43" s="3">
         <v>400</v>
@@ -1981,25 +1981,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>78700</v>
+        <v>73600</v>
       </c>
       <c r="E45" s="3">
-        <v>153700</v>
+        <v>143500</v>
       </c>
       <c r="F45" s="3">
-        <v>223600</v>
+        <v>208800</v>
       </c>
       <c r="G45" s="3">
-        <v>34600</v>
+        <v>32300</v>
       </c>
       <c r="H45" s="3">
-        <v>63500</v>
+        <v>59300</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>9700</v>
+        <v>9100</v>
       </c>
       <c r="K45" s="3">
         <v>64700</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>134000</v>
+        <v>125200</v>
       </c>
       <c r="E46" s="3">
-        <v>244900</v>
+        <v>228800</v>
       </c>
       <c r="F46" s="3">
-        <v>279700</v>
+        <v>261200</v>
       </c>
       <c r="G46" s="3">
-        <v>177800</v>
+        <v>166100</v>
       </c>
       <c r="H46" s="3">
-        <v>93600</v>
+        <v>87400</v>
       </c>
       <c r="I46" s="3">
-        <v>47900</v>
+        <v>44700</v>
       </c>
       <c r="J46" s="3">
-        <v>46800</v>
+        <v>43700</v>
       </c>
       <c r="K46" s="3">
         <v>71500</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>152800</v>
+        <v>142700</v>
       </c>
       <c r="E48" s="3">
-        <v>370400</v>
+        <v>346000</v>
       </c>
       <c r="F48" s="3">
-        <v>97900</v>
+        <v>91500</v>
       </c>
       <c r="G48" s="3">
-        <v>107100</v>
+        <v>100100</v>
       </c>
       <c r="H48" s="3">
-        <v>113700</v>
+        <v>106200</v>
       </c>
       <c r="I48" s="3">
-        <v>116800</v>
+        <v>109100</v>
       </c>
       <c r="J48" s="3">
-        <v>28700</v>
+        <v>26800</v>
       </c>
       <c r="K48" s="3">
         <v>14100</v>
@@ -2137,25 +2137,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="E49" s="3">
-        <v>30900</v>
+        <v>28800</v>
       </c>
       <c r="F49" s="3">
-        <v>15700</v>
+        <v>14700</v>
       </c>
       <c r="G49" s="3">
-        <v>12400</v>
+        <v>11600</v>
       </c>
       <c r="H49" s="3">
-        <v>12600</v>
+        <v>11700</v>
       </c>
       <c r="I49" s="3">
-        <v>12700</v>
+        <v>11800</v>
       </c>
       <c r="J49" s="3">
-        <v>12800</v>
+        <v>12000</v>
       </c>
       <c r="K49" s="3">
         <v>12800</v>
@@ -2254,25 +2254,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>226300</v>
+        <v>211300</v>
       </c>
       <c r="E52" s="3">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="F52" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="I52" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="J52" s="3">
-        <v>47000</v>
+        <v>43900</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>516000</v>
+        <v>482000</v>
       </c>
       <c r="E54" s="3">
-        <v>448000</v>
+        <v>418400</v>
       </c>
       <c r="F54" s="3">
-        <v>394900</v>
+        <v>368800</v>
       </c>
       <c r="G54" s="3">
-        <v>297400</v>
+        <v>277800</v>
       </c>
       <c r="H54" s="3">
-        <v>220700</v>
+        <v>206200</v>
       </c>
       <c r="I54" s="3">
-        <v>178700</v>
+        <v>167000</v>
       </c>
       <c r="J54" s="3">
-        <v>135300</v>
+        <v>126400</v>
       </c>
       <c r="K54" s="3">
         <v>98400</v>
@@ -2405,25 +2405,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="E57" s="3">
-        <v>45600</v>
+        <v>42600</v>
       </c>
       <c r="F57" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="G57" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="H57" s="3">
-        <v>3600</v>
+        <v>3300</v>
       </c>
       <c r="I57" s="3">
-        <v>7000</v>
+        <v>6600</v>
       </c>
       <c r="J57" s="3">
-        <v>6100</v>
+        <v>5700</v>
       </c>
       <c r="K57" s="3">
         <v>2400</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>156300</v>
+        <v>146000</v>
       </c>
       <c r="E59" s="3">
-        <v>119100</v>
+        <v>111200</v>
       </c>
       <c r="F59" s="3">
-        <v>124000</v>
+        <v>115800</v>
       </c>
       <c r="G59" s="3">
-        <v>83300</v>
+        <v>77800</v>
       </c>
       <c r="H59" s="3">
-        <v>43300</v>
+        <v>40500</v>
       </c>
       <c r="I59" s="3">
-        <v>26300</v>
+        <v>24600</v>
       </c>
       <c r="J59" s="3">
-        <v>19100</v>
+        <v>17900</v>
       </c>
       <c r="K59" s="3">
         <v>10300</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>160700</v>
+        <v>150100</v>
       </c>
       <c r="E60" s="3">
-        <v>122300</v>
+        <v>114200</v>
       </c>
       <c r="F60" s="3">
-        <v>127200</v>
+        <v>118800</v>
       </c>
       <c r="G60" s="3">
-        <v>86800</v>
+        <v>81100</v>
       </c>
       <c r="H60" s="3">
-        <v>46900</v>
+        <v>43800</v>
       </c>
       <c r="I60" s="3">
-        <v>33300</v>
+        <v>31100</v>
       </c>
       <c r="J60" s="3">
-        <v>25200</v>
+        <v>23500</v>
       </c>
       <c r="K60" s="3">
         <v>12600</v>
@@ -2561,10 +2561,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="E61" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2600,10 +2600,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E62" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="F62" s="3">
         <v>1100</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>168800</v>
+        <v>157700</v>
       </c>
       <c r="E66" s="3">
-        <v>128200</v>
+        <v>119700</v>
       </c>
       <c r="F66" s="3">
-        <v>134300</v>
+        <v>125400</v>
       </c>
       <c r="G66" s="3">
-        <v>88800</v>
+        <v>83000</v>
       </c>
       <c r="H66" s="3">
-        <v>46900</v>
+        <v>43800</v>
       </c>
       <c r="I66" s="3">
-        <v>33300</v>
+        <v>31100</v>
       </c>
       <c r="J66" s="3">
-        <v>25200</v>
+        <v>23500</v>
       </c>
       <c r="K66" s="3">
         <v>12600</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>294700</v>
+        <v>275200</v>
       </c>
       <c r="E72" s="3">
-        <v>258600</v>
+        <v>241500</v>
       </c>
       <c r="F72" s="3">
-        <v>199700</v>
+        <v>186500</v>
       </c>
       <c r="G72" s="3">
-        <v>150000</v>
+        <v>140100</v>
       </c>
       <c r="H72" s="3">
-        <v>113600</v>
+        <v>106100</v>
       </c>
       <c r="I72" s="3">
-        <v>87200</v>
+        <v>81400</v>
       </c>
       <c r="J72" s="3">
-        <v>71500</v>
+        <v>66800</v>
       </c>
       <c r="K72" s="3">
         <v>48000</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>347200</v>
+        <v>324300</v>
       </c>
       <c r="E76" s="3">
-        <v>319800</v>
+        <v>298700</v>
       </c>
       <c r="F76" s="3">
-        <v>260600</v>
+        <v>243400</v>
       </c>
       <c r="G76" s="3">
-        <v>208500</v>
+        <v>194800</v>
       </c>
       <c r="H76" s="3">
-        <v>173800</v>
+        <v>162300</v>
       </c>
       <c r="I76" s="3">
-        <v>145400</v>
+        <v>135800</v>
       </c>
       <c r="J76" s="3">
-        <v>110100</v>
+        <v>102800</v>
       </c>
       <c r="K76" s="3">
         <v>85700</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>37100</v>
+        <v>34600</v>
       </c>
       <c r="E81" s="3">
-        <v>59000</v>
+        <v>55100</v>
       </c>
       <c r="F81" s="3">
-        <v>45800</v>
+        <v>42800</v>
       </c>
       <c r="G81" s="3">
-        <v>36400</v>
+        <v>34000</v>
       </c>
       <c r="H81" s="3">
-        <v>26500</v>
+        <v>24700</v>
       </c>
       <c r="I81" s="3">
-        <v>15700</v>
+        <v>14700</v>
       </c>
       <c r="J81" s="3">
-        <v>22200</v>
+        <v>20800</v>
       </c>
       <c r="K81" s="3">
         <v>21700</v>
@@ -3302,25 +3302,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>26800</v>
+        <v>25000</v>
       </c>
       <c r="E83" s="3">
-        <v>26800</v>
+        <v>25000</v>
       </c>
       <c r="F83" s="3">
-        <v>21300</v>
+        <v>19900</v>
       </c>
       <c r="G83" s="3">
-        <v>17900</v>
+        <v>16700</v>
       </c>
       <c r="H83" s="3">
-        <v>17500</v>
+        <v>16400</v>
       </c>
       <c r="I83" s="3">
-        <v>10400</v>
+        <v>9700</v>
       </c>
       <c r="J83" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="K83" s="3">
         <v>3900</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>140900</v>
+        <v>131700</v>
       </c>
       <c r="E89" s="3">
-        <v>70100</v>
+        <v>65500</v>
       </c>
       <c r="F89" s="3">
-        <v>112400</v>
+        <v>104900</v>
       </c>
       <c r="G89" s="3">
-        <v>92800</v>
+        <v>86600</v>
       </c>
       <c r="H89" s="3">
-        <v>45300</v>
+        <v>42300</v>
       </c>
       <c r="I89" s="3">
-        <v>34100</v>
+        <v>31900</v>
       </c>
       <c r="J89" s="3">
-        <v>37300</v>
+        <v>34800</v>
       </c>
       <c r="K89" s="3">
         <v>23000</v>
@@ -3592,25 +3592,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-19000</v>
+        <v>-17700</v>
       </c>
       <c r="E91" s="3">
-        <v>-103100</v>
+        <v>-96300</v>
       </c>
       <c r="F91" s="3">
-        <v>-15700</v>
+        <v>-14700</v>
       </c>
       <c r="G91" s="3">
-        <v>-14100</v>
+        <v>-13200</v>
       </c>
       <c r="H91" s="3">
-        <v>-17200</v>
+        <v>-16100</v>
       </c>
       <c r="I91" s="3">
-        <v>-54700</v>
+        <v>-51100</v>
       </c>
       <c r="J91" s="3">
-        <v>-23000</v>
+        <v>-21400</v>
       </c>
       <c r="K91" s="3">
         <v>-1400</v>
@@ -3709,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-162400</v>
+        <v>-151700</v>
       </c>
       <c r="E94" s="3">
-        <v>-23600</v>
+        <v>-22000</v>
       </c>
       <c r="F94" s="3">
-        <v>-197800</v>
+        <v>-184800</v>
       </c>
       <c r="G94" s="3">
-        <v>20700</v>
+        <v>19300</v>
       </c>
       <c r="H94" s="3">
-        <v>-95000</v>
+        <v>-88700</v>
       </c>
       <c r="I94" s="3">
-        <v>-44600</v>
+        <v>-41600</v>
       </c>
       <c r="J94" s="3">
-        <v>-7000</v>
+        <v>-6600</v>
       </c>
       <c r="K94" s="3">
         <v>-20600</v>
@@ -3921,22 +3921,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-15900</v>
+        <v>-14800</v>
       </c>
       <c r="E100" s="3">
-        <v>-7900</v>
+        <v>-7400</v>
       </c>
       <c r="F100" s="3">
         <v>-200</v>
       </c>
       <c r="G100" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="H100" s="3">
-        <v>15700</v>
+        <v>14700</v>
       </c>
       <c r="I100" s="3">
-        <v>18100</v>
+        <v>16900</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -3969,13 +3969,13 @@
         <v>-100</v>
       </c>
       <c r="G101" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="H101" s="3">
         <v>400</v>
       </c>
       <c r="I101" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-37400</v>
+        <v>-34900</v>
       </c>
       <c r="E102" s="3">
-        <v>38600</v>
+        <v>36100</v>
       </c>
       <c r="F102" s="3">
-        <v>-85800</v>
+        <v>-80100</v>
       </c>
       <c r="G102" s="3">
-        <v>115900</v>
+        <v>108300</v>
       </c>
       <c r="H102" s="3">
-        <v>-33600</v>
+        <v>-31400</v>
       </c>
       <c r="I102" s="3">
-        <v>9100</v>
+        <v>8500</v>
       </c>
       <c r="J102" s="3">
-        <v>30200</v>
+        <v>28200</v>
       </c>
       <c r="K102" s="3">
         <v>2400</v>

--- a/AAII_Financials/Yearly/HLG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HLG_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>202700</v>
+        <v>200900</v>
       </c>
       <c r="E8" s="3">
-        <v>151400</v>
+        <v>150000</v>
       </c>
       <c r="F8" s="3">
-        <v>150700</v>
+        <v>149400</v>
       </c>
       <c r="G8" s="3">
-        <v>172300</v>
+        <v>170800</v>
       </c>
       <c r="H8" s="3">
-        <v>125700</v>
+        <v>124600</v>
       </c>
       <c r="I8" s="3">
-        <v>96400</v>
+        <v>95500</v>
       </c>
       <c r="J8" s="3">
-        <v>75900</v>
+        <v>75200</v>
       </c>
       <c r="K8" s="3">
         <v>71300</v>
@@ -763,25 +763,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>107400</v>
+        <v>106400</v>
       </c>
       <c r="E9" s="3">
-        <v>85500</v>
+        <v>84700</v>
       </c>
       <c r="F9" s="3">
-        <v>90500</v>
+        <v>89700</v>
       </c>
       <c r="G9" s="3">
-        <v>118600</v>
+        <v>117500</v>
       </c>
       <c r="H9" s="3">
-        <v>95600</v>
+        <v>94700</v>
       </c>
       <c r="I9" s="3">
-        <v>146100</v>
+        <v>144800</v>
       </c>
       <c r="J9" s="3">
-        <v>49300</v>
+        <v>48900</v>
       </c>
       <c r="K9" s="3">
         <v>46100</v>
@@ -802,25 +802,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>95400</v>
+        <v>94500</v>
       </c>
       <c r="E10" s="3">
-        <v>65900</v>
+        <v>65300</v>
       </c>
       <c r="F10" s="3">
-        <v>60200</v>
+        <v>59600</v>
       </c>
       <c r="G10" s="3">
-        <v>53700</v>
+        <v>53300</v>
       </c>
       <c r="H10" s="3">
-        <v>30200</v>
+        <v>29900</v>
       </c>
       <c r="I10" s="3">
-        <v>-49700</v>
+        <v>-49300</v>
       </c>
       <c r="J10" s="3">
-        <v>26600</v>
+        <v>26300</v>
       </c>
       <c r="K10" s="3">
         <v>25100</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>112400</v>
+        <v>111400</v>
       </c>
       <c r="E17" s="3">
-        <v>84300</v>
+        <v>83600</v>
       </c>
       <c r="F17" s="3">
-        <v>94500</v>
+        <v>93600</v>
       </c>
       <c r="G17" s="3">
-        <v>130200</v>
+        <v>129000</v>
       </c>
       <c r="H17" s="3">
-        <v>102000</v>
+        <v>101100</v>
       </c>
       <c r="I17" s="3">
-        <v>82600</v>
+        <v>81800</v>
       </c>
       <c r="J17" s="3">
-        <v>56100</v>
+        <v>55600</v>
       </c>
       <c r="K17" s="3">
         <v>52700</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>90300</v>
+        <v>89500</v>
       </c>
       <c r="E18" s="3">
-        <v>67100</v>
+        <v>66500</v>
       </c>
       <c r="F18" s="3">
-        <v>56200</v>
+        <v>55700</v>
       </c>
       <c r="G18" s="3">
-        <v>42100</v>
+        <v>41700</v>
       </c>
       <c r="H18" s="3">
-        <v>23700</v>
+        <v>23500</v>
       </c>
       <c r="I18" s="3">
-        <v>13800</v>
+        <v>13700</v>
       </c>
       <c r="J18" s="3">
-        <v>19700</v>
+        <v>19500</v>
       </c>
       <c r="K18" s="3">
         <v>18600</v>
@@ -1123,10 +1123,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="E20" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="F20" s="3">
         <v>2400</v>
@@ -1141,7 +1141,7 @@
         <v>800</v>
       </c>
       <c r="J20" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K20" s="3">
         <v>3100</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>120800</v>
+        <v>119500</v>
       </c>
       <c r="E21" s="3">
-        <v>94700</v>
+        <v>93600</v>
       </c>
       <c r="F21" s="3">
-        <v>78800</v>
+        <v>77800</v>
       </c>
       <c r="G21" s="3">
-        <v>60700</v>
+        <v>60000</v>
       </c>
       <c r="H21" s="3">
-        <v>41300</v>
+        <v>40700</v>
       </c>
       <c r="I21" s="3">
-        <v>24500</v>
+        <v>24100</v>
       </c>
       <c r="J21" s="3">
-        <v>24700</v>
+        <v>24400</v>
       </c>
       <c r="K21" s="3">
         <v>25500</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>95400</v>
+        <v>94500</v>
       </c>
       <c r="E23" s="3">
-        <v>68900</v>
+        <v>68300</v>
       </c>
       <c r="F23" s="3">
-        <v>58700</v>
+        <v>58200</v>
       </c>
       <c r="G23" s="3">
-        <v>43800</v>
+        <v>43400</v>
       </c>
       <c r="H23" s="3">
-        <v>24700</v>
+        <v>24500</v>
       </c>
       <c r="I23" s="3">
-        <v>14700</v>
+        <v>14500</v>
       </c>
       <c r="J23" s="3">
-        <v>20800</v>
+        <v>20600</v>
       </c>
       <c r="K23" s="3">
         <v>21700</v>
@@ -1279,16 +1279,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>24400</v>
+        <v>24100</v>
       </c>
       <c r="E24" s="3">
-        <v>18000</v>
+        <v>17800</v>
       </c>
       <c r="F24" s="3">
-        <v>16000</v>
+        <v>15900</v>
       </c>
       <c r="G24" s="3">
-        <v>9800</v>
+        <v>9700</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>71000</v>
+        <v>70400</v>
       </c>
       <c r="E26" s="3">
-        <v>51000</v>
+        <v>50500</v>
       </c>
       <c r="F26" s="3">
-        <v>42700</v>
+        <v>42300</v>
       </c>
       <c r="G26" s="3">
-        <v>34000</v>
+        <v>33700</v>
       </c>
       <c r="H26" s="3">
-        <v>24700</v>
+        <v>24500</v>
       </c>
       <c r="I26" s="3">
-        <v>14700</v>
+        <v>14500</v>
       </c>
       <c r="J26" s="3">
-        <v>20800</v>
+        <v>20600</v>
       </c>
       <c r="K26" s="3">
         <v>21700</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>71200</v>
+        <v>70500</v>
       </c>
       <c r="E27" s="3">
-        <v>51600</v>
+        <v>51100</v>
       </c>
       <c r="F27" s="3">
-        <v>39400</v>
+        <v>39000</v>
       </c>
       <c r="G27" s="3">
-        <v>34000</v>
+        <v>33700</v>
       </c>
       <c r="H27" s="3">
-        <v>24700</v>
+        <v>24500</v>
       </c>
       <c r="I27" s="3">
-        <v>14700</v>
+        <v>14500</v>
       </c>
       <c r="J27" s="3">
-        <v>20800</v>
+        <v>20600</v>
       </c>
       <c r="K27" s="3">
         <v>21700</v>
@@ -1474,10 +1474,10 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-36500</v>
+        <v>-36200</v>
       </c>
       <c r="E29" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="F29" s="3">
         <v>3400</v>
@@ -1591,10 +1591,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5300</v>
+        <v>-5200</v>
       </c>
       <c r="E32" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="F32" s="3">
         <v>-2400</v>
@@ -1609,7 +1609,7 @@
         <v>-800</v>
       </c>
       <c r="J32" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="K32" s="3">
         <v>-3100</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>34600</v>
+        <v>34300</v>
       </c>
       <c r="E33" s="3">
-        <v>55100</v>
+        <v>54600</v>
       </c>
       <c r="F33" s="3">
-        <v>42800</v>
+        <v>42400</v>
       </c>
       <c r="G33" s="3">
-        <v>34000</v>
+        <v>33700</v>
       </c>
       <c r="H33" s="3">
-        <v>24700</v>
+        <v>24500</v>
       </c>
       <c r="I33" s="3">
-        <v>14700</v>
+        <v>14500</v>
       </c>
       <c r="J33" s="3">
-        <v>20800</v>
+        <v>20600</v>
       </c>
       <c r="K33" s="3">
         <v>21700</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>34600</v>
+        <v>34300</v>
       </c>
       <c r="E35" s="3">
-        <v>55100</v>
+        <v>54600</v>
       </c>
       <c r="F35" s="3">
-        <v>42800</v>
+        <v>42400</v>
       </c>
       <c r="G35" s="3">
-        <v>34000</v>
+        <v>33700</v>
       </c>
       <c r="H35" s="3">
-        <v>24700</v>
+        <v>24500</v>
       </c>
       <c r="I35" s="3">
-        <v>14700</v>
+        <v>14500</v>
       </c>
       <c r="J35" s="3">
-        <v>20800</v>
+        <v>20600</v>
       </c>
       <c r="K35" s="3">
         <v>21700</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>41200</v>
+        <v>40800</v>
       </c>
       <c r="E41" s="3">
-        <v>152000</v>
+        <v>150700</v>
       </c>
       <c r="F41" s="3">
-        <v>38400</v>
+        <v>38100</v>
       </c>
       <c r="G41" s="3">
-        <v>119700</v>
+        <v>118700</v>
       </c>
       <c r="H41" s="3">
-        <v>11500</v>
+        <v>11400</v>
       </c>
       <c r="I41" s="3">
-        <v>42900</v>
+        <v>42500</v>
       </c>
       <c r="J41" s="3">
-        <v>34400</v>
+        <v>34100</v>
       </c>
       <c r="K41" s="3">
         <v>6500</v>
@@ -1903,22 +1903,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10500</v>
+        <v>10400</v>
       </c>
       <c r="E43" s="3">
-        <v>14600</v>
+        <v>14500</v>
       </c>
       <c r="F43" s="3">
-        <v>14000</v>
+        <v>13900</v>
       </c>
       <c r="G43" s="3">
-        <v>14000</v>
+        <v>13900</v>
       </c>
       <c r="H43" s="3">
-        <v>16600</v>
+        <v>16500</v>
       </c>
       <c r="I43" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="J43" s="3">
         <v>200</v>
@@ -1981,25 +1981,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>73600</v>
+        <v>72900</v>
       </c>
       <c r="E45" s="3">
-        <v>143500</v>
+        <v>142300</v>
       </c>
       <c r="F45" s="3">
-        <v>208800</v>
+        <v>207000</v>
       </c>
       <c r="G45" s="3">
-        <v>32300</v>
+        <v>32000</v>
       </c>
       <c r="H45" s="3">
-        <v>59300</v>
+        <v>58800</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>9100</v>
+        <v>9000</v>
       </c>
       <c r="K45" s="3">
         <v>64700</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>125200</v>
+        <v>124100</v>
       </c>
       <c r="E46" s="3">
-        <v>228800</v>
+        <v>226700</v>
       </c>
       <c r="F46" s="3">
-        <v>261200</v>
+        <v>258900</v>
       </c>
       <c r="G46" s="3">
-        <v>166100</v>
+        <v>164600</v>
       </c>
       <c r="H46" s="3">
-        <v>87400</v>
+        <v>86600</v>
       </c>
       <c r="I46" s="3">
-        <v>44700</v>
+        <v>44300</v>
       </c>
       <c r="J46" s="3">
-        <v>43700</v>
+        <v>43300</v>
       </c>
       <c r="K46" s="3">
         <v>71500</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>142700</v>
+        <v>141400</v>
       </c>
       <c r="E48" s="3">
-        <v>346000</v>
+        <v>342800</v>
       </c>
       <c r="F48" s="3">
-        <v>91500</v>
+        <v>90600</v>
       </c>
       <c r="G48" s="3">
-        <v>100100</v>
+        <v>99200</v>
       </c>
       <c r="H48" s="3">
-        <v>106200</v>
+        <v>105200</v>
       </c>
       <c r="I48" s="3">
-        <v>109100</v>
+        <v>108100</v>
       </c>
       <c r="J48" s="3">
-        <v>26800</v>
+        <v>26500</v>
       </c>
       <c r="K48" s="3">
         <v>14100</v>
@@ -2140,22 +2140,22 @@
         <v>2700</v>
       </c>
       <c r="E49" s="3">
-        <v>28800</v>
+        <v>28600</v>
       </c>
       <c r="F49" s="3">
-        <v>14700</v>
+        <v>14500</v>
       </c>
       <c r="G49" s="3">
+        <v>11500</v>
+      </c>
+      <c r="H49" s="3">
         <v>11600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>11700</v>
       </c>
-      <c r="I49" s="3">
-        <v>11800</v>
-      </c>
       <c r="J49" s="3">
-        <v>12000</v>
+        <v>11900</v>
       </c>
       <c r="K49" s="3">
         <v>12800</v>
@@ -2254,7 +2254,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>211300</v>
+        <v>209400</v>
       </c>
       <c r="E52" s="3">
         <v>1700</v>
@@ -2272,7 +2272,7 @@
         <v>1300</v>
       </c>
       <c r="J52" s="3">
-        <v>43900</v>
+        <v>43500</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>482000</v>
+        <v>477600</v>
       </c>
       <c r="E54" s="3">
-        <v>418400</v>
+        <v>414600</v>
       </c>
       <c r="F54" s="3">
-        <v>368800</v>
+        <v>365500</v>
       </c>
       <c r="G54" s="3">
-        <v>277800</v>
+        <v>275200</v>
       </c>
       <c r="H54" s="3">
-        <v>206200</v>
+        <v>204300</v>
       </c>
       <c r="I54" s="3">
-        <v>167000</v>
+        <v>165400</v>
       </c>
       <c r="J54" s="3">
-        <v>126400</v>
+        <v>125200</v>
       </c>
       <c r="K54" s="3">
         <v>98400</v>
@@ -2405,10 +2405,10 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="E57" s="3">
-        <v>42600</v>
+        <v>42200</v>
       </c>
       <c r="F57" s="3">
         <v>3000</v>
@@ -2420,10 +2420,10 @@
         <v>3300</v>
       </c>
       <c r="I57" s="3">
-        <v>6600</v>
+        <v>6500</v>
       </c>
       <c r="J57" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="K57" s="3">
         <v>2400</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>146000</v>
+        <v>144600</v>
       </c>
       <c r="E59" s="3">
-        <v>111200</v>
+        <v>110200</v>
       </c>
       <c r="F59" s="3">
-        <v>115800</v>
+        <v>114800</v>
       </c>
       <c r="G59" s="3">
-        <v>77800</v>
+        <v>77100</v>
       </c>
       <c r="H59" s="3">
-        <v>40500</v>
+        <v>40100</v>
       </c>
       <c r="I59" s="3">
-        <v>24600</v>
+        <v>24400</v>
       </c>
       <c r="J59" s="3">
-        <v>17900</v>
+        <v>17700</v>
       </c>
       <c r="K59" s="3">
         <v>10300</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>150100</v>
+        <v>148700</v>
       </c>
       <c r="E60" s="3">
-        <v>114200</v>
+        <v>113200</v>
       </c>
       <c r="F60" s="3">
-        <v>118800</v>
+        <v>117800</v>
       </c>
       <c r="G60" s="3">
-        <v>81100</v>
+        <v>80300</v>
       </c>
       <c r="H60" s="3">
-        <v>43800</v>
+        <v>43400</v>
       </c>
       <c r="I60" s="3">
-        <v>31100</v>
+        <v>30900</v>
       </c>
       <c r="J60" s="3">
-        <v>23500</v>
+        <v>23300</v>
       </c>
       <c r="K60" s="3">
         <v>12600</v>
@@ -2564,7 +2564,7 @@
         <v>4500</v>
       </c>
       <c r="E61" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>157700</v>
+        <v>156300</v>
       </c>
       <c r="E66" s="3">
-        <v>119700</v>
+        <v>118700</v>
       </c>
       <c r="F66" s="3">
-        <v>125400</v>
+        <v>124300</v>
       </c>
       <c r="G66" s="3">
-        <v>83000</v>
+        <v>82200</v>
       </c>
       <c r="H66" s="3">
-        <v>43800</v>
+        <v>43400</v>
       </c>
       <c r="I66" s="3">
-        <v>31100</v>
+        <v>30900</v>
       </c>
       <c r="J66" s="3">
-        <v>23500</v>
+        <v>23300</v>
       </c>
       <c r="K66" s="3">
         <v>12600</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>275200</v>
+        <v>272800</v>
       </c>
       <c r="E72" s="3">
-        <v>241500</v>
+        <v>239300</v>
       </c>
       <c r="F72" s="3">
-        <v>186500</v>
+        <v>184900</v>
       </c>
       <c r="G72" s="3">
-        <v>140100</v>
+        <v>138900</v>
       </c>
       <c r="H72" s="3">
-        <v>106100</v>
+        <v>105200</v>
       </c>
       <c r="I72" s="3">
-        <v>81400</v>
+        <v>80700</v>
       </c>
       <c r="J72" s="3">
-        <v>66800</v>
+        <v>66200</v>
       </c>
       <c r="K72" s="3">
         <v>48000</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>324300</v>
+        <v>321400</v>
       </c>
       <c r="E76" s="3">
-        <v>298700</v>
+        <v>296000</v>
       </c>
       <c r="F76" s="3">
-        <v>243400</v>
+        <v>241200</v>
       </c>
       <c r="G76" s="3">
-        <v>194800</v>
+        <v>193000</v>
       </c>
       <c r="H76" s="3">
-        <v>162300</v>
+        <v>160900</v>
       </c>
       <c r="I76" s="3">
-        <v>135800</v>
+        <v>134600</v>
       </c>
       <c r="J76" s="3">
-        <v>102800</v>
+        <v>101900</v>
       </c>
       <c r="K76" s="3">
         <v>85700</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>34600</v>
+        <v>34300</v>
       </c>
       <c r="E81" s="3">
-        <v>55100</v>
+        <v>54600</v>
       </c>
       <c r="F81" s="3">
-        <v>42800</v>
+        <v>42400</v>
       </c>
       <c r="G81" s="3">
-        <v>34000</v>
+        <v>33700</v>
       </c>
       <c r="H81" s="3">
-        <v>24700</v>
+        <v>24500</v>
       </c>
       <c r="I81" s="3">
-        <v>14700</v>
+        <v>14500</v>
       </c>
       <c r="J81" s="3">
-        <v>20800</v>
+        <v>20600</v>
       </c>
       <c r="K81" s="3">
         <v>21700</v>
@@ -3302,25 +3302,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>25000</v>
+        <v>24800</v>
       </c>
       <c r="E83" s="3">
-        <v>25000</v>
+        <v>24800</v>
       </c>
       <c r="F83" s="3">
-        <v>19900</v>
+        <v>19700</v>
       </c>
       <c r="G83" s="3">
-        <v>16700</v>
+        <v>16600</v>
       </c>
       <c r="H83" s="3">
-        <v>16400</v>
+        <v>16200</v>
       </c>
       <c r="I83" s="3">
-        <v>9700</v>
+        <v>9600</v>
       </c>
       <c r="J83" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="K83" s="3">
         <v>3900</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>131700</v>
+        <v>130500</v>
       </c>
       <c r="E89" s="3">
-        <v>65500</v>
+        <v>64900</v>
       </c>
       <c r="F89" s="3">
-        <v>104900</v>
+        <v>104000</v>
       </c>
       <c r="G89" s="3">
-        <v>86600</v>
+        <v>85900</v>
       </c>
       <c r="H89" s="3">
-        <v>42300</v>
+        <v>41900</v>
       </c>
       <c r="I89" s="3">
-        <v>31900</v>
+        <v>31600</v>
       </c>
       <c r="J89" s="3">
-        <v>34800</v>
+        <v>34500</v>
       </c>
       <c r="K89" s="3">
         <v>23000</v>
@@ -3592,25 +3592,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-17700</v>
+        <v>-17500</v>
       </c>
       <c r="E91" s="3">
-        <v>-96300</v>
+        <v>-95400</v>
       </c>
       <c r="F91" s="3">
-        <v>-14700</v>
+        <v>-14600</v>
       </c>
       <c r="G91" s="3">
-        <v>-13200</v>
+        <v>-13100</v>
       </c>
       <c r="H91" s="3">
-        <v>-16100</v>
+        <v>-15900</v>
       </c>
       <c r="I91" s="3">
-        <v>-51100</v>
+        <v>-50600</v>
       </c>
       <c r="J91" s="3">
-        <v>-21400</v>
+        <v>-21200</v>
       </c>
       <c r="K91" s="3">
         <v>-1400</v>
@@ -3709,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-151700</v>
+        <v>-150300</v>
       </c>
       <c r="E94" s="3">
-        <v>-22000</v>
+        <v>-21800</v>
       </c>
       <c r="F94" s="3">
-        <v>-184800</v>
+        <v>-183100</v>
       </c>
       <c r="G94" s="3">
-        <v>19300</v>
+        <v>19200</v>
       </c>
       <c r="H94" s="3">
-        <v>-88700</v>
+        <v>-87900</v>
       </c>
       <c r="I94" s="3">
-        <v>-41600</v>
+        <v>-41300</v>
       </c>
       <c r="J94" s="3">
-        <v>-6600</v>
+        <v>-6500</v>
       </c>
       <c r="K94" s="3">
         <v>-20600</v>
@@ -3921,7 +3921,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-14800</v>
+        <v>-14700</v>
       </c>
       <c r="E100" s="3">
         <v>-7400</v>
@@ -3933,10 +3933,10 @@
         <v>2700</v>
       </c>
       <c r="H100" s="3">
-        <v>14700</v>
+        <v>14500</v>
       </c>
       <c r="I100" s="3">
-        <v>16900</v>
+        <v>16700</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-34900</v>
+        <v>-34600</v>
       </c>
       <c r="E102" s="3">
-        <v>36100</v>
+        <v>35800</v>
       </c>
       <c r="F102" s="3">
-        <v>-80100</v>
+        <v>-79400</v>
       </c>
       <c r="G102" s="3">
-        <v>108300</v>
+        <v>107300</v>
       </c>
       <c r="H102" s="3">
-        <v>-31400</v>
+        <v>-31100</v>
       </c>
       <c r="I102" s="3">
-        <v>8500</v>
+        <v>8400</v>
       </c>
       <c r="J102" s="3">
-        <v>28200</v>
+        <v>27900</v>
       </c>
       <c r="K102" s="3">
         <v>2400</v>
